--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #11 NOVIEMBRE 2022/BALANCE   HERRADURA   NOVIEMRRE      2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #11 NOVIEMBRE 2022/BALANCE   HERRADURA   NOVIEMRRE      2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="195" yWindow="915" windowWidth="16905" windowHeight="10110" firstSheet="18" activeTab="18"/>
+    <workbookView xWindow="195" yWindow="915" windowWidth="16905" windowHeight="10110" firstSheet="18" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -32,7 +32,9 @@
     <sheet name="COMPRAS   SEPTIEMBRE 2022" sheetId="18" r:id="rId18"/>
     <sheet name="   O C T U B R E     2 0 2 2   " sheetId="19" r:id="rId19"/>
     <sheet name=" COMPRAS  OCTUBRE   2022     " sheetId="20" r:id="rId20"/>
-    <sheet name="Hoja2" sheetId="21" r:id="rId21"/>
+    <sheet name="   N O V I E M  B R E    2022  " sheetId="21" r:id="rId21"/>
+    <sheet name="COMPRAS NOVIEMBRE 2022" sheetId="22" r:id="rId22"/>
+    <sheet name="Hoja3" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -110,6 +112,64 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ROUSS</author>
+  </authors>
+  <commentList>
+    <comment ref="J23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ROUSS</author>
@@ -632,7 +692,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="551">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2292,6 +2352,12 @@
   </si>
   <si>
     <t>COMISION BANCO</t>
+  </si>
+  <si>
+    <t>??????????</t>
+  </si>
+  <si>
+    <t>BALANCE      ABASTO 4 CARNES    H E R R A D U R A    NOVIEMBRE    2 0 2 2</t>
   </si>
 </sst>
 </file>
@@ -3644,7 +3710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="418">
+  <cellXfs count="423">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -4341,6 +4407,17 @@
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5318,6 +5395,432 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="5000625" y="12496800"/>
+          <a:ext cx="923925" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83BD9866-FF79-48A3-8125-274D02C358E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5076825" y="10344149"/>
+          <a:ext cx="152400" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CB40F1F-8813-4BFC-8C98-C4B9398EBA6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4991100" y="9848850"/>
+          <a:ext cx="533400" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7705E016-15EF-48E9-8112-55956DB9A028}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5076825" y="10344149"/>
+          <a:ext cx="152400" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto de flecha 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EFF9FBA-ADFD-4F21-8022-9D7FA8728028}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2152650" y="9829800"/>
+          <a:ext cx="1781175" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>200023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133352</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Abrir llave 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DF22E63-49BB-45F3-B7CF-F3196DA45995}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7648576" y="8963022"/>
+          <a:ext cx="200026" cy="2124077"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 52985"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>64250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1323990" cy="419708"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectángulo 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADB3AFF8-1821-4422-8C39-1F09F5802A6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18916712">
+          <a:off x="0" y="10656050"/>
+          <a:ext cx="1323990" cy="419708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" cap="none" spc="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Rosy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> Tellez</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1400" b="1" cap="none" spc="0">
+            <a:ln w="6600">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent2"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector recto de flecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C60128-65EF-4D68-902C-E7D41384C4E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5000625" y="10677525"/>
           <a:ext cx="923925" cy="1038225"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -9047,23 +9550,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="376"/>
-      <c r="C1" s="378" t="s">
+      <c r="B1" s="381"/>
+      <c r="C1" s="383" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
-      <c r="H1" s="379"/>
-      <c r="I1" s="379"/>
-      <c r="J1" s="379"/>
-      <c r="K1" s="379"/>
-      <c r="L1" s="379"/>
-      <c r="M1" s="379"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
+      <c r="H1" s="384"/>
+      <c r="I1" s="384"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="377"/>
+      <c r="B2" s="382"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -9073,21 +9576,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="380" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="381"/>
+      <c r="B3" s="385" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="386"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="382" t="s">
+      <c r="H3" s="387" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="382"/>
+      <c r="I3" s="387"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="387" t="s">
+      <c r="R3" s="392" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9102,14 +9605,14 @@
       <c r="D4" s="16">
         <v>44563</v>
       </c>
-      <c r="E4" s="383" t="s">
+      <c r="E4" s="388" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="384"/>
-      <c r="H4" s="385" t="s">
+      <c r="F4" s="389"/>
+      <c r="H4" s="390" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="386"/>
+      <c r="I4" s="391"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -9119,11 +9622,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="394" t="s">
+      <c r="P4" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="395"/>
-      <c r="R4" s="388"/>
+      <c r="Q4" s="400"/>
+      <c r="R4" s="393"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -10578,11 +11081,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="396">
+      <c r="M40" s="401">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="398">
+      <c r="N40" s="403">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -10607,8 +11110,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="397"/>
-      <c r="N41" s="399"/>
+      <c r="M41" s="402"/>
+      <c r="N41" s="404"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -10815,29 +11318,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="400" t="s">
+      <c r="H53" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="401"/>
+      <c r="I53" s="406"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="402">
+      <c r="K53" s="407">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="403"/>
-      <c r="M53" s="404">
+      <c r="L53" s="408"/>
+      <c r="M53" s="409">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="405"/>
+      <c r="N53" s="410"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="406" t="s">
+      <c r="D54" s="411" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="406"/>
+      <c r="E54" s="411"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -10848,22 +11351,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="407" t="s">
+      <c r="D55" s="412" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="407"/>
+      <c r="E55" s="412"/>
       <c r="F55" s="111">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="408" t="s">
+      <c r="I55" s="413" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="409"/>
-      <c r="K55" s="410">
+      <c r="J55" s="414"/>
+      <c r="K55" s="415">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="411"/>
+      <c r="L55" s="416"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -10894,11 +11397,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="412">
+      <c r="K57" s="417">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="413"/>
+      <c r="L57" s="418"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -10915,22 +11418,22 @@
       <c r="C59" s="128">
         <v>44591</v>
       </c>
-      <c r="D59" s="389" t="s">
+      <c r="D59" s="394" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="390"/>
+      <c r="E59" s="395"/>
       <c r="F59" s="129">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="391" t="s">
+      <c r="I59" s="396" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="392"/>
-      <c r="K59" s="393">
+      <c r="J59" s="397"/>
+      <c r="K59" s="398">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="393"/>
+      <c r="L59" s="398"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -12528,23 +13031,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="376"/>
-      <c r="C1" s="378" t="s">
+      <c r="B1" s="381"/>
+      <c r="C1" s="383" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
-      <c r="H1" s="379"/>
-      <c r="I1" s="379"/>
-      <c r="J1" s="379"/>
-      <c r="K1" s="379"/>
-      <c r="L1" s="379"/>
-      <c r="M1" s="379"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
+      <c r="H1" s="384"/>
+      <c r="I1" s="384"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="377"/>
+      <c r="B2" s="382"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -12554,21 +13057,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="380" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="381"/>
+      <c r="B3" s="385" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="386"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="382" t="s">
+      <c r="H3" s="387" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="382"/>
+      <c r="I3" s="387"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="387" t="s">
+      <c r="R3" s="392" t="s">
         <v>38</v>
       </c>
     </row>
@@ -12583,14 +13086,14 @@
       <c r="D4" s="16">
         <v>44710</v>
       </c>
-      <c r="E4" s="383" t="s">
+      <c r="E4" s="388" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="384"/>
-      <c r="H4" s="385" t="s">
+      <c r="F4" s="389"/>
+      <c r="H4" s="390" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="386"/>
+      <c r="I4" s="391"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -12600,11 +13103,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="394" t="s">
+      <c r="P4" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="395"/>
-      <c r="R4" s="388"/>
+      <c r="Q4" s="400"/>
+      <c r="R4" s="393"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -14134,11 +14637,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="396">
+      <c r="M40" s="401">
         <f>SUM(M5:M39)</f>
         <v>2772689</v>
       </c>
-      <c r="N40" s="398">
+      <c r="N40" s="403">
         <f>SUM(N5:N39)</f>
         <v>107354</v>
       </c>
@@ -14169,8 +14672,8 @@
       <c r="L41" s="73">
         <v>638.99</v>
       </c>
-      <c r="M41" s="397"/>
-      <c r="N41" s="399"/>
+      <c r="M41" s="402"/>
+      <c r="N41" s="404"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -14416,29 +14919,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="400" t="s">
+      <c r="H53" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="401"/>
+      <c r="I53" s="406"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="402">
+      <c r="K53" s="407">
         <f>I51+L51</f>
         <v>60691.69</v>
       </c>
-      <c r="L53" s="403"/>
-      <c r="M53" s="404">
+      <c r="L53" s="408"/>
+      <c r="M53" s="409">
         <f>N40+M40</f>
         <v>2880043</v>
       </c>
-      <c r="N53" s="405"/>
+      <c r="N53" s="410"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="406" t="s">
+      <c r="D54" s="411" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="406"/>
+      <c r="E54" s="411"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2844548.31</v>
@@ -14449,22 +14952,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="407" t="s">
+      <c r="D55" s="412" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="407"/>
+      <c r="E55" s="412"/>
       <c r="F55" s="111">
         <v>-2875380.48</v>
       </c>
-      <c r="I55" s="408" t="s">
+      <c r="I55" s="413" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="409"/>
-      <c r="K55" s="410">
+      <c r="J55" s="414"/>
+      <c r="K55" s="415">
         <f>F57+F58+F59</f>
         <v>247554.74000000008</v>
       </c>
-      <c r="L55" s="411"/>
+      <c r="L55" s="416"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -14495,11 +14998,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="412">
+      <c r="K57" s="417">
         <f>-C4</f>
         <v>-149938.81</v>
       </c>
-      <c r="L57" s="413"/>
+      <c r="L57" s="418"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -14516,22 +15019,22 @@
       <c r="C59" s="128">
         <v>44745</v>
       </c>
-      <c r="D59" s="389" t="s">
+      <c r="D59" s="394" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="390"/>
+      <c r="E59" s="395"/>
       <c r="F59" s="129">
         <v>232165.91</v>
       </c>
-      <c r="I59" s="391" t="s">
+      <c r="I59" s="396" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="392"/>
-      <c r="K59" s="393">
+      <c r="J59" s="397"/>
+      <c r="K59" s="398">
         <f>K55+K57</f>
         <v>97615.93000000008</v>
       </c>
-      <c r="L59" s="393"/>
+      <c r="L59" s="398"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -16161,23 +16664,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="376"/>
-      <c r="C1" s="378" t="s">
+      <c r="B1" s="381"/>
+      <c r="C1" s="383" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
-      <c r="H1" s="379"/>
-      <c r="I1" s="379"/>
-      <c r="J1" s="379"/>
-      <c r="K1" s="379"/>
-      <c r="L1" s="379"/>
-      <c r="M1" s="379"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
+      <c r="H1" s="384"/>
+      <c r="I1" s="384"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="377"/>
+      <c r="B2" s="382"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -16187,21 +16690,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="380" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="381"/>
+      <c r="B3" s="385" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="386"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="382" t="s">
+      <c r="H3" s="387" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="382"/>
+      <c r="I3" s="387"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="387" t="s">
+      <c r="R3" s="392" t="s">
         <v>38</v>
       </c>
     </row>
@@ -16216,14 +16719,14 @@
       <c r="D4" s="16">
         <v>44745</v>
       </c>
-      <c r="E4" s="383" t="s">
+      <c r="E4" s="388" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="384"/>
-      <c r="H4" s="385" t="s">
+      <c r="F4" s="389"/>
+      <c r="H4" s="390" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="386"/>
+      <c r="I4" s="391"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -16233,11 +16736,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="394" t="s">
+      <c r="P4" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="395"/>
-      <c r="R4" s="388"/>
+      <c r="Q4" s="400"/>
+      <c r="R4" s="393"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -17682,11 +18185,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="396">
+      <c r="M40" s="401">
         <f>SUM(M5:M39)</f>
         <v>2373103</v>
       </c>
-      <c r="N40" s="398">
+      <c r="N40" s="403">
         <f>SUM(N5:N39)</f>
         <v>67308</v>
       </c>
@@ -17715,8 +18218,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="397"/>
-      <c r="N41" s="399"/>
+      <c r="M41" s="402"/>
+      <c r="N41" s="404"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -17931,29 +18434,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="400" t="s">
+      <c r="H53" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="401"/>
+      <c r="I53" s="406"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="402">
+      <c r="K53" s="407">
         <f>I51+L51</f>
         <v>79649.720000000016</v>
       </c>
-      <c r="L53" s="403"/>
-      <c r="M53" s="404">
+      <c r="L53" s="408"/>
+      <c r="M53" s="409">
         <f>N40+M40</f>
         <v>2440411</v>
       </c>
-      <c r="N53" s="405"/>
+      <c r="N53" s="410"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="406" t="s">
+      <c r="D54" s="411" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="406"/>
+      <c r="E54" s="411"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2356249.2799999998</v>
@@ -17964,22 +18467,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="407" t="s">
+      <c r="D55" s="412" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="407"/>
+      <c r="E55" s="412"/>
       <c r="F55" s="111">
         <v>-2471332.31</v>
       </c>
-      <c r="I55" s="408" t="s">
+      <c r="I55" s="413" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="409"/>
-      <c r="K55" s="410">
+      <c r="J55" s="414"/>
+      <c r="K55" s="415">
         <f>F57+F58+F59</f>
         <v>214026.38999999972</v>
       </c>
-      <c r="L55" s="411"/>
+      <c r="L55" s="416"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -18010,11 +18513,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="412">
+      <c r="K57" s="417">
         <f>-C4</f>
         <v>-232165.91</v>
       </c>
-      <c r="L57" s="413"/>
+      <c r="L57" s="418"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -18031,22 +18534,22 @@
       <c r="C59" s="128">
         <v>44773</v>
       </c>
-      <c r="D59" s="389" t="s">
+      <c r="D59" s="394" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="390"/>
+      <c r="E59" s="395"/>
       <c r="F59" s="129">
         <v>273736.42</v>
       </c>
-      <c r="I59" s="391" t="s">
+      <c r="I59" s="396" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="392"/>
-      <c r="K59" s="393">
+      <c r="J59" s="397"/>
+      <c r="K59" s="398">
         <f>K55+K57</f>
         <v>-18139.520000000281</v>
       </c>
-      <c r="L59" s="393"/>
+      <c r="L59" s="398"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -19583,23 +20086,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="376"/>
-      <c r="C1" s="378" t="s">
+      <c r="B1" s="381"/>
+      <c r="C1" s="383" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
-      <c r="H1" s="379"/>
-      <c r="I1" s="379"/>
-      <c r="J1" s="379"/>
-      <c r="K1" s="379"/>
-      <c r="L1" s="379"/>
-      <c r="M1" s="379"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
+      <c r="H1" s="384"/>
+      <c r="I1" s="384"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="377"/>
+      <c r="B2" s="382"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -19609,21 +20112,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="380" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="381"/>
+      <c r="B3" s="385" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="386"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="382" t="s">
+      <c r="H3" s="387" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="382"/>
+      <c r="I3" s="387"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="387" t="s">
+      <c r="R3" s="392" t="s">
         <v>38</v>
       </c>
     </row>
@@ -19638,14 +20141,14 @@
       <c r="D4" s="16">
         <v>44773</v>
       </c>
-      <c r="E4" s="383" t="s">
+      <c r="E4" s="388" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="384"/>
-      <c r="H4" s="385" t="s">
+      <c r="F4" s="389"/>
+      <c r="H4" s="390" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="386"/>
+      <c r="I4" s="391"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -19655,11 +20158,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="394" t="s">
+      <c r="P4" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="395"/>
-      <c r="R4" s="388"/>
+      <c r="Q4" s="400"/>
+      <c r="R4" s="393"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -21139,11 +21642,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="396">
+      <c r="M40" s="401">
         <f>SUM(M5:M39)</f>
         <v>2375259</v>
       </c>
-      <c r="N40" s="398">
+      <c r="N40" s="403">
         <f>SUM(N5:N39)</f>
         <v>61117</v>
       </c>
@@ -21172,8 +21675,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="397"/>
-      <c r="N41" s="399"/>
+      <c r="M41" s="402"/>
+      <c r="N41" s="404"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -21388,29 +21891,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="400" t="s">
+      <c r="H53" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="401"/>
+      <c r="I53" s="406"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="402">
+      <c r="K53" s="407">
         <f>I51+L51</f>
         <v>52857.25</v>
       </c>
-      <c r="L53" s="403"/>
-      <c r="M53" s="404">
+      <c r="L53" s="408"/>
+      <c r="M53" s="409">
         <f>N40+M40</f>
         <v>2436376</v>
       </c>
-      <c r="N53" s="405"/>
+      <c r="N53" s="410"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="406" t="s">
+      <c r="D54" s="411" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="406"/>
+      <c r="E54" s="411"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2370653.75</v>
@@ -21421,22 +21924,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="407" t="s">
+      <c r="D55" s="412" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="407"/>
+      <c r="E55" s="412"/>
       <c r="F55" s="111">
         <v>-2401197.5699999998</v>
       </c>
-      <c r="I55" s="408" t="s">
+      <c r="I55" s="413" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="409"/>
-      <c r="K55" s="410">
+      <c r="J55" s="414"/>
+      <c r="K55" s="415">
         <f>F57+F58+F59</f>
         <v>259241.77000000016</v>
       </c>
-      <c r="L55" s="411"/>
+      <c r="L55" s="416"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -21467,11 +21970,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="412">
+      <c r="K57" s="417">
         <f>-C4</f>
         <v>-273736.42</v>
       </c>
-      <c r="L57" s="413"/>
+      <c r="L57" s="418"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -21488,22 +21991,22 @@
       <c r="C59" s="128">
         <v>44801</v>
       </c>
-      <c r="D59" s="389" t="s">
+      <c r="D59" s="394" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="390"/>
+      <c r="E59" s="395"/>
       <c r="F59" s="129">
         <v>236400.59</v>
       </c>
-      <c r="I59" s="415" t="s">
+      <c r="I59" s="420" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="416"/>
-      <c r="K59" s="417">
+      <c r="J59" s="421"/>
+      <c r="K59" s="422">
         <f>K55+K57</f>
         <v>-14494.64999999982</v>
       </c>
-      <c r="L59" s="417"/>
+      <c r="L59" s="422"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -23055,23 +23558,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="376"/>
-      <c r="C1" s="378" t="s">
+      <c r="B1" s="381"/>
+      <c r="C1" s="383" t="s">
         <v>465</v>
       </c>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
-      <c r="H1" s="379"/>
-      <c r="I1" s="379"/>
-      <c r="J1" s="379"/>
-      <c r="K1" s="379"/>
-      <c r="L1" s="379"/>
-      <c r="M1" s="379"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
+      <c r="H1" s="384"/>
+      <c r="I1" s="384"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="377"/>
+      <c r="B2" s="382"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -23081,21 +23584,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="380" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="381"/>
+      <c r="B3" s="385" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="386"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="382" t="s">
+      <c r="H3" s="387" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="382"/>
+      <c r="I3" s="387"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="387" t="s">
+      <c r="R3" s="392" t="s">
         <v>38</v>
       </c>
     </row>
@@ -23110,14 +23613,14 @@
       <c r="D4" s="16">
         <v>44801</v>
       </c>
-      <c r="E4" s="383" t="s">
+      <c r="E4" s="388" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="384"/>
-      <c r="H4" s="385" t="s">
+      <c r="F4" s="389"/>
+      <c r="H4" s="390" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="386"/>
+      <c r="I4" s="391"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -23127,11 +23630,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="394" t="s">
+      <c r="P4" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="395"/>
-      <c r="R4" s="388"/>
+      <c r="Q4" s="400"/>
+      <c r="R4" s="393"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -24859,11 +25362,11 @@
       <c r="L40" s="73">
         <v>927.48</v>
       </c>
-      <c r="M40" s="396">
+      <c r="M40" s="401">
         <f>SUM(M5:M39)</f>
         <v>3147309.5</v>
       </c>
-      <c r="N40" s="398">
+      <c r="N40" s="403">
         <f>SUM(N5:N39)</f>
         <v>76569</v>
       </c>
@@ -24898,8 +25401,8 @@
       <c r="L41" s="73">
         <v>33312</v>
       </c>
-      <c r="M41" s="397"/>
-      <c r="N41" s="399"/>
+      <c r="M41" s="402"/>
+      <c r="N41" s="404"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -25142,29 +25645,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="400" t="s">
+      <c r="H53" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="401"/>
+      <c r="I53" s="406"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="402">
+      <c r="K53" s="407">
         <f>I51+L51</f>
         <v>102873.87000000001</v>
       </c>
-      <c r="L53" s="403"/>
-      <c r="M53" s="404">
+      <c r="L53" s="408"/>
+      <c r="M53" s="409">
         <f>N40+M40</f>
         <v>3223878.5</v>
       </c>
-      <c r="N53" s="405"/>
+      <c r="N53" s="410"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="406" t="s">
+      <c r="D54" s="411" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="406"/>
+      <c r="E54" s="411"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>3130076.13</v>
@@ -25175,22 +25678,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="407" t="s">
+      <c r="D55" s="412" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="407"/>
+      <c r="E55" s="412"/>
       <c r="F55" s="111">
         <v>-3171951.31</v>
       </c>
-      <c r="I55" s="408" t="s">
+      <c r="I55" s="413" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="409"/>
-      <c r="K55" s="410">
+      <c r="J55" s="414"/>
+      <c r="K55" s="415">
         <f>F57+F58+F59</f>
         <v>265314.0299999998</v>
       </c>
-      <c r="L55" s="411"/>
+      <c r="L55" s="416"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -25221,11 +25724,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="412">
+      <c r="K57" s="417">
         <f>-C4</f>
         <v>-236400.59</v>
       </c>
-      <c r="L57" s="413"/>
+      <c r="L57" s="418"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -25242,22 +25745,22 @@
       <c r="C59" s="128">
         <v>44836</v>
       </c>
-      <c r="D59" s="389" t="s">
+      <c r="D59" s="394" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="390"/>
+      <c r="E59" s="395"/>
       <c r="F59" s="129">
         <v>242354.21</v>
       </c>
-      <c r="I59" s="415" t="s">
+      <c r="I59" s="420" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="416"/>
-      <c r="K59" s="417">
+      <c r="J59" s="421"/>
+      <c r="K59" s="422">
         <f>K55+K57</f>
         <v>28913.439999999799</v>
       </c>
-      <c r="L59" s="417"/>
+      <c r="L59" s="422"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -26721,11 +27224,11 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
+      <selection pane="bottomRight" activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26750,23 +27253,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="376"/>
-      <c r="C1" s="378" t="s">
+      <c r="B1" s="381"/>
+      <c r="C1" s="383" t="s">
         <v>512</v>
       </c>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
-      <c r="H1" s="379"/>
-      <c r="I1" s="379"/>
-      <c r="J1" s="379"/>
-      <c r="K1" s="379"/>
-      <c r="L1" s="379"/>
-      <c r="M1" s="379"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
+      <c r="H1" s="384"/>
+      <c r="I1" s="384"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="377"/>
+      <c r="B2" s="382"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -26776,21 +27279,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="380" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="381"/>
+      <c r="B3" s="385" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="386"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="382" t="s">
+      <c r="H3" s="387" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="382"/>
+      <c r="I3" s="387"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="387" t="s">
+      <c r="R3" s="392" t="s">
         <v>38</v>
       </c>
     </row>
@@ -26805,14 +27308,14 @@
       <c r="D4" s="16">
         <v>44836</v>
       </c>
-      <c r="E4" s="383" t="s">
+      <c r="E4" s="388" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="384"/>
-      <c r="H4" s="385" t="s">
+      <c r="F4" s="389"/>
+      <c r="H4" s="390" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="386"/>
+      <c r="I4" s="391"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -26822,11 +27325,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="394" t="s">
+      <c r="P4" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="395"/>
-      <c r="R4" s="388"/>
+      <c r="Q4" s="400"/>
+      <c r="R4" s="393"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -28424,8 +28927,12 @@
       <c r="G38" s="323"/>
       <c r="H38" s="324"/>
       <c r="I38" s="29"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="329"/>
+      <c r="J38" s="71">
+        <v>44848</v>
+      </c>
+      <c r="K38" s="376" t="s">
+        <v>549</v>
+      </c>
       <c r="L38" s="78">
         <v>71514</v>
       </c>
@@ -28495,11 +29002,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="360"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="396">
+      <c r="M40" s="401">
         <f>SUM(M5:M39)</f>
         <v>2563550</v>
       </c>
-      <c r="N40" s="398">
+      <c r="N40" s="403">
         <f>SUM(N5:N39)</f>
         <v>77235</v>
       </c>
@@ -28529,8 +29036,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="363"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="397"/>
-      <c r="N41" s="399"/>
+      <c r="M41" s="402"/>
+      <c r="N41" s="404"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -28745,29 +29252,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="400" t="s">
+      <c r="H53" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="401"/>
+      <c r="I53" s="406"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="402">
+      <c r="K53" s="407">
         <f>I51+L51</f>
         <v>151758.24</v>
       </c>
-      <c r="L53" s="403"/>
-      <c r="M53" s="404">
+      <c r="L53" s="408"/>
+      <c r="M53" s="409">
         <f>N40+M40</f>
         <v>2640785</v>
       </c>
-      <c r="N53" s="405"/>
+      <c r="N53" s="410"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="406" t="s">
+      <c r="D54" s="411" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="406"/>
+      <c r="E54" s="411"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2467848.5599999996</v>
@@ -28778,22 +29285,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="407" t="s">
+      <c r="D55" s="412" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="407"/>
+      <c r="E55" s="412"/>
       <c r="F55" s="111">
         <v>-2793202.57</v>
       </c>
-      <c r="I55" s="408" t="s">
+      <c r="I55" s="413" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="409"/>
-      <c r="K55" s="410">
+      <c r="J55" s="414"/>
+      <c r="K55" s="415">
         <f>F57+F58+F59</f>
         <v>149596.74999999977</v>
       </c>
-      <c r="L55" s="411"/>
+      <c r="L55" s="416"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -28824,11 +29331,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="412">
+      <c r="K57" s="417">
         <f>-C4</f>
         <v>-242354.21</v>
       </c>
-      <c r="L57" s="413"/>
+      <c r="L57" s="418"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -28845,22 +29352,22 @@
       <c r="C59" s="128">
         <v>44864</v>
       </c>
-      <c r="D59" s="389" t="s">
+      <c r="D59" s="394" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="390"/>
+      <c r="E59" s="395"/>
       <c r="F59" s="129">
         <v>419424.76</v>
       </c>
-      <c r="I59" s="415" t="s">
+      <c r="I59" s="420" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="416"/>
-      <c r="K59" s="417">
+      <c r="J59" s="421"/>
+      <c r="K59" s="422">
         <f>K55+K57</f>
         <v>-92757.460000000225</v>
       </c>
-      <c r="L59" s="417"/>
+      <c r="L59" s="422"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -30800,8 +31307,8 @@
   <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32028,6 +32535,3158 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:U81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="112" customWidth="1"/>
+    <col min="3" max="3" width="16" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" style="174"/>
+    <col min="20" max="20" width="11.42578125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B1" s="381"/>
+      <c r="C1" s="383" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
+      <c r="H1" s="384"/>
+      <c r="I1" s="384"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="382"/>
+      <c r="C2" s="2"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="385" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="386"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="H3" s="387" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="387"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="4"/>
+      <c r="R3" s="392" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15">
+        <v>419424.76</v>
+      </c>
+      <c r="D4" s="16">
+        <v>44864</v>
+      </c>
+      <c r="E4" s="388" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="389"/>
+      <c r="H4" s="390" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="391"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="399" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="400"/>
+      <c r="R4" s="393"/>
+    </row>
+    <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="320">
+        <v>44865</v>
+      </c>
+      <c r="C5" s="24">
+        <v>0</v>
+      </c>
+      <c r="D5" s="321"/>
+      <c r="E5" s="322">
+        <v>44865</v>
+      </c>
+      <c r="F5" s="27">
+        <v>136405</v>
+      </c>
+      <c r="G5" s="323"/>
+      <c r="H5" s="324">
+        <v>44865</v>
+      </c>
+      <c r="I5" s="29">
+        <v>156</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="325"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="30">
+        <f>116634+18000</f>
+        <v>134634</v>
+      </c>
+      <c r="N5" s="31">
+        <v>1615</v>
+      </c>
+      <c r="O5" s="314"/>
+      <c r="P5" s="32">
+        <f>N5+M5+L5+I5+C5</f>
+        <v>136405</v>
+      </c>
+      <c r="Q5" s="12">
+        <f t="shared" ref="Q5:Q39" si="0">P5-F5</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="12">
+        <v>0</v>
+      </c>
+      <c r="S5" s="369">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="22"/>
+      <c r="B6" s="320">
+        <v>44866</v>
+      </c>
+      <c r="C6" s="24">
+        <v>0</v>
+      </c>
+      <c r="D6" s="326"/>
+      <c r="E6" s="322">
+        <v>44866</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="323"/>
+      <c r="H6" s="324">
+        <v>44866</v>
+      </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="327"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="30">
+        <v>0</v>
+      </c>
+      <c r="N6" s="31">
+        <v>0</v>
+      </c>
+      <c r="O6" s="314"/>
+      <c r="P6" s="32">
+        <f>N6+M6+L6+I6+C6</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>0</v>
+      </c>
+      <c r="R6" s="12">
+        <v>0</v>
+      </c>
+      <c r="S6" s="369">
+        <v>44838</v>
+      </c>
+      <c r="T6" s="8"/>
+    </row>
+    <row r="7" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="22"/>
+      <c r="B7" s="320">
+        <v>44867</v>
+      </c>
+      <c r="C7" s="24">
+        <v>0</v>
+      </c>
+      <c r="D7" s="328"/>
+      <c r="E7" s="322">
+        <v>44867</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="323"/>
+      <c r="H7" s="324">
+        <v>44867</v>
+      </c>
+      <c r="I7" s="29"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="329"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="30">
+        <v>0</v>
+      </c>
+      <c r="N7" s="31">
+        <v>0</v>
+      </c>
+      <c r="O7" s="314"/>
+      <c r="P7" s="32">
+        <f>N7+M7+L7+I7+C7</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>0</v>
+      </c>
+      <c r="R7" s="12">
+        <v>0</v>
+      </c>
+      <c r="S7" s="369">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="22"/>
+      <c r="B8" s="320">
+        <v>44868</v>
+      </c>
+      <c r="C8" s="24">
+        <v>0</v>
+      </c>
+      <c r="D8" s="328"/>
+      <c r="E8" s="322">
+        <v>44868</v>
+      </c>
+      <c r="F8" s="27"/>
+      <c r="G8" s="323"/>
+      <c r="H8" s="324">
+        <v>44868</v>
+      </c>
+      <c r="I8" s="29"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="330"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="30">
+        <v>0</v>
+      </c>
+      <c r="N8" s="31">
+        <v>0</v>
+      </c>
+      <c r="O8" s="314"/>
+      <c r="P8" s="32">
+        <f t="shared" ref="P8:P40" si="1">N8+M8+L8+I8+C8</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>0</v>
+      </c>
+      <c r="R8" s="12">
+        <v>0</v>
+      </c>
+      <c r="S8" s="369">
+        <v>44840</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="22"/>
+      <c r="B9" s="320">
+        <v>44869</v>
+      </c>
+      <c r="C9" s="24">
+        <v>0</v>
+      </c>
+      <c r="D9" s="328"/>
+      <c r="E9" s="322">
+        <v>44869</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="323"/>
+      <c r="H9" s="324">
+        <v>44869</v>
+      </c>
+      <c r="I9" s="29"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="331"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="30">
+        <v>0</v>
+      </c>
+      <c r="N9" s="31">
+        <v>0</v>
+      </c>
+      <c r="O9" s="314"/>
+      <c r="P9" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>0</v>
+      </c>
+      <c r="R9" s="12">
+        <v>0</v>
+      </c>
+      <c r="S9" s="369">
+        <v>44841</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="22"/>
+      <c r="B10" s="320">
+        <v>44870</v>
+      </c>
+      <c r="C10" s="24">
+        <v>0</v>
+      </c>
+      <c r="D10" s="326"/>
+      <c r="E10" s="322">
+        <v>44870</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="323"/>
+      <c r="H10" s="324">
+        <v>44870</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="332"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="30">
+        <v>0</v>
+      </c>
+      <c r="N10" s="31">
+        <v>0</v>
+      </c>
+      <c r="O10" s="314"/>
+      <c r="P10" s="32">
+        <f>N10+M10+L10+I10+C10</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>0</v>
+      </c>
+      <c r="R10" s="12">
+        <v>0</v>
+      </c>
+      <c r="S10" s="369">
+        <v>44842</v>
+      </c>
+      <c r="U10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="22"/>
+      <c r="B11" s="320">
+        <v>44871</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0</v>
+      </c>
+      <c r="D11" s="326"/>
+      <c r="E11" s="322">
+        <v>44871</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="323"/>
+      <c r="H11" s="324">
+        <v>44871</v>
+      </c>
+      <c r="I11" s="29"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="333"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="30">
+        <v>0</v>
+      </c>
+      <c r="N11" s="31">
+        <v>0</v>
+      </c>
+      <c r="O11" s="314"/>
+      <c r="P11" s="32">
+        <f>N11+M11+L11+I11+C11</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>0</v>
+      </c>
+      <c r="R11" s="12">
+        <v>0</v>
+      </c>
+      <c r="S11" s="369">
+        <v>44843</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="22"/>
+      <c r="B12" s="320">
+        <v>44872</v>
+      </c>
+      <c r="C12" s="24">
+        <v>0</v>
+      </c>
+      <c r="D12" s="326"/>
+      <c r="E12" s="322">
+        <v>44872</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="323"/>
+      <c r="H12" s="324">
+        <v>44872</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="334"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="30">
+        <v>0</v>
+      </c>
+      <c r="N12" s="31">
+        <v>0</v>
+      </c>
+      <c r="O12" s="314"/>
+      <c r="P12" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="12">
+        <v>0</v>
+      </c>
+      <c r="S12" s="369">
+        <v>44844</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="22"/>
+      <c r="B13" s="320">
+        <v>44873</v>
+      </c>
+      <c r="C13" s="24">
+        <v>0</v>
+      </c>
+      <c r="D13" s="328"/>
+      <c r="E13" s="322">
+        <v>44873</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="323"/>
+      <c r="H13" s="324">
+        <v>44873</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="327"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="30">
+        <v>0</v>
+      </c>
+      <c r="N13" s="31">
+        <v>0</v>
+      </c>
+      <c r="O13" s="314"/>
+      <c r="P13" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="12">
+        <v>0</v>
+      </c>
+      <c r="S13" s="369">
+        <v>44845</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="22"/>
+      <c r="B14" s="320">
+        <v>44874</v>
+      </c>
+      <c r="C14" s="24">
+        <v>0</v>
+      </c>
+      <c r="D14" s="335"/>
+      <c r="E14" s="322">
+        <v>44874</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="323"/>
+      <c r="H14" s="324">
+        <v>44874</v>
+      </c>
+      <c r="I14" s="29"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="330"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="30">
+        <v>0</v>
+      </c>
+      <c r="N14" s="31">
+        <v>0</v>
+      </c>
+      <c r="O14" s="314"/>
+      <c r="P14" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="12">
+        <v>0</v>
+      </c>
+      <c r="S14" s="369">
+        <v>44846</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="22"/>
+      <c r="B15" s="320">
+        <v>44875</v>
+      </c>
+      <c r="C15" s="24">
+        <v>0</v>
+      </c>
+      <c r="D15" s="335"/>
+      <c r="E15" s="322">
+        <v>44875</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="323"/>
+      <c r="H15" s="324">
+        <v>44875</v>
+      </c>
+      <c r="I15" s="29"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="330"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="30">
+        <v>0</v>
+      </c>
+      <c r="N15" s="31">
+        <v>0</v>
+      </c>
+      <c r="O15" s="314"/>
+      <c r="P15" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="12">
+        <v>0</v>
+      </c>
+      <c r="S15" s="369">
+        <v>44847</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="22"/>
+      <c r="B16" s="320">
+        <v>44876</v>
+      </c>
+      <c r="C16" s="24">
+        <v>0</v>
+      </c>
+      <c r="D16" s="326"/>
+      <c r="E16" s="322">
+        <v>44876</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="323"/>
+      <c r="H16" s="324">
+        <v>44876</v>
+      </c>
+      <c r="I16" s="29"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="330"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="30">
+        <v>0</v>
+      </c>
+      <c r="N16" s="31">
+        <v>0</v>
+      </c>
+      <c r="O16" s="314"/>
+      <c r="P16" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="12">
+        <v>0</v>
+      </c>
+      <c r="S16" s="369">
+        <v>44848</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="22"/>
+      <c r="B17" s="320">
+        <v>44877</v>
+      </c>
+      <c r="C17" s="24">
+        <v>0</v>
+      </c>
+      <c r="D17" s="328"/>
+      <c r="E17" s="322">
+        <v>44877</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="G17" s="323"/>
+      <c r="H17" s="324">
+        <v>44877</v>
+      </c>
+      <c r="I17" s="29"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="336"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="30">
+        <v>0</v>
+      </c>
+      <c r="N17" s="31">
+        <v>0</v>
+      </c>
+      <c r="O17" s="314"/>
+      <c r="P17" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>0</v>
+      </c>
+      <c r="R17" s="12">
+        <v>0</v>
+      </c>
+      <c r="S17" s="369">
+        <v>44849</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="22"/>
+      <c r="B18" s="320">
+        <v>44878</v>
+      </c>
+      <c r="C18" s="24">
+        <v>0</v>
+      </c>
+      <c r="D18" s="326"/>
+      <c r="E18" s="322">
+        <v>44878</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="323"/>
+      <c r="H18" s="324">
+        <v>44878</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="337"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="30">
+        <v>0</v>
+      </c>
+      <c r="N18" s="31">
+        <v>0</v>
+      </c>
+      <c r="O18" s="314"/>
+      <c r="P18" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="12">
+        <v>0</v>
+      </c>
+      <c r="S18" s="369">
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="22"/>
+      <c r="B19" s="320">
+        <v>44879</v>
+      </c>
+      <c r="C19" s="24">
+        <v>0</v>
+      </c>
+      <c r="D19" s="326"/>
+      <c r="E19" s="322">
+        <v>44879</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="323"/>
+      <c r="H19" s="324">
+        <v>44879</v>
+      </c>
+      <c r="I19" s="29"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="338"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="30">
+        <v>0</v>
+      </c>
+      <c r="N19" s="31">
+        <v>0</v>
+      </c>
+      <c r="O19" s="314"/>
+      <c r="P19" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="12">
+        <v>0</v>
+      </c>
+      <c r="S19" s="369">
+        <v>44851</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="22"/>
+      <c r="B20" s="320">
+        <v>44880</v>
+      </c>
+      <c r="C20" s="24">
+        <v>0</v>
+      </c>
+      <c r="D20" s="326"/>
+      <c r="E20" s="322">
+        <v>44880</v>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="323"/>
+      <c r="H20" s="324">
+        <v>44880</v>
+      </c>
+      <c r="I20" s="29"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="339"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="30">
+        <v>0</v>
+      </c>
+      <c r="N20" s="31">
+        <v>0</v>
+      </c>
+      <c r="O20" s="314"/>
+      <c r="P20" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="8">
+        <v>0</v>
+      </c>
+      <c r="S20" s="369">
+        <v>44852</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="22"/>
+      <c r="B21" s="320">
+        <v>44881</v>
+      </c>
+      <c r="C21" s="24">
+        <v>0</v>
+      </c>
+      <c r="D21" s="326"/>
+      <c r="E21" s="322">
+        <v>44881</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="323"/>
+      <c r="H21" s="324">
+        <v>44881</v>
+      </c>
+      <c r="I21" s="29"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="340"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="30">
+        <v>0</v>
+      </c>
+      <c r="N21" s="31">
+        <v>0</v>
+      </c>
+      <c r="O21" s="314"/>
+      <c r="P21" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="8">
+        <v>0</v>
+      </c>
+      <c r="S21" s="369">
+        <v>44853</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="22"/>
+      <c r="B22" s="320">
+        <v>44882</v>
+      </c>
+      <c r="C22" s="24">
+        <v>0</v>
+      </c>
+      <c r="D22" s="326"/>
+      <c r="E22" s="322">
+        <v>44882</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="323"/>
+      <c r="H22" s="324">
+        <v>44882</v>
+      </c>
+      <c r="I22" s="29"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="330"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="30">
+        <v>0</v>
+      </c>
+      <c r="N22" s="31">
+        <v>0</v>
+      </c>
+      <c r="O22" s="314"/>
+      <c r="P22" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="8">
+        <v>0</v>
+      </c>
+      <c r="S22" s="369">
+        <v>44854</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="22"/>
+      <c r="B23" s="320">
+        <v>44883</v>
+      </c>
+      <c r="C23" s="24">
+        <v>0</v>
+      </c>
+      <c r="D23" s="326"/>
+      <c r="E23" s="322">
+        <v>44883</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="323"/>
+      <c r="H23" s="324">
+        <v>44883</v>
+      </c>
+      <c r="I23" s="29"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="341"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="30">
+        <v>0</v>
+      </c>
+      <c r="N23" s="31">
+        <v>0</v>
+      </c>
+      <c r="O23" s="314"/>
+      <c r="P23" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="8">
+        <v>0</v>
+      </c>
+      <c r="S23" s="369">
+        <v>44855</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="22"/>
+      <c r="B24" s="320">
+        <v>44884</v>
+      </c>
+      <c r="C24" s="24">
+        <v>0</v>
+      </c>
+      <c r="D24" s="328"/>
+      <c r="E24" s="322">
+        <v>44884</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="323"/>
+      <c r="H24" s="324">
+        <v>44884</v>
+      </c>
+      <c r="I24" s="29"/>
+      <c r="J24" s="342"/>
+      <c r="K24" s="343"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="30">
+        <v>0</v>
+      </c>
+      <c r="N24" s="31">
+        <v>0</v>
+      </c>
+      <c r="O24" s="314"/>
+      <c r="P24" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="8">
+        <v>0</v>
+      </c>
+      <c r="S24" s="369">
+        <v>44856</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="22"/>
+      <c r="B25" s="320">
+        <v>44885</v>
+      </c>
+      <c r="C25" s="24">
+        <v>0</v>
+      </c>
+      <c r="D25" s="326"/>
+      <c r="E25" s="322">
+        <v>44885</v>
+      </c>
+      <c r="F25" s="27"/>
+      <c r="G25" s="323"/>
+      <c r="H25" s="324">
+        <v>44885</v>
+      </c>
+      <c r="I25" s="29"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="344"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="30">
+        <v>0</v>
+      </c>
+      <c r="N25" s="31">
+        <v>0</v>
+      </c>
+      <c r="O25" s="314"/>
+      <c r="P25" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="8">
+        <v>0</v>
+      </c>
+      <c r="S25" s="369">
+        <v>44857</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="22"/>
+      <c r="B26" s="320">
+        <v>44886</v>
+      </c>
+      <c r="C26" s="24">
+        <v>0</v>
+      </c>
+      <c r="D26" s="326"/>
+      <c r="E26" s="322">
+        <v>44886</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="G26" s="323"/>
+      <c r="H26" s="324">
+        <v>44886</v>
+      </c>
+      <c r="I26" s="29"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="343"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="30">
+        <v>0</v>
+      </c>
+      <c r="N26" s="31">
+        <v>0</v>
+      </c>
+      <c r="O26" s="314"/>
+      <c r="P26" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="8">
+        <v>0</v>
+      </c>
+      <c r="S26" s="369">
+        <v>44858</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="22"/>
+      <c r="B27" s="320">
+        <v>44887</v>
+      </c>
+      <c r="C27" s="24">
+        <v>0</v>
+      </c>
+      <c r="D27" s="328"/>
+      <c r="E27" s="322">
+        <v>44887</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="323"/>
+      <c r="H27" s="324">
+        <v>44887</v>
+      </c>
+      <c r="I27" s="29"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="345"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="30">
+        <v>0</v>
+      </c>
+      <c r="N27" s="31">
+        <v>0</v>
+      </c>
+      <c r="O27" s="314"/>
+      <c r="P27" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="8">
+        <v>0</v>
+      </c>
+      <c r="S27" s="369">
+        <v>44859</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="22"/>
+      <c r="B28" s="320">
+        <v>44888</v>
+      </c>
+      <c r="C28" s="24">
+        <v>0</v>
+      </c>
+      <c r="D28" s="328"/>
+      <c r="E28" s="322">
+        <v>44888</v>
+      </c>
+      <c r="F28" s="27"/>
+      <c r="G28" s="323"/>
+      <c r="H28" s="324">
+        <v>44888</v>
+      </c>
+      <c r="I28" s="29"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="346"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="30">
+        <v>0</v>
+      </c>
+      <c r="N28" s="31">
+        <v>0</v>
+      </c>
+      <c r="O28" s="314"/>
+      <c r="P28" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="8">
+        <v>0</v>
+      </c>
+      <c r="S28" s="369">
+        <v>44860</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="22"/>
+      <c r="B29" s="320">
+        <v>44889</v>
+      </c>
+      <c r="C29" s="24">
+        <v>0</v>
+      </c>
+      <c r="D29" s="347"/>
+      <c r="E29" s="322">
+        <v>44889</v>
+      </c>
+      <c r="F29" s="27"/>
+      <c r="G29" s="323"/>
+      <c r="H29" s="324">
+        <v>44889</v>
+      </c>
+      <c r="I29" s="29"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="348"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="30">
+        <v>0</v>
+      </c>
+      <c r="N29" s="31">
+        <v>0</v>
+      </c>
+      <c r="O29" s="314"/>
+      <c r="P29" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="8">
+        <v>0</v>
+      </c>
+      <c r="S29" s="369">
+        <v>44861</v>
+      </c>
+      <c r="T29" s="8"/>
+    </row>
+    <row r="30" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="22"/>
+      <c r="B30" s="320">
+        <v>44890</v>
+      </c>
+      <c r="C30" s="24">
+        <v>0</v>
+      </c>
+      <c r="D30" s="347"/>
+      <c r="E30" s="322">
+        <v>44890</v>
+      </c>
+      <c r="F30" s="27"/>
+      <c r="G30" s="323"/>
+      <c r="H30" s="324">
+        <v>44890</v>
+      </c>
+      <c r="I30" s="29"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="349"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="30">
+        <v>0</v>
+      </c>
+      <c r="N30" s="31">
+        <v>0</v>
+      </c>
+      <c r="O30" s="314"/>
+      <c r="P30" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="8">
+        <v>0</v>
+      </c>
+      <c r="S30" s="369">
+        <v>44862</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="22"/>
+      <c r="B31" s="320">
+        <v>44891</v>
+      </c>
+      <c r="C31" s="24">
+        <v>0</v>
+      </c>
+      <c r="D31" s="350"/>
+      <c r="E31" s="322">
+        <v>44891</v>
+      </c>
+      <c r="F31" s="27"/>
+      <c r="G31" s="323"/>
+      <c r="H31" s="324">
+        <v>44891</v>
+      </c>
+      <c r="I31" s="29"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="351"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="30">
+        <v>0</v>
+      </c>
+      <c r="N31" s="31">
+        <v>0</v>
+      </c>
+      <c r="O31" s="314"/>
+      <c r="P31" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="8">
+        <v>0</v>
+      </c>
+      <c r="S31" s="369">
+        <v>44863</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="22"/>
+      <c r="B32" s="320">
+        <v>44892</v>
+      </c>
+      <c r="C32" s="24">
+        <v>0</v>
+      </c>
+      <c r="D32" s="352"/>
+      <c r="E32" s="322">
+        <v>44892</v>
+      </c>
+      <c r="F32" s="27"/>
+      <c r="G32" s="323"/>
+      <c r="H32" s="324">
+        <v>44892</v>
+      </c>
+      <c r="I32" s="29"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="349"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="30">
+        <v>0</v>
+      </c>
+      <c r="N32" s="31">
+        <v>0</v>
+      </c>
+      <c r="O32" s="314"/>
+      <c r="P32" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="8">
+        <v>0</v>
+      </c>
+      <c r="S32" s="369">
+        <v>44864</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="22"/>
+      <c r="B33" s="320"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="353"/>
+      <c r="E33" s="322"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="323"/>
+      <c r="H33" s="324"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="351"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="30">
+        <v>0</v>
+      </c>
+      <c r="N33" s="31">
+        <v>0</v>
+      </c>
+      <c r="O33" s="314"/>
+      <c r="P33" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="8">
+        <v>0</v>
+      </c>
+      <c r="S33" s="369"/>
+    </row>
+    <row r="34" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="22"/>
+      <c r="B34" s="320"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="352"/>
+      <c r="E34" s="322"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="323"/>
+      <c r="H34" s="324"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="354"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="30">
+        <v>0</v>
+      </c>
+      <c r="N34" s="31">
+        <v>0</v>
+      </c>
+      <c r="O34" s="314"/>
+      <c r="P34" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="8">
+        <v>0</v>
+      </c>
+      <c r="S34" s="369"/>
+    </row>
+    <row r="35" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="22"/>
+      <c r="B35" s="320"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="350"/>
+      <c r="E35" s="322"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="323"/>
+      <c r="H35" s="324"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="351"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="30">
+        <v>0</v>
+      </c>
+      <c r="N35" s="31">
+        <v>0</v>
+      </c>
+      <c r="O35" s="314"/>
+      <c r="P35" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="8">
+        <v>0</v>
+      </c>
+      <c r="S35" s="369"/>
+    </row>
+    <row r="36" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="22"/>
+      <c r="B36" s="320"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="355"/>
+      <c r="E36" s="322"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="323"/>
+      <c r="H36" s="324"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="289"/>
+      <c r="K36" s="356"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="30">
+        <v>0</v>
+      </c>
+      <c r="N36" s="31">
+        <v>0</v>
+      </c>
+      <c r="O36" s="314"/>
+      <c r="P36" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="8">
+        <v>0</v>
+      </c>
+      <c r="S36" s="369"/>
+    </row>
+    <row r="37" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="22"/>
+      <c r="B37" s="320"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="352"/>
+      <c r="E37" s="322"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="323"/>
+      <c r="H37" s="324"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="357"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="30">
+        <v>0</v>
+      </c>
+      <c r="N37" s="31">
+        <v>0</v>
+      </c>
+      <c r="O37" s="314"/>
+      <c r="P37" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="8">
+        <v>0</v>
+      </c>
+      <c r="S37" s="369"/>
+    </row>
+    <row r="38" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="22"/>
+      <c r="B38" s="320"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="353"/>
+      <c r="E38" s="322"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="323"/>
+      <c r="H38" s="324"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="329"/>
+      <c r="L38" s="78"/>
+      <c r="M38" s="30">
+        <v>0</v>
+      </c>
+      <c r="N38" s="31">
+        <v>0</v>
+      </c>
+      <c r="O38" s="314"/>
+      <c r="P38" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="8">
+        <v>0</v>
+      </c>
+      <c r="S38" s="369"/>
+    </row>
+    <row r="39" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="22"/>
+      <c r="B39" s="320"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="353"/>
+      <c r="E39" s="322"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="323"/>
+      <c r="H39" s="324"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="358"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="30">
+        <v>0</v>
+      </c>
+      <c r="N39" s="31">
+        <v>0</v>
+      </c>
+      <c r="O39" s="314"/>
+      <c r="P39" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="8">
+        <v>0</v>
+      </c>
+      <c r="S39" s="369"/>
+    </row>
+    <row r="40" spans="1:19" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="22"/>
+      <c r="B40" s="320"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="355"/>
+      <c r="E40" s="322"/>
+      <c r="F40" s="359"/>
+      <c r="G40" s="323"/>
+      <c r="H40" s="324"/>
+      <c r="I40" s="86"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="360"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="401">
+        <f>SUM(M5:M39)</f>
+        <v>134634</v>
+      </c>
+      <c r="N40" s="403">
+        <f>SUM(N5:N39)</f>
+        <v>1615</v>
+      </c>
+      <c r="P40" s="32">
+        <f t="shared" si="1"/>
+        <v>136249</v>
+      </c>
+      <c r="Q40" s="284">
+        <f>SUM(Q5:Q39)</f>
+        <v>0</v>
+      </c>
+      <c r="R40" s="316">
+        <f>SUM(R5:R39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="22"/>
+      <c r="B41" s="320"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="355"/>
+      <c r="E41" s="322"/>
+      <c r="F41" s="361"/>
+      <c r="G41" s="323"/>
+      <c r="H41" s="362"/>
+      <c r="I41" s="86"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="363"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="402"/>
+      <c r="N41" s="404"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="8"/>
+    </row>
+    <row r="42" spans="1:19" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="22"/>
+      <c r="B42" s="320"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="355"/>
+      <c r="E42" s="364"/>
+      <c r="F42" s="365"/>
+      <c r="G42" s="366"/>
+      <c r="H42" s="367"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="365"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="94"/>
+      <c r="N42" s="95"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="8"/>
+    </row>
+    <row r="43" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="22"/>
+      <c r="B43" s="320"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="355"/>
+      <c r="E43" s="364"/>
+      <c r="F43" s="365"/>
+      <c r="G43" s="366"/>
+      <c r="H43" s="367"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="351"/>
+      <c r="L43" s="78"/>
+      <c r="M43" s="94"/>
+      <c r="N43" s="95"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="8"/>
+    </row>
+    <row r="44" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="22"/>
+      <c r="B44" s="320"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="355"/>
+      <c r="E44" s="364"/>
+      <c r="F44" s="365"/>
+      <c r="G44" s="366"/>
+      <c r="H44" s="367"/>
+      <c r="I44" s="93"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="368"/>
+      <c r="L44" s="78"/>
+      <c r="M44" s="94"/>
+      <c r="N44" s="95"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="8"/>
+    </row>
+    <row r="45" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="22"/>
+      <c r="B45" s="320"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="355"/>
+      <c r="E45" s="364"/>
+      <c r="F45" s="365"/>
+      <c r="G45" s="366"/>
+      <c r="H45" s="367"/>
+      <c r="I45" s="93"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="351"/>
+      <c r="L45" s="78"/>
+      <c r="M45" s="94"/>
+      <c r="N45" s="95"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="8"/>
+    </row>
+    <row r="46" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="22"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="281"/>
+      <c r="F46" s="235"/>
+      <c r="G46" s="251"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="93"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="282"/>
+      <c r="L46" s="78"/>
+      <c r="M46" s="94"/>
+      <c r="N46" s="95"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="8"/>
+    </row>
+    <row r="47" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="22"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="281"/>
+      <c r="F47" s="235"/>
+      <c r="G47" s="251"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="93"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="74"/>
+      <c r="L47" s="78"/>
+      <c r="M47" s="94"/>
+      <c r="N47" s="95"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="8"/>
+    </row>
+    <row r="48" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="22"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="281"/>
+      <c r="F48" s="235"/>
+      <c r="G48" s="251"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="74"/>
+      <c r="L48" s="78"/>
+      <c r="M48" s="94"/>
+      <c r="N48" s="95"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="8"/>
+    </row>
+    <row r="49" spans="1:17" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="22"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="281"/>
+      <c r="F49" s="235"/>
+      <c r="G49" s="251"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="93"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="74"/>
+      <c r="L49" s="78"/>
+      <c r="M49" s="94"/>
+      <c r="N49" s="95"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="8"/>
+    </row>
+    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="22"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="24">
+        <v>0</v>
+      </c>
+      <c r="D50" s="96"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="88"/>
+      <c r="H50" s="97"/>
+      <c r="I50" s="93"/>
+      <c r="J50" s="98"/>
+      <c r="K50" s="99"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="100"/>
+      <c r="N50" s="31"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="8"/>
+    </row>
+    <row r="51" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="102">
+        <f>SUM(C5:C50)</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="103"/>
+      <c r="E51" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="105">
+        <f>SUM(F5:F50)</f>
+        <v>136405</v>
+      </c>
+      <c r="G51" s="103"/>
+      <c r="H51" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="107">
+        <f>SUM(I5:I50)</f>
+        <v>156</v>
+      </c>
+      <c r="J51" s="108"/>
+      <c r="K51" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" s="110">
+        <f>SUM(L5:L50)</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="111"/>
+      <c r="N51" s="111"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="8"/>
+    </row>
+    <row r="52" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="8"/>
+    </row>
+    <row r="53" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="33"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="1"/>
+      <c r="H53" s="405" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="406"/>
+      <c r="J53" s="114"/>
+      <c r="K53" s="407">
+        <f>I51+L51</f>
+        <v>156</v>
+      </c>
+      <c r="L53" s="408"/>
+      <c r="M53" s="409">
+        <f>N40+M40</f>
+        <v>136249</v>
+      </c>
+      <c r="N53" s="410"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="8"/>
+    </row>
+    <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D54" s="411" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="411"/>
+      <c r="F54" s="115">
+        <f>F51-K53-C51</f>
+        <v>136249</v>
+      </c>
+      <c r="I54" s="116"/>
+      <c r="J54" s="117"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="8"/>
+    </row>
+    <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D55" s="412" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="412"/>
+      <c r="F55" s="111">
+        <v>0</v>
+      </c>
+      <c r="I55" s="413" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="414"/>
+      <c r="K55" s="415">
+        <f>F57+F58+F59</f>
+        <v>136249</v>
+      </c>
+      <c r="L55" s="416"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="8"/>
+    </row>
+    <row r="56" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D56" s="118"/>
+      <c r="E56" s="375"/>
+      <c r="F56" s="119">
+        <v>0</v>
+      </c>
+      <c r="I56" s="120"/>
+      <c r="J56" s="121"/>
+      <c r="K56" s="122"/>
+      <c r="L56" s="123"/>
+    </row>
+    <row r="57" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="111">
+        <f>SUM(F54:F56)</f>
+        <v>136249</v>
+      </c>
+      <c r="H57" s="22"/>
+      <c r="I57" s="124" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="125"/>
+      <c r="K57" s="417">
+        <f>-C4</f>
+        <v>-419424.76</v>
+      </c>
+      <c r="L57" s="418"/>
+    </row>
+    <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D58" s="126" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C59" s="128"/>
+      <c r="D59" s="394" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="395"/>
+      <c r="F59" s="129">
+        <v>0</v>
+      </c>
+      <c r="I59" s="420" t="s">
+        <v>325</v>
+      </c>
+      <c r="J59" s="421"/>
+      <c r="K59" s="422">
+        <f>K55+K57</f>
+        <v>-283175.76</v>
+      </c>
+      <c r="L59" s="422"/>
+    </row>
+    <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C60" s="130"/>
+      <c r="D60" s="131"/>
+      <c r="E60" s="132"/>
+      <c r="F60" s="133"/>
+      <c r="J60" s="134"/>
+    </row>
+    <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="135"/>
+      <c r="J61" s="135"/>
+      <c r="K61" s="136"/>
+      <c r="L61" s="136"/>
+    </row>
+    <row r="62" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="137"/>
+      <c r="C62" s="138"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="32"/>
+      <c r="I62" s="135"/>
+      <c r="J62" s="135"/>
+      <c r="K62" s="136"/>
+      <c r="L62" s="136"/>
+      <c r="M62" s="140"/>
+      <c r="N62" s="33"/>
+    </row>
+    <row r="63" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="137"/>
+      <c r="C63" s="141"/>
+      <c r="E63" s="32"/>
+      <c r="M63" s="140"/>
+      <c r="N63" s="33"/>
+    </row>
+    <row r="64" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="137"/>
+      <c r="C64" s="141"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="142"/>
+      <c r="L64" s="143"/>
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="137"/>
+      <c r="C65" s="141"/>
+      <c r="E65" s="32"/>
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="137"/>
+      <c r="C66" s="141"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="144"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E67" s="145"/>
+      <c r="F67" s="32"/>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E68" s="145"/>
+      <c r="F68" s="32"/>
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E69" s="145"/>
+      <c r="F69" s="32"/>
+      <c r="M69" s="1"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E70" s="145"/>
+      <c r="F70" s="32"/>
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E71" s="145"/>
+      <c r="F71" s="32"/>
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E72" s="145"/>
+      <c r="F72" s="32"/>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E73" s="145"/>
+      <c r="F73" s="32"/>
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E74" s="145"/>
+      <c r="F74" s="32"/>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E75" s="145"/>
+      <c r="F75" s="32"/>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E76" s="145"/>
+      <c r="F76" s="32"/>
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E77" s="145"/>
+      <c r="F77" s="32"/>
+      <c r="M77" s="1"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E78" s="145"/>
+      <c r="F78" s="32"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F79" s="144"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F80" s="144"/>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="144"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:J115"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" style="193" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="224" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="193" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.42578125" style="33"/>
+    <col min="10" max="11" width="17.140625" style="33" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="201" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="222"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="147" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="202" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="149" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="150" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="191" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="150" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="151" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="377"/>
+      <c r="B3" s="378"/>
+      <c r="C3" s="256"/>
+      <c r="D3" s="302"/>
+      <c r="E3" s="303"/>
+      <c r="F3" s="152">
+        <f>C3-E3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="127"/>
+    </row>
+    <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="379"/>
+      <c r="B4" s="380"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="302"/>
+      <c r="E4" s="294"/>
+      <c r="F4" s="188">
+        <f>C4-E4+F3</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="256"/>
+    </row>
+    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="379"/>
+      <c r="B5" s="380"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="302"/>
+      <c r="E5" s="294"/>
+      <c r="F5" s="188">
+        <f t="shared" ref="F5:F68" si="0">C5-E5+F4</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="127"/>
+    </row>
+    <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="379"/>
+      <c r="B6" s="380"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="302"/>
+      <c r="E6" s="294"/>
+      <c r="F6" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="156"/>
+      <c r="J6" s="127"/>
+    </row>
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="379"/>
+      <c r="B7" s="380"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="302"/>
+      <c r="E7" s="294"/>
+      <c r="F7" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="127"/>
+    </row>
+    <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="379"/>
+      <c r="B8" s="380"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="302"/>
+      <c r="E8" s="294"/>
+      <c r="F8" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="127"/>
+    </row>
+    <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="379"/>
+      <c r="B9" s="380"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="276"/>
+      <c r="E9" s="277"/>
+      <c r="F9" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="127"/>
+    </row>
+    <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="379"/>
+      <c r="B10" s="380"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="276"/>
+      <c r="E10" s="277"/>
+      <c r="F10" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="379"/>
+      <c r="B11" s="380"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="276"/>
+      <c r="E11" s="277"/>
+      <c r="F11" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="267">
+        <f>SUM(J3:J10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="379"/>
+      <c r="B12" s="380"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="276"/>
+      <c r="E12" s="277"/>
+      <c r="F12" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="156"/>
+    </row>
+    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="379"/>
+      <c r="B13" s="380"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="276"/>
+      <c r="E13" s="277"/>
+      <c r="F13" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="379"/>
+      <c r="B14" s="380"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="276"/>
+      <c r="E14" s="277"/>
+      <c r="F14" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="379"/>
+      <c r="B15" s="380"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="276"/>
+      <c r="E15" s="277"/>
+      <c r="F15" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="379"/>
+      <c r="B16" s="380"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="276"/>
+      <c r="E16" s="277"/>
+      <c r="F16" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="379"/>
+      <c r="B17" s="380"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="276"/>
+      <c r="E17" s="277"/>
+      <c r="F17" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="379"/>
+      <c r="B18" s="380"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="304"/>
+      <c r="E18" s="274"/>
+      <c r="F18" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="379"/>
+      <c r="B19" s="380"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="304"/>
+      <c r="E19" s="274"/>
+      <c r="F19" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="379"/>
+      <c r="B20" s="380"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="304"/>
+      <c r="E20" s="274"/>
+      <c r="F20" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="379"/>
+      <c r="B21" s="380"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="304"/>
+      <c r="E21" s="274"/>
+      <c r="F21" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="379"/>
+      <c r="B22" s="380"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="304"/>
+      <c r="E22" s="274"/>
+      <c r="F22" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="379"/>
+      <c r="B23" s="380"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="304"/>
+      <c r="E23" s="274"/>
+      <c r="F23" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="379"/>
+      <c r="B24" s="380"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="304"/>
+      <c r="E24" s="274"/>
+      <c r="F24" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="156"/>
+    </row>
+    <row r="25" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="379"/>
+      <c r="B25" s="380"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="304"/>
+      <c r="E25" s="274"/>
+      <c r="F25" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="379"/>
+      <c r="B26" s="380"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="259"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="379"/>
+      <c r="B27" s="380"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="259"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="379"/>
+      <c r="B28" s="380"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="259"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="379"/>
+      <c r="B29" s="380"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="259"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="257"/>
+      <c r="B30" s="258"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="257"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="257"/>
+      <c r="B31" s="258"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="259"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="257"/>
+      <c r="B32" s="258"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="259"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="156"/>
+    </row>
+    <row r="33" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="257"/>
+      <c r="B33" s="258"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="259"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="257"/>
+      <c r="B34" s="258"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="259"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="257"/>
+      <c r="B35" s="258"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="259"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="257"/>
+      <c r="B36" s="258"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="259"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="257"/>
+      <c r="B37" s="258"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="259"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="257"/>
+      <c r="B38" s="258"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="259"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="257"/>
+      <c r="B39" s="258"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="259"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="257"/>
+      <c r="B40" s="258"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="259"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="257"/>
+      <c r="B41" s="258"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="259"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="259"/>
+      <c r="B42" s="260"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="259"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="157"/>
+      <c r="B43" s="154"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="153"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="158"/>
+      <c r="B44" s="159"/>
+      <c r="C44" s="160"/>
+      <c r="D44" s="153"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="158"/>
+      <c r="B45" s="159"/>
+      <c r="C45" s="160"/>
+      <c r="D45" s="153"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="158"/>
+      <c r="B46" s="159"/>
+      <c r="C46" s="160"/>
+      <c r="D46" s="153"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="158"/>
+      <c r="B47" s="159"/>
+      <c r="C47" s="160"/>
+      <c r="D47" s="153"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="158"/>
+      <c r="B48" s="159"/>
+      <c r="C48" s="160"/>
+      <c r="D48" s="153"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="158"/>
+      <c r="B49" s="159"/>
+      <c r="C49" s="160"/>
+      <c r="D49" s="153"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="158"/>
+      <c r="B50" s="159"/>
+      <c r="C50" s="160"/>
+      <c r="D50" s="153"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="158"/>
+      <c r="B51" s="159"/>
+      <c r="C51" s="160"/>
+      <c r="D51" s="153"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="158"/>
+      <c r="B52" s="159"/>
+      <c r="C52" s="160"/>
+      <c r="D52" s="153"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="158"/>
+      <c r="B53" s="159"/>
+      <c r="C53" s="160"/>
+      <c r="D53" s="153"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="158"/>
+      <c r="B54" s="159"/>
+      <c r="C54" s="160"/>
+      <c r="D54" s="153"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="158"/>
+      <c r="B55" s="159"/>
+      <c r="C55" s="160"/>
+      <c r="D55" s="153"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="158"/>
+      <c r="B56" s="159"/>
+      <c r="C56" s="160"/>
+      <c r="D56" s="153"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="158"/>
+      <c r="B57" s="159"/>
+      <c r="C57" s="160"/>
+      <c r="D57" s="153"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="158"/>
+      <c r="B58" s="159"/>
+      <c r="C58" s="160"/>
+      <c r="D58" s="153"/>
+      <c r="E58" s="84"/>
+      <c r="F58" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="158"/>
+      <c r="B59" s="159"/>
+      <c r="C59" s="160"/>
+      <c r="D59" s="153"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="158"/>
+      <c r="B60" s="159"/>
+      <c r="C60" s="160"/>
+      <c r="D60" s="153"/>
+      <c r="E60" s="84"/>
+      <c r="F60" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="158"/>
+      <c r="B61" s="159"/>
+      <c r="C61" s="160"/>
+      <c r="D61" s="153"/>
+      <c r="E61" s="84"/>
+      <c r="F61" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="161"/>
+      <c r="B62" s="162"/>
+      <c r="C62" s="163"/>
+      <c r="D62" s="164"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="161"/>
+      <c r="B63" s="162"/>
+      <c r="C63" s="163"/>
+      <c r="D63" s="164"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="161"/>
+      <c r="B64" s="162"/>
+      <c r="C64" s="163"/>
+      <c r="D64" s="164"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="161"/>
+      <c r="B65" s="162"/>
+      <c r="C65" s="163"/>
+      <c r="D65" s="164"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="161"/>
+      <c r="B66" s="162"/>
+      <c r="C66" s="163"/>
+      <c r="D66" s="164"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="161"/>
+      <c r="B67" s="162"/>
+      <c r="C67" s="163"/>
+      <c r="D67" s="164"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="158"/>
+      <c r="B68" s="159"/>
+      <c r="C68" s="160"/>
+      <c r="D68" s="153"/>
+      <c r="E68" s="84"/>
+      <c r="F68" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="158"/>
+      <c r="B69" s="159"/>
+      <c r="C69" s="160"/>
+      <c r="D69" s="153"/>
+      <c r="E69" s="84"/>
+      <c r="F69" s="188">
+        <f t="shared" ref="F69:F78" si="1">C69-E69+F68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="158"/>
+      <c r="B70" s="159"/>
+      <c r="C70" s="160"/>
+      <c r="D70" s="153"/>
+      <c r="E70" s="84"/>
+      <c r="F70" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="158"/>
+      <c r="B71" s="159"/>
+      <c r="C71" s="160"/>
+      <c r="D71" s="153"/>
+      <c r="E71" s="84"/>
+      <c r="F71" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="158"/>
+      <c r="B72" s="159"/>
+      <c r="C72" s="160"/>
+      <c r="D72" s="153"/>
+      <c r="E72" s="84"/>
+      <c r="F72" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="158"/>
+      <c r="B73" s="159"/>
+      <c r="C73" s="160"/>
+      <c r="D73" s="153"/>
+      <c r="E73" s="84"/>
+      <c r="F73" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="158"/>
+      <c r="B74" s="159"/>
+      <c r="C74" s="160"/>
+      <c r="D74" s="153"/>
+      <c r="E74" s="84"/>
+      <c r="F74" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="158"/>
+      <c r="B75" s="159"/>
+      <c r="C75" s="160"/>
+      <c r="D75" s="153"/>
+      <c r="E75" s="84"/>
+      <c r="F75" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="158"/>
+      <c r="B76" s="159"/>
+      <c r="C76" s="160"/>
+      <c r="D76" s="153"/>
+      <c r="E76" s="84"/>
+      <c r="F76" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="158"/>
+      <c r="B77" s="159"/>
+      <c r="C77" s="160"/>
+      <c r="D77" s="153"/>
+      <c r="E77" s="84"/>
+      <c r="F77" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="165"/>
+      <c r="B78" s="166"/>
+      <c r="C78" s="32">
+        <v>0</v>
+      </c>
+      <c r="D78" s="164"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="204"/>
+      <c r="B79" s="223"/>
+      <c r="C79" s="240">
+        <f>SUM(C3:C78)</f>
+        <v>0</v>
+      </c>
+      <c r="D79" s="181"/>
+      <c r="E79" s="170">
+        <f>SUM(E3:E78)</f>
+        <v>0</v>
+      </c>
+      <c r="F79" s="171">
+        <f>F78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D80" s="164"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="164"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="225"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="225"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="225"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="225"/>
+      <c r="F85" s="33"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="225"/>
+      <c r="F86" s="33"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="225"/>
+      <c r="F87" s="33"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="225"/>
+      <c r="F88" s="33"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="225"/>
+      <c r="F89" s="33"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="225"/>
+      <c r="F90" s="33"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="225"/>
+      <c r="F91" s="33"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="225"/>
+      <c r="F92" s="33"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="225"/>
+      <c r="F93" s="33"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="225"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="225"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="33"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="225"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="225"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="33"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="225"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="33"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="225"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="33"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="225"/>
+      <c r="E100" s="33"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="225"/>
+      <c r="E101" s="33"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="225"/>
+      <c r="E102" s="33"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="225"/>
+      <c r="E103" s="33"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="225"/>
+      <c r="E104" s="33"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="225"/>
+      <c r="E105" s="33"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="225"/>
+      <c r="E106" s="33"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="225"/>
+      <c r="E107" s="33"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="225"/>
+      <c r="E108" s="33"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="225"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="225"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="225"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="225"/>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="225"/>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" s="225"/>
+    </row>
+    <row r="115" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C115" s="172"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -32070,23 +35729,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="376"/>
-      <c r="C1" s="378" t="s">
+      <c r="B1" s="381"/>
+      <c r="C1" s="383" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
-      <c r="H1" s="379"/>
-      <c r="I1" s="379"/>
-      <c r="J1" s="379"/>
-      <c r="K1" s="379"/>
-      <c r="L1" s="379"/>
-      <c r="M1" s="379"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
+      <c r="H1" s="384"/>
+      <c r="I1" s="384"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="377"/>
+      <c r="B2" s="382"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -32096,21 +35755,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="380" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="381"/>
+      <c r="B3" s="385" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="386"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="382" t="s">
+      <c r="H3" s="387" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="382"/>
+      <c r="I3" s="387"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="387" t="s">
+      <c r="R3" s="392" t="s">
         <v>38</v>
       </c>
     </row>
@@ -32125,14 +35784,14 @@
       <c r="D4" s="16">
         <v>44591</v>
       </c>
-      <c r="E4" s="383" t="s">
+      <c r="E4" s="388" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="384"/>
-      <c r="H4" s="385" t="s">
+      <c r="F4" s="389"/>
+      <c r="H4" s="390" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="386"/>
+      <c r="I4" s="391"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -32142,11 +35801,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="394" t="s">
+      <c r="P4" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="395"/>
-      <c r="R4" s="388"/>
+      <c r="Q4" s="400"/>
+      <c r="R4" s="393"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -33583,11 +37242,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="78"/>
-      <c r="M40" s="414">
+      <c r="M40" s="419">
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="398">
+      <c r="N40" s="403">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -33612,8 +37271,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="397"/>
-      <c r="N41" s="399"/>
+      <c r="M41" s="402"/>
+      <c r="N41" s="404"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -33820,29 +37479,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="400" t="s">
+      <c r="H53" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="401"/>
+      <c r="I53" s="406"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="402">
+      <c r="K53" s="407">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="403"/>
-      <c r="M53" s="404">
+      <c r="L53" s="408"/>
+      <c r="M53" s="409">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="405"/>
+      <c r="N53" s="410"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="406" t="s">
+      <c r="D54" s="411" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="406"/>
+      <c r="E54" s="411"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -33853,22 +37512,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="407" t="s">
+      <c r="D55" s="412" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="407"/>
+      <c r="E55" s="412"/>
       <c r="F55" s="111">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="408" t="s">
+      <c r="I55" s="413" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="409"/>
-      <c r="K55" s="410">
+      <c r="J55" s="414"/>
+      <c r="K55" s="415">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="411"/>
+      <c r="L55" s="416"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -33899,11 +37558,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="412">
+      <c r="K57" s="417">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="413"/>
+      <c r="L57" s="418"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -33920,22 +37579,22 @@
       <c r="C59" s="128">
         <v>44619</v>
       </c>
-      <c r="D59" s="389" t="s">
+      <c r="D59" s="394" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="390"/>
+      <c r="E59" s="395"/>
       <c r="F59" s="129">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="391" t="s">
+      <c r="I59" s="396" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="392"/>
-      <c r="K59" s="393">
+      <c r="J59" s="397"/>
+      <c r="K59" s="398">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="393"/>
+      <c r="L59" s="398"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -35385,23 +39044,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="376"/>
-      <c r="C1" s="378" t="s">
+      <c r="B1" s="381"/>
+      <c r="C1" s="383" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
-      <c r="H1" s="379"/>
-      <c r="I1" s="379"/>
-      <c r="J1" s="379"/>
-      <c r="K1" s="379"/>
-      <c r="L1" s="379"/>
-      <c r="M1" s="379"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
+      <c r="H1" s="384"/>
+      <c r="I1" s="384"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="377"/>
+      <c r="B2" s="382"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -35411,21 +39070,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="380" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="381"/>
+      <c r="B3" s="385" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="386"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="382" t="s">
+      <c r="H3" s="387" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="382"/>
+      <c r="I3" s="387"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="387" t="s">
+      <c r="R3" s="392" t="s">
         <v>38</v>
       </c>
     </row>
@@ -35440,14 +39099,14 @@
       <c r="D4" s="16">
         <v>44619</v>
       </c>
-      <c r="E4" s="383" t="s">
+      <c r="E4" s="388" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="384"/>
-      <c r="H4" s="385" t="s">
+      <c r="F4" s="389"/>
+      <c r="H4" s="390" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="386"/>
+      <c r="I4" s="391"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -35457,11 +39116,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="394" t="s">
+      <c r="P4" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="395"/>
-      <c r="R4" s="388"/>
+      <c r="Q4" s="400"/>
+      <c r="R4" s="393"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -36912,11 +40571,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="396">
+      <c r="M40" s="401">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="398">
+      <c r="N40" s="403">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -36941,8 +40600,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="397"/>
-      <c r="N41" s="399"/>
+      <c r="M41" s="402"/>
+      <c r="N41" s="404"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -37081,29 +40740,29 @@
       <c r="A49" s="33"/>
       <c r="B49" s="113"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="400" t="s">
+      <c r="H49" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="401"/>
+      <c r="I49" s="406"/>
       <c r="J49" s="114"/>
-      <c r="K49" s="402">
+      <c r="K49" s="407">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="403"/>
-      <c r="M49" s="404">
+      <c r="L49" s="408"/>
+      <c r="M49" s="409">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="405"/>
+      <c r="N49" s="410"/>
       <c r="P49" s="32"/>
       <c r="Q49" s="8"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="406" t="s">
+      <c r="D50" s="411" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="406"/>
+      <c r="E50" s="411"/>
       <c r="F50" s="115">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -37114,22 +40773,22 @@
       <c r="Q50" s="8"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="407" t="s">
+      <c r="D51" s="412" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="407"/>
+      <c r="E51" s="412"/>
       <c r="F51" s="111">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="408" t="s">
+      <c r="I51" s="413" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="409"/>
-      <c r="K51" s="410">
+      <c r="J51" s="414"/>
+      <c r="K51" s="415">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="411"/>
+      <c r="L51" s="416"/>
       <c r="P51" s="32"/>
       <c r="Q51" s="8"/>
     </row>
@@ -37160,11 +40819,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="125"/>
-      <c r="K53" s="412">
+      <c r="K53" s="417">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="413"/>
+      <c r="L53" s="418"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="126" t="s">
@@ -37181,22 +40840,22 @@
       <c r="C55" s="128">
         <v>44647</v>
       </c>
-      <c r="D55" s="389" t="s">
+      <c r="D55" s="394" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="390"/>
+      <c r="E55" s="395"/>
       <c r="F55" s="129">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="391" t="s">
+      <c r="I55" s="396" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="392"/>
-      <c r="K55" s="393">
+      <c r="J55" s="397"/>
+      <c r="K55" s="398">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="393"/>
+      <c r="L55" s="398"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="130"/>
@@ -38819,23 +42478,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="376"/>
-      <c r="C1" s="378" t="s">
+      <c r="B1" s="381"/>
+      <c r="C1" s="383" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
-      <c r="H1" s="379"/>
-      <c r="I1" s="379"/>
-      <c r="J1" s="379"/>
-      <c r="K1" s="379"/>
-      <c r="L1" s="379"/>
-      <c r="M1" s="379"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
+      <c r="H1" s="384"/>
+      <c r="I1" s="384"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="377"/>
+      <c r="B2" s="382"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -38845,21 +42504,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="380" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="381"/>
+      <c r="B3" s="385" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="386"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="382" t="s">
+      <c r="H3" s="387" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="382"/>
+      <c r="I3" s="387"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="387" t="s">
+      <c r="R3" s="392" t="s">
         <v>38</v>
       </c>
     </row>
@@ -38874,14 +42533,14 @@
       <c r="D4" s="16">
         <v>44647</v>
       </c>
-      <c r="E4" s="383" t="s">
+      <c r="E4" s="388" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="384"/>
-      <c r="H4" s="385" t="s">
+      <c r="F4" s="389"/>
+      <c r="H4" s="390" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="386"/>
+      <c r="I4" s="391"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -38891,11 +42550,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="394" t="s">
+      <c r="P4" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="395"/>
-      <c r="R4" s="388"/>
+      <c r="Q4" s="400"/>
+      <c r="R4" s="393"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -40492,11 +44151,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="396">
+      <c r="M40" s="401">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="398">
+      <c r="N40" s="403">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -40527,8 +44186,8 @@
       <c r="L41" s="73">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="397"/>
-      <c r="N41" s="399"/>
+      <c r="M41" s="402"/>
+      <c r="N41" s="404"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -40759,29 +44418,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="400" t="s">
+      <c r="H53" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="401"/>
+      <c r="I53" s="406"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="402">
+      <c r="K53" s="407">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="403"/>
-      <c r="M53" s="404">
+      <c r="L53" s="408"/>
+      <c r="M53" s="409">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="405"/>
+      <c r="N53" s="410"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="406" t="s">
+      <c r="D54" s="411" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="406"/>
+      <c r="E54" s="411"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -40792,22 +44451,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="407" t="s">
+      <c r="D55" s="412" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="407"/>
+      <c r="E55" s="412"/>
       <c r="F55" s="111">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="408" t="s">
+      <c r="I55" s="413" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="409"/>
-      <c r="K55" s="410">
+      <c r="J55" s="414"/>
+      <c r="K55" s="415">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="411"/>
+      <c r="L55" s="416"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -40838,11 +44497,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="412">
+      <c r="K57" s="417">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="413"/>
+      <c r="L57" s="418"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -40859,22 +44518,22 @@
       <c r="C59" s="128">
         <v>44682</v>
       </c>
-      <c r="D59" s="389" t="s">
+      <c r="D59" s="394" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="390"/>
+      <c r="E59" s="395"/>
       <c r="F59" s="129">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="391" t="s">
+      <c r="I59" s="396" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="392"/>
-      <c r="K59" s="393">
+      <c r="J59" s="397"/>
+      <c r="K59" s="398">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="393"/>
+      <c r="L59" s="398"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -42526,23 +46185,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="376"/>
-      <c r="C1" s="378" t="s">
+      <c r="B1" s="381"/>
+      <c r="C1" s="383" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
-      <c r="H1" s="379"/>
-      <c r="I1" s="379"/>
-      <c r="J1" s="379"/>
-      <c r="K1" s="379"/>
-      <c r="L1" s="379"/>
-      <c r="M1" s="379"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
+      <c r="H1" s="384"/>
+      <c r="I1" s="384"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="377"/>
+      <c r="B2" s="382"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -42552,21 +46211,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="380" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="381"/>
+      <c r="B3" s="385" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="386"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="382" t="s">
+      <c r="H3" s="387" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="382"/>
+      <c r="I3" s="387"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="387" t="s">
+      <c r="R3" s="392" t="s">
         <v>38</v>
       </c>
     </row>
@@ -42581,14 +46240,14 @@
       <c r="D4" s="16">
         <v>44682</v>
       </c>
-      <c r="E4" s="383" t="s">
+      <c r="E4" s="388" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="384"/>
-      <c r="H4" s="385" t="s">
+      <c r="F4" s="389"/>
+      <c r="H4" s="390" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="386"/>
+      <c r="I4" s="391"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -42598,11 +46257,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="394" t="s">
+      <c r="P4" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="395"/>
-      <c r="R4" s="388"/>
+      <c r="Q4" s="400"/>
+      <c r="R4" s="393"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -44119,11 +47778,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="396">
+      <c r="M40" s="401">
         <f>SUM(M5:M39)</f>
         <v>2144215</v>
       </c>
-      <c r="N40" s="398">
+      <c r="N40" s="403">
         <f>SUM(N5:N39)</f>
         <v>62525</v>
       </c>
@@ -44148,8 +47807,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="397"/>
-      <c r="N41" s="399"/>
+      <c r="M41" s="402"/>
+      <c r="N41" s="404"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -44360,29 +48019,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="400" t="s">
+      <c r="H53" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="401"/>
+      <c r="I53" s="406"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="402">
+      <c r="K53" s="407">
         <f>I51+L51</f>
         <v>51231.42</v>
       </c>
-      <c r="L53" s="403"/>
-      <c r="M53" s="404">
+      <c r="L53" s="408"/>
+      <c r="M53" s="409">
         <f>N40+M40</f>
         <v>2206740</v>
       </c>
-      <c r="N53" s="405"/>
+      <c r="N53" s="410"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="406" t="s">
+      <c r="D54" s="411" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="406"/>
+      <c r="E54" s="411"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2189405.58</v>
@@ -44393,22 +48052,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="407" t="s">
+      <c r="D55" s="412" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="407"/>
+      <c r="E55" s="412"/>
       <c r="F55" s="111">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="408" t="s">
+      <c r="I55" s="413" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="409"/>
-      <c r="K55" s="410">
+      <c r="J55" s="414"/>
+      <c r="K55" s="415">
         <f>F57+F58+F59</f>
         <v>112552.74000000017</v>
       </c>
-      <c r="L55" s="411"/>
+      <c r="L55" s="416"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -44439,11 +48098,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="412">
+      <c r="K57" s="417">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="413"/>
+      <c r="L57" s="418"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -44460,22 +48119,22 @@
       <c r="C59" s="128">
         <v>44710</v>
       </c>
-      <c r="D59" s="389" t="s">
+      <c r="D59" s="394" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="390"/>
+      <c r="E59" s="395"/>
       <c r="F59" s="129">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="391" t="s">
+      <c r="I59" s="396" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="392"/>
-      <c r="K59" s="393">
+      <c r="J59" s="397"/>
+      <c r="K59" s="398">
         <f>K55+K57</f>
         <v>-185321.84999999986</v>
       </c>
-      <c r="L59" s="393"/>
+      <c r="L59" s="398"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #11 NOVIEMBRE 2022/BALANCE   HERRADURA   NOVIEMRRE      2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #11 NOVIEMBRE 2022/BALANCE   HERRADURA   NOVIEMRRE      2022.xlsx
@@ -692,7 +692,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="554">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2358,6 +2358,15 @@
   </si>
   <si>
     <t>BALANCE      ABASTO 4 CARNES    H E R R A D U R A    NOVIEMBRE    2 0 2 2</t>
+  </si>
+  <si>
+    <t>NOMINA # 45</t>
+  </si>
+  <si>
+    <t>LONGANIZA-CENTRAL</t>
+  </si>
+  <si>
+    <t>NOMINA # 46</t>
   </si>
 </sst>
 </file>
@@ -4418,39 +4427,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4530,6 +4506,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9550,23 +9559,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="381"/>
-      <c r="C1" s="383" t="s">
+      <c r="B1" s="408"/>
+      <c r="C1" s="410" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
-      <c r="H1" s="384"/>
-      <c r="I1" s="384"/>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="382"/>
+      <c r="B2" s="409"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -9576,21 +9585,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="385" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="386"/>
+      <c r="B3" s="412" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="413"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="387" t="s">
+      <c r="H3" s="414" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="387"/>
+      <c r="I3" s="414"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="392" t="s">
+      <c r="R3" s="381" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9605,14 +9614,14 @@
       <c r="D4" s="16">
         <v>44563</v>
       </c>
-      <c r="E4" s="388" t="s">
+      <c r="E4" s="415" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="389"/>
-      <c r="H4" s="390" t="s">
+      <c r="F4" s="416"/>
+      <c r="H4" s="417" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="391"/>
+      <c r="I4" s="418"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -9622,11 +9631,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="399" t="s">
+      <c r="P4" s="388" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="400"/>
-      <c r="R4" s="393"/>
+      <c r="Q4" s="389"/>
+      <c r="R4" s="382"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -11081,11 +11090,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="401">
+      <c r="M40" s="390">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="403">
+      <c r="N40" s="392">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -11110,8 +11119,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="402"/>
-      <c r="N41" s="404"/>
+      <c r="M41" s="391"/>
+      <c r="N41" s="393"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -11318,29 +11327,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="405" t="s">
+      <c r="H53" s="394" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="406"/>
+      <c r="I53" s="395"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="407">
+      <c r="K53" s="396">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="408"/>
-      <c r="M53" s="409">
+      <c r="L53" s="397"/>
+      <c r="M53" s="398">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="410"/>
+      <c r="N53" s="399"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="411" t="s">
+      <c r="D54" s="400" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="411"/>
+      <c r="E54" s="400"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -11351,22 +11360,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="412" t="s">
+      <c r="D55" s="401" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="412"/>
+      <c r="E55" s="401"/>
       <c r="F55" s="111">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="413" t="s">
+      <c r="I55" s="402" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="414"/>
-      <c r="K55" s="415">
+      <c r="J55" s="403"/>
+      <c r="K55" s="404">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="416"/>
+      <c r="L55" s="405"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -11397,11 +11406,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="417">
+      <c r="K57" s="406">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="418"/>
+      <c r="L57" s="407"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -11418,22 +11427,22 @@
       <c r="C59" s="128">
         <v>44591</v>
       </c>
-      <c r="D59" s="394" t="s">
+      <c r="D59" s="383" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="395"/>
+      <c r="E59" s="384"/>
       <c r="F59" s="129">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="396" t="s">
+      <c r="I59" s="385" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="397"/>
-      <c r="K59" s="398">
+      <c r="J59" s="386"/>
+      <c r="K59" s="387">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="398"/>
+      <c r="L59" s="387"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -11558,6 +11567,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -11573,12 +11588,6 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13031,23 +13040,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="381"/>
-      <c r="C1" s="383" t="s">
+      <c r="B1" s="408"/>
+      <c r="C1" s="410" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
-      <c r="H1" s="384"/>
-      <c r="I1" s="384"/>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="382"/>
+      <c r="B2" s="409"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -13057,21 +13066,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="385" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="386"/>
+      <c r="B3" s="412" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="413"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="387" t="s">
+      <c r="H3" s="414" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="387"/>
+      <c r="I3" s="414"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="392" t="s">
+      <c r="R3" s="381" t="s">
         <v>38</v>
       </c>
     </row>
@@ -13086,14 +13095,14 @@
       <c r="D4" s="16">
         <v>44710</v>
       </c>
-      <c r="E4" s="388" t="s">
+      <c r="E4" s="415" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="389"/>
-      <c r="H4" s="390" t="s">
+      <c r="F4" s="416"/>
+      <c r="H4" s="417" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="391"/>
+      <c r="I4" s="418"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -13103,11 +13112,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="399" t="s">
+      <c r="P4" s="388" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="400"/>
-      <c r="R4" s="393"/>
+      <c r="Q4" s="389"/>
+      <c r="R4" s="382"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -14637,11 +14646,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="401">
+      <c r="M40" s="390">
         <f>SUM(M5:M39)</f>
         <v>2772689</v>
       </c>
-      <c r="N40" s="403">
+      <c r="N40" s="392">
         <f>SUM(N5:N39)</f>
         <v>107354</v>
       </c>
@@ -14672,8 +14681,8 @@
       <c r="L41" s="73">
         <v>638.99</v>
       </c>
-      <c r="M41" s="402"/>
-      <c r="N41" s="404"/>
+      <c r="M41" s="391"/>
+      <c r="N41" s="393"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -14919,29 +14928,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="405" t="s">
+      <c r="H53" s="394" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="406"/>
+      <c r="I53" s="395"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="407">
+      <c r="K53" s="396">
         <f>I51+L51</f>
         <v>60691.69</v>
       </c>
-      <c r="L53" s="408"/>
-      <c r="M53" s="409">
+      <c r="L53" s="397"/>
+      <c r="M53" s="398">
         <f>N40+M40</f>
         <v>2880043</v>
       </c>
-      <c r="N53" s="410"/>
+      <c r="N53" s="399"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="411" t="s">
+      <c r="D54" s="400" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="411"/>
+      <c r="E54" s="400"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2844548.31</v>
@@ -14952,22 +14961,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="412" t="s">
+      <c r="D55" s="401" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="412"/>
+      <c r="E55" s="401"/>
       <c r="F55" s="111">
         <v>-2875380.48</v>
       </c>
-      <c r="I55" s="413" t="s">
+      <c r="I55" s="402" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="414"/>
-      <c r="K55" s="415">
+      <c r="J55" s="403"/>
+      <c r="K55" s="404">
         <f>F57+F58+F59</f>
         <v>247554.74000000008</v>
       </c>
-      <c r="L55" s="416"/>
+      <c r="L55" s="405"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -14998,11 +15007,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="417">
+      <c r="K57" s="406">
         <f>-C4</f>
         <v>-149938.81</v>
       </c>
-      <c r="L57" s="418"/>
+      <c r="L57" s="407"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -15019,22 +15028,22 @@
       <c r="C59" s="128">
         <v>44745</v>
       </c>
-      <c r="D59" s="394" t="s">
+      <c r="D59" s="383" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="395"/>
+      <c r="E59" s="384"/>
       <c r="F59" s="129">
         <v>232165.91</v>
       </c>
-      <c r="I59" s="396" t="s">
+      <c r="I59" s="385" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="397"/>
-      <c r="K59" s="398">
+      <c r="J59" s="386"/>
+      <c r="K59" s="387">
         <f>K55+K57</f>
         <v>97615.93000000008</v>
       </c>
-      <c r="L59" s="398"/>
+      <c r="L59" s="387"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -15162,18 +15171,6 @@
     <sortCondition ref="B7:B9"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -15183,6 +15180,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.17" top="0.4" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16664,23 +16673,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="381"/>
-      <c r="C1" s="383" t="s">
+      <c r="B1" s="408"/>
+      <c r="C1" s="410" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
-      <c r="H1" s="384"/>
-      <c r="I1" s="384"/>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="382"/>
+      <c r="B2" s="409"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -16690,21 +16699,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="385" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="386"/>
+      <c r="B3" s="412" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="413"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="387" t="s">
+      <c r="H3" s="414" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="387"/>
+      <c r="I3" s="414"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="392" t="s">
+      <c r="R3" s="381" t="s">
         <v>38</v>
       </c>
     </row>
@@ -16719,14 +16728,14 @@
       <c r="D4" s="16">
         <v>44745</v>
       </c>
-      <c r="E4" s="388" t="s">
+      <c r="E4" s="415" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="389"/>
-      <c r="H4" s="390" t="s">
+      <c r="F4" s="416"/>
+      <c r="H4" s="417" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="391"/>
+      <c r="I4" s="418"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -16736,11 +16745,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="399" t="s">
+      <c r="P4" s="388" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="400"/>
-      <c r="R4" s="393"/>
+      <c r="Q4" s="389"/>
+      <c r="R4" s="382"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -18185,11 +18194,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="401">
+      <c r="M40" s="390">
         <f>SUM(M5:M39)</f>
         <v>2373103</v>
       </c>
-      <c r="N40" s="403">
+      <c r="N40" s="392">
         <f>SUM(N5:N39)</f>
         <v>67308</v>
       </c>
@@ -18218,8 +18227,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="402"/>
-      <c r="N41" s="404"/>
+      <c r="M41" s="391"/>
+      <c r="N41" s="393"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -18434,29 +18443,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="405" t="s">
+      <c r="H53" s="394" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="406"/>
+      <c r="I53" s="395"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="407">
+      <c r="K53" s="396">
         <f>I51+L51</f>
         <v>79649.720000000016</v>
       </c>
-      <c r="L53" s="408"/>
-      <c r="M53" s="409">
+      <c r="L53" s="397"/>
+      <c r="M53" s="398">
         <f>N40+M40</f>
         <v>2440411</v>
       </c>
-      <c r="N53" s="410"/>
+      <c r="N53" s="399"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="411" t="s">
+      <c r="D54" s="400" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="411"/>
+      <c r="E54" s="400"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2356249.2799999998</v>
@@ -18467,22 +18476,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="412" t="s">
+      <c r="D55" s="401" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="412"/>
+      <c r="E55" s="401"/>
       <c r="F55" s="111">
         <v>-2471332.31</v>
       </c>
-      <c r="I55" s="413" t="s">
+      <c r="I55" s="402" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="414"/>
-      <c r="K55" s="415">
+      <c r="J55" s="403"/>
+      <c r="K55" s="404">
         <f>F57+F58+F59</f>
         <v>214026.38999999972</v>
       </c>
-      <c r="L55" s="416"/>
+      <c r="L55" s="405"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -18513,11 +18522,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="417">
+      <c r="K57" s="406">
         <f>-C4</f>
         <v>-232165.91</v>
       </c>
-      <c r="L57" s="418"/>
+      <c r="L57" s="407"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -18534,22 +18543,22 @@
       <c r="C59" s="128">
         <v>44773</v>
       </c>
-      <c r="D59" s="394" t="s">
+      <c r="D59" s="383" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="395"/>
+      <c r="E59" s="384"/>
       <c r="F59" s="129">
         <v>273736.42</v>
       </c>
-      <c r="I59" s="396" t="s">
+      <c r="I59" s="385" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="397"/>
-      <c r="K59" s="398">
+      <c r="J59" s="386"/>
+      <c r="K59" s="387">
         <f>K55+K57</f>
         <v>-18139.520000000281</v>
       </c>
-      <c r="L59" s="398"/>
+      <c r="L59" s="387"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -18674,18 +18683,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -18695,6 +18692,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.27559055118110237" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="60" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -20086,23 +20095,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="381"/>
-      <c r="C1" s="383" t="s">
+      <c r="B1" s="408"/>
+      <c r="C1" s="410" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
-      <c r="H1" s="384"/>
-      <c r="I1" s="384"/>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="382"/>
+      <c r="B2" s="409"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -20112,21 +20121,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="385" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="386"/>
+      <c r="B3" s="412" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="413"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="387" t="s">
+      <c r="H3" s="414" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="387"/>
+      <c r="I3" s="414"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="392" t="s">
+      <c r="R3" s="381" t="s">
         <v>38</v>
       </c>
     </row>
@@ -20141,14 +20150,14 @@
       <c r="D4" s="16">
         <v>44773</v>
       </c>
-      <c r="E4" s="388" t="s">
+      <c r="E4" s="415" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="389"/>
-      <c r="H4" s="390" t="s">
+      <c r="F4" s="416"/>
+      <c r="H4" s="417" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="391"/>
+      <c r="I4" s="418"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -20158,11 +20167,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="399" t="s">
+      <c r="P4" s="388" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="400"/>
-      <c r="R4" s="393"/>
+      <c r="Q4" s="389"/>
+      <c r="R4" s="382"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -21642,11 +21651,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="401">
+      <c r="M40" s="390">
         <f>SUM(M5:M39)</f>
         <v>2375259</v>
       </c>
-      <c r="N40" s="403">
+      <c r="N40" s="392">
         <f>SUM(N5:N39)</f>
         <v>61117</v>
       </c>
@@ -21675,8 +21684,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="402"/>
-      <c r="N41" s="404"/>
+      <c r="M41" s="391"/>
+      <c r="N41" s="393"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -21891,29 +21900,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="405" t="s">
+      <c r="H53" s="394" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="406"/>
+      <c r="I53" s="395"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="407">
+      <c r="K53" s="396">
         <f>I51+L51</f>
         <v>52857.25</v>
       </c>
-      <c r="L53" s="408"/>
-      <c r="M53" s="409">
+      <c r="L53" s="397"/>
+      <c r="M53" s="398">
         <f>N40+M40</f>
         <v>2436376</v>
       </c>
-      <c r="N53" s="410"/>
+      <c r="N53" s="399"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="411" t="s">
+      <c r="D54" s="400" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="411"/>
+      <c r="E54" s="400"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2370653.75</v>
@@ -21924,22 +21933,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="412" t="s">
+      <c r="D55" s="401" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="412"/>
+      <c r="E55" s="401"/>
       <c r="F55" s="111">
         <v>-2401197.5699999998</v>
       </c>
-      <c r="I55" s="413" t="s">
+      <c r="I55" s="402" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="414"/>
-      <c r="K55" s="415">
+      <c r="J55" s="403"/>
+      <c r="K55" s="404">
         <f>F57+F58+F59</f>
         <v>259241.77000000016</v>
       </c>
-      <c r="L55" s="416"/>
+      <c r="L55" s="405"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -21970,11 +21979,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="417">
+      <c r="K57" s="406">
         <f>-C4</f>
         <v>-273736.42</v>
       </c>
-      <c r="L57" s="418"/>
+      <c r="L57" s="407"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -21991,10 +22000,10 @@
       <c r="C59" s="128">
         <v>44801</v>
       </c>
-      <c r="D59" s="394" t="s">
+      <c r="D59" s="383" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="395"/>
+      <c r="E59" s="384"/>
       <c r="F59" s="129">
         <v>236400.59</v>
       </c>
@@ -22131,18 +22140,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -22152,6 +22149,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -23558,23 +23567,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="381"/>
-      <c r="C1" s="383" t="s">
+      <c r="B1" s="408"/>
+      <c r="C1" s="410" t="s">
         <v>465</v>
       </c>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
-      <c r="H1" s="384"/>
-      <c r="I1" s="384"/>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="382"/>
+      <c r="B2" s="409"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -23584,21 +23593,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="385" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="386"/>
+      <c r="B3" s="412" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="413"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="387" t="s">
+      <c r="H3" s="414" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="387"/>
+      <c r="I3" s="414"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="392" t="s">
+      <c r="R3" s="381" t="s">
         <v>38</v>
       </c>
     </row>
@@ -23613,14 +23622,14 @@
       <c r="D4" s="16">
         <v>44801</v>
       </c>
-      <c r="E4" s="388" t="s">
+      <c r="E4" s="415" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="389"/>
-      <c r="H4" s="390" t="s">
+      <c r="F4" s="416"/>
+      <c r="H4" s="417" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="391"/>
+      <c r="I4" s="418"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -23630,11 +23639,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="399" t="s">
+      <c r="P4" s="388" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="400"/>
-      <c r="R4" s="393"/>
+      <c r="Q4" s="389"/>
+      <c r="R4" s="382"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -25362,11 +25371,11 @@
       <c r="L40" s="73">
         <v>927.48</v>
       </c>
-      <c r="M40" s="401">
+      <c r="M40" s="390">
         <f>SUM(M5:M39)</f>
         <v>3147309.5</v>
       </c>
-      <c r="N40" s="403">
+      <c r="N40" s="392">
         <f>SUM(N5:N39)</f>
         <v>76569</v>
       </c>
@@ -25401,8 +25410,8 @@
       <c r="L41" s="73">
         <v>33312</v>
       </c>
-      <c r="M41" s="402"/>
-      <c r="N41" s="404"/>
+      <c r="M41" s="391"/>
+      <c r="N41" s="393"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -25645,29 +25654,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="405" t="s">
+      <c r="H53" s="394" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="406"/>
+      <c r="I53" s="395"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="407">
+      <c r="K53" s="396">
         <f>I51+L51</f>
         <v>102873.87000000001</v>
       </c>
-      <c r="L53" s="408"/>
-      <c r="M53" s="409">
+      <c r="L53" s="397"/>
+      <c r="M53" s="398">
         <f>N40+M40</f>
         <v>3223878.5</v>
       </c>
-      <c r="N53" s="410"/>
+      <c r="N53" s="399"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="411" t="s">
+      <c r="D54" s="400" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="411"/>
+      <c r="E54" s="400"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>3130076.13</v>
@@ -25678,22 +25687,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="412" t="s">
+      <c r="D55" s="401" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="412"/>
+      <c r="E55" s="401"/>
       <c r="F55" s="111">
         <v>-3171951.31</v>
       </c>
-      <c r="I55" s="413" t="s">
+      <c r="I55" s="402" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="414"/>
-      <c r="K55" s="415">
+      <c r="J55" s="403"/>
+      <c r="K55" s="404">
         <f>F57+F58+F59</f>
         <v>265314.0299999998</v>
       </c>
-      <c r="L55" s="416"/>
+      <c r="L55" s="405"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -25724,11 +25733,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="417">
+      <c r="K57" s="406">
         <f>-C4</f>
         <v>-236400.59</v>
       </c>
-      <c r="L57" s="418"/>
+      <c r="L57" s="407"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -25745,10 +25754,10 @@
       <c r="C59" s="128">
         <v>44836</v>
       </c>
-      <c r="D59" s="394" t="s">
+      <c r="D59" s="383" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="395"/>
+      <c r="E59" s="384"/>
       <c r="F59" s="129">
         <v>242354.21</v>
       </c>
@@ -25888,6 +25897,18 @@
     <sortCondition ref="J41:J45"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -25897,18 +25918,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -27253,23 +27262,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="381"/>
-      <c r="C1" s="383" t="s">
+      <c r="B1" s="408"/>
+      <c r="C1" s="410" t="s">
         <v>512</v>
       </c>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
-      <c r="H1" s="384"/>
-      <c r="I1" s="384"/>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="382"/>
+      <c r="B2" s="409"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -27279,21 +27288,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="385" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="386"/>
+      <c r="B3" s="412" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="413"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="387" t="s">
+      <c r="H3" s="414" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="387"/>
+      <c r="I3" s="414"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="392" t="s">
+      <c r="R3" s="381" t="s">
         <v>38</v>
       </c>
     </row>
@@ -27308,14 +27317,14 @@
       <c r="D4" s="16">
         <v>44836</v>
       </c>
-      <c r="E4" s="388" t="s">
+      <c r="E4" s="415" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="389"/>
-      <c r="H4" s="390" t="s">
+      <c r="F4" s="416"/>
+      <c r="H4" s="417" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="391"/>
+      <c r="I4" s="418"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -27325,11 +27334,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="399" t="s">
+      <c r="P4" s="388" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="400"/>
-      <c r="R4" s="393"/>
+      <c r="Q4" s="389"/>
+      <c r="R4" s="382"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -29002,11 +29011,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="360"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="401">
+      <c r="M40" s="390">
         <f>SUM(M5:M39)</f>
         <v>2563550</v>
       </c>
-      <c r="N40" s="403">
+      <c r="N40" s="392">
         <f>SUM(N5:N39)</f>
         <v>77235</v>
       </c>
@@ -29036,8 +29045,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="363"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="402"/>
-      <c r="N41" s="404"/>
+      <c r="M41" s="391"/>
+      <c r="N41" s="393"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -29252,29 +29261,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="405" t="s">
+      <c r="H53" s="394" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="406"/>
+      <c r="I53" s="395"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="407">
+      <c r="K53" s="396">
         <f>I51+L51</f>
         <v>151758.24</v>
       </c>
-      <c r="L53" s="408"/>
-      <c r="M53" s="409">
+      <c r="L53" s="397"/>
+      <c r="M53" s="398">
         <f>N40+M40</f>
         <v>2640785</v>
       </c>
-      <c r="N53" s="410"/>
+      <c r="N53" s="399"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="411" t="s">
+      <c r="D54" s="400" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="411"/>
+      <c r="E54" s="400"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2467848.5599999996</v>
@@ -29285,22 +29294,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="412" t="s">
+      <c r="D55" s="401" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="412"/>
+      <c r="E55" s="401"/>
       <c r="F55" s="111">
         <v>-2793202.57</v>
       </c>
-      <c r="I55" s="413" t="s">
+      <c r="I55" s="402" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="414"/>
-      <c r="K55" s="415">
+      <c r="J55" s="403"/>
+      <c r="K55" s="404">
         <f>F57+F58+F59</f>
         <v>149596.74999999977</v>
       </c>
-      <c r="L55" s="416"/>
+      <c r="L55" s="405"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -29331,11 +29340,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="417">
+      <c r="K57" s="406">
         <f>-C4</f>
         <v>-242354.21</v>
       </c>
-      <c r="L57" s="418"/>
+      <c r="L57" s="407"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -29352,10 +29361,10 @@
       <c r="C59" s="128">
         <v>44864</v>
       </c>
-      <c r="D59" s="394" t="s">
+      <c r="D59" s="383" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="395"/>
+      <c r="E59" s="384"/>
       <c r="F59" s="129">
         <v>419424.76</v>
       </c>
@@ -29492,18 +29501,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -29513,6 +29510,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -32541,8 +32550,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32567,23 +32576,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="381"/>
-      <c r="C1" s="383" t="s">
+      <c r="B1" s="408"/>
+      <c r="C1" s="410" t="s">
         <v>550</v>
       </c>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
-      <c r="H1" s="384"/>
-      <c r="I1" s="384"/>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="382"/>
+      <c r="B2" s="409"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -32593,21 +32602,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="385" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="386"/>
+      <c r="B3" s="412" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="413"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="387" t="s">
+      <c r="H3" s="414" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="387"/>
+      <c r="I3" s="414"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="392" t="s">
+      <c r="R3" s="381" t="s">
         <v>38</v>
       </c>
     </row>
@@ -32622,14 +32631,14 @@
       <c r="D4" s="16">
         <v>44864</v>
       </c>
-      <c r="E4" s="388" t="s">
+      <c r="E4" s="415" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="389"/>
-      <c r="H4" s="390" t="s">
+      <c r="F4" s="416"/>
+      <c r="H4" s="417" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="391"/>
+      <c r="I4" s="418"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -32639,11 +32648,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="399" t="s">
+      <c r="P4" s="388" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="400"/>
-      <c r="R4" s="393"/>
+      <c r="Q4" s="389"/>
+      <c r="R4" s="382"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -32685,7 +32694,7 @@
         <v>136405</v>
       </c>
       <c r="Q5" s="12">
-        <f t="shared" ref="Q5:Q39" si="0">P5-F5</f>
+        <f>P5-F5</f>
         <v>0</v>
       </c>
       <c r="R5" s="12">
@@ -32701,37 +32710,44 @@
         <v>44866</v>
       </c>
       <c r="C6" s="24">
-        <v>0</v>
-      </c>
-      <c r="D6" s="326"/>
+        <v>3840</v>
+      </c>
+      <c r="D6" s="326" t="s">
+        <v>47</v>
+      </c>
       <c r="E6" s="322">
         <v>44866</v>
       </c>
-      <c r="F6" s="27"/>
+      <c r="F6" s="27">
+        <v>63472</v>
+      </c>
       <c r="G6" s="323"/>
       <c r="H6" s="324">
         <v>44866</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="29">
+        <v>78</v>
+      </c>
       <c r="J6" s="36"/>
       <c r="K6" s="327"/>
       <c r="L6" s="38"/>
       <c r="M6" s="30">
-        <v>0</v>
+        <f>52767+25000</f>
+        <v>77767</v>
       </c>
       <c r="N6" s="31">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="O6" s="314"/>
       <c r="P6" s="32">
         <f>N6+M6+L6+I6+C6</f>
-        <v>0</v>
+        <v>81988</v>
       </c>
       <c r="Q6" s="12">
         <v>0</v>
       </c>
-      <c r="R6" s="12">
-        <v>0</v>
+      <c r="R6" s="283">
+        <v>18516</v>
       </c>
       <c r="S6" s="369">
         <v>44838</v>
@@ -32750,27 +32766,32 @@
       <c r="E7" s="322">
         <v>44867</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8">
+        <v>37429</v>
+      </c>
       <c r="G7" s="323"/>
       <c r="H7" s="324">
         <v>44867</v>
       </c>
-      <c r="I7" s="29"/>
+      <c r="I7" s="29">
+        <v>464</v>
+      </c>
       <c r="J7" s="36"/>
       <c r="K7" s="329"/>
       <c r="L7" s="38"/>
       <c r="M7" s="30">
-        <v>0</v>
+        <v>36915</v>
       </c>
       <c r="N7" s="31">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O7" s="314"/>
       <c r="P7" s="32">
         <f>N7+M7+L7+I7+C7</f>
-        <v>0</v>
+        <v>37429</v>
       </c>
       <c r="Q7" s="12">
+        <f t="shared" ref="Q6:Q39" si="0">P7-F7</f>
         <v>0</v>
       </c>
       <c r="R7" s="12">
@@ -32792,31 +32813,36 @@
       <c r="E8" s="322">
         <v>44868</v>
       </c>
-      <c r="F8" s="27"/>
+      <c r="F8" s="27">
+        <v>89547</v>
+      </c>
       <c r="G8" s="323"/>
       <c r="H8" s="324">
         <v>44868</v>
       </c>
-      <c r="I8" s="29"/>
+      <c r="I8" s="29">
+        <v>103</v>
+      </c>
       <c r="J8" s="42"/>
       <c r="K8" s="330"/>
       <c r="L8" s="38"/>
       <c r="M8" s="30">
-        <v>0</v>
+        <f>71144+35000</f>
+        <v>106144</v>
       </c>
       <c r="N8" s="31">
-        <v>0</v>
+        <v>3340</v>
       </c>
       <c r="O8" s="314"/>
       <c r="P8" s="32">
         <f t="shared" ref="P8:P40" si="1">N8+M8+L8+I8+C8</f>
-        <v>0</v>
+        <v>109587</v>
       </c>
       <c r="Q8" s="12">
         <v>0</v>
       </c>
-      <c r="R8" s="12">
-        <v>0</v>
+      <c r="R8" s="283">
+        <v>20040</v>
       </c>
       <c r="S8" s="369">
         <v>44840</v>
@@ -32828,33 +32854,41 @@
         <v>44869</v>
       </c>
       <c r="C9" s="24">
-        <v>0</v>
-      </c>
-      <c r="D9" s="328"/>
+        <v>12724</v>
+      </c>
+      <c r="D9" s="328" t="s">
+        <v>49</v>
+      </c>
       <c r="E9" s="322">
         <v>44869</v>
       </c>
-      <c r="F9" s="27"/>
+      <c r="F9" s="27">
+        <v>130261</v>
+      </c>
       <c r="G9" s="323"/>
       <c r="H9" s="324">
         <v>44869</v>
       </c>
-      <c r="I9" s="29"/>
+      <c r="I9" s="29">
+        <v>115</v>
+      </c>
       <c r="J9" s="36"/>
       <c r="K9" s="331"/>
       <c r="L9" s="38"/>
       <c r="M9" s="30">
-        <v>0</v>
+        <f>45000+70292</f>
+        <v>115292</v>
       </c>
       <c r="N9" s="31">
-        <v>0</v>
+        <v>2130</v>
       </c>
       <c r="O9" s="314"/>
       <c r="P9" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>130261</v>
       </c>
       <c r="Q9" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R9" s="12">
@@ -32876,27 +32910,39 @@
       <c r="E10" s="322">
         <v>44870</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="27">
+        <v>76363</v>
+      </c>
       <c r="G10" s="323"/>
       <c r="H10" s="324">
         <v>44870</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="332"/>
-      <c r="L10" s="46"/>
+      <c r="I10" s="29">
+        <v>184</v>
+      </c>
+      <c r="J10" s="36">
+        <v>44870</v>
+      </c>
+      <c r="K10" s="332" t="s">
+        <v>551</v>
+      </c>
+      <c r="L10" s="46">
+        <v>9367</v>
+      </c>
       <c r="M10" s="30">
-        <v>0</v>
+        <f>38076+787+15000</f>
+        <v>53863</v>
       </c>
       <c r="N10" s="31">
-        <v>0</v>
+        <v>12949</v>
       </c>
       <c r="O10" s="314"/>
       <c r="P10" s="32">
         <f>N10+M10+L10+I10+C10</f>
-        <v>0</v>
+        <v>76363</v>
       </c>
       <c r="Q10" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R10" s="12">
@@ -32921,31 +32967,36 @@
       <c r="E11" s="322">
         <v>44871</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="27">
+        <v>128268</v>
+      </c>
       <c r="G11" s="323"/>
       <c r="H11" s="324">
         <v>44871</v>
       </c>
-      <c r="I11" s="29"/>
+      <c r="I11" s="29">
+        <v>107</v>
+      </c>
       <c r="J11" s="42"/>
       <c r="K11" s="333"/>
       <c r="L11" s="38"/>
       <c r="M11" s="30">
-        <v>0</v>
+        <f>90000+30000+21689</f>
+        <v>141689</v>
       </c>
       <c r="N11" s="31">
-        <v>0</v>
+        <v>1472</v>
       </c>
       <c r="O11" s="314"/>
       <c r="P11" s="32">
         <f>N11+M11+L11+I11+C11</f>
-        <v>0</v>
+        <v>143268</v>
       </c>
       <c r="Q11" s="12">
         <v>0</v>
       </c>
-      <c r="R11" s="12">
-        <v>0</v>
+      <c r="R11" s="283">
+        <v>15000</v>
       </c>
       <c r="S11" s="369">
         <v>44843</v>
@@ -32963,25 +33014,30 @@
       <c r="E12" s="322">
         <v>44872</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="27">
+        <v>175898</v>
+      </c>
       <c r="G12" s="323"/>
       <c r="H12" s="324">
         <v>44872</v>
       </c>
-      <c r="I12" s="29"/>
+      <c r="I12" s="29">
+        <v>137</v>
+      </c>
       <c r="J12" s="36"/>
       <c r="K12" s="334"/>
       <c r="L12" s="38"/>
       <c r="M12" s="30">
-        <v>0</v>
+        <f>40000+33312+100000</f>
+        <v>173312</v>
       </c>
       <c r="N12" s="31">
-        <v>0</v>
+        <v>2449</v>
       </c>
       <c r="O12" s="314"/>
       <c r="P12" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>175898</v>
       </c>
       <c r="Q12" s="12">
         <f t="shared" si="0"/>
@@ -33000,31 +33056,38 @@
         <v>44873</v>
       </c>
       <c r="C13" s="24">
-        <v>0</v>
-      </c>
-      <c r="D13" s="328"/>
+        <v>3130</v>
+      </c>
+      <c r="D13" s="328" t="s">
+        <v>44</v>
+      </c>
       <c r="E13" s="322">
         <v>44873</v>
       </c>
-      <c r="F13" s="27"/>
+      <c r="F13" s="27">
+        <v>92504</v>
+      </c>
       <c r="G13" s="323"/>
       <c r="H13" s="324">
         <v>44873</v>
       </c>
-      <c r="I13" s="29"/>
+      <c r="I13" s="29">
+        <v>82</v>
+      </c>
       <c r="J13" s="36"/>
       <c r="K13" s="327"/>
       <c r="L13" s="38"/>
       <c r="M13" s="30">
-        <v>0</v>
+        <f>63377+25000</f>
+        <v>88377</v>
       </c>
       <c r="N13" s="31">
-        <v>0</v>
+        <v>915</v>
       </c>
       <c r="O13" s="314"/>
       <c r="P13" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>92504</v>
       </c>
       <c r="Q13" s="12">
         <f t="shared" si="0"/>
@@ -33049,25 +33112,30 @@
       <c r="E14" s="322">
         <v>44874</v>
       </c>
-      <c r="F14" s="27"/>
+      <c r="F14" s="27">
+        <v>53903</v>
+      </c>
       <c r="G14" s="323"/>
       <c r="H14" s="324">
         <v>44874</v>
       </c>
-      <c r="I14" s="29"/>
+      <c r="I14" s="29">
+        <v>183</v>
+      </c>
       <c r="J14" s="36"/>
       <c r="K14" s="330"/>
       <c r="L14" s="38"/>
       <c r="M14" s="30">
-        <v>0</v>
+        <f>10000+38234+4873</f>
+        <v>53107</v>
       </c>
       <c r="N14" s="31">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="O14" s="314"/>
       <c r="P14" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>53903</v>
       </c>
       <c r="Q14" s="12">
         <f t="shared" si="0"/>
@@ -33086,38 +33154,44 @@
         <v>44875</v>
       </c>
       <c r="C15" s="24">
-        <v>0</v>
-      </c>
-      <c r="D15" s="335"/>
+        <v>22185</v>
+      </c>
+      <c r="D15" s="335" t="s">
+        <v>552</v>
+      </c>
       <c r="E15" s="322">
         <v>44875</v>
       </c>
-      <c r="F15" s="27"/>
+      <c r="F15" s="27">
+        <v>116136</v>
+      </c>
       <c r="G15" s="323"/>
       <c r="H15" s="324">
         <v>44875</v>
       </c>
-      <c r="I15" s="29"/>
+      <c r="I15" s="29">
+        <v>183</v>
+      </c>
       <c r="J15" s="36"/>
       <c r="K15" s="330"/>
       <c r="L15" s="38"/>
       <c r="M15" s="30">
-        <v>0</v>
+        <f>48803+40000</f>
+        <v>88803</v>
       </c>
       <c r="N15" s="31">
-        <v>0</v>
+        <v>6935</v>
       </c>
       <c r="O15" s="314"/>
       <c r="P15" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>118106</v>
       </c>
       <c r="Q15" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R15" s="283">
+        <v>1970</v>
       </c>
       <c r="S15" s="369">
         <v>44847</v>
@@ -33129,31 +33203,38 @@
         <v>44876</v>
       </c>
       <c r="C16" s="24">
-        <v>0</v>
-      </c>
-      <c r="D16" s="326"/>
+        <v>4199</v>
+      </c>
+      <c r="D16" s="326" t="s">
+        <v>49</v>
+      </c>
       <c r="E16" s="322">
         <v>44876</v>
       </c>
-      <c r="F16" s="27"/>
+      <c r="F16" s="27">
+        <v>133296</v>
+      </c>
       <c r="G16" s="323"/>
       <c r="H16" s="324">
         <v>44876</v>
       </c>
-      <c r="I16" s="29"/>
+      <c r="I16" s="29">
+        <v>139</v>
+      </c>
       <c r="J16" s="36"/>
       <c r="K16" s="330"/>
       <c r="L16" s="8"/>
       <c r="M16" s="30">
-        <v>0</v>
+        <f>40000+50000+32841</f>
+        <v>122841</v>
       </c>
       <c r="N16" s="31">
-        <v>0</v>
+        <v>6117</v>
       </c>
       <c r="O16" s="314"/>
       <c r="P16" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>133296</v>
       </c>
       <c r="Q16" s="12">
         <f t="shared" si="0"/>
@@ -33178,27 +33259,39 @@
       <c r="E17" s="322">
         <v>44877</v>
       </c>
-      <c r="F17" s="27"/>
+      <c r="F17" s="27">
+        <v>109562</v>
+      </c>
       <c r="G17" s="323"/>
       <c r="H17" s="324">
         <v>44877</v>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="336"/>
-      <c r="L17" s="46"/>
+      <c r="I17" s="29">
+        <v>75</v>
+      </c>
+      <c r="J17" s="36">
+        <v>44877</v>
+      </c>
+      <c r="K17" s="336" t="s">
+        <v>553</v>
+      </c>
+      <c r="L17" s="46">
+        <v>9786</v>
+      </c>
       <c r="M17" s="30">
-        <v>0</v>
+        <f>25000+59714+5021</f>
+        <v>89735</v>
       </c>
       <c r="N17" s="31">
-        <v>0</v>
+        <v>9966</v>
       </c>
       <c r="O17" s="314"/>
       <c r="P17" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>109562</v>
       </c>
       <c r="Q17" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R17" s="12">
@@ -33220,25 +33313,30 @@
       <c r="E18" s="322">
         <v>44878</v>
       </c>
-      <c r="F18" s="27"/>
+      <c r="F18" s="27">
+        <v>102119</v>
+      </c>
       <c r="G18" s="323"/>
       <c r="H18" s="324">
         <v>44878</v>
       </c>
-      <c r="I18" s="29"/>
+      <c r="I18" s="29">
+        <v>310</v>
+      </c>
       <c r="J18" s="36"/>
       <c r="K18" s="337"/>
       <c r="L18" s="38"/>
       <c r="M18" s="30">
-        <v>0</v>
+        <f>75000+22840</f>
+        <v>97840</v>
       </c>
       <c r="N18" s="31">
-        <v>0</v>
+        <v>3969</v>
       </c>
       <c r="O18" s="314"/>
       <c r="P18" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>102119</v>
       </c>
       <c r="Q18" s="12">
         <f t="shared" si="0"/>
@@ -33257,31 +33355,38 @@
         <v>44879</v>
       </c>
       <c r="C19" s="24">
-        <v>0</v>
-      </c>
-      <c r="D19" s="326"/>
+        <v>9880</v>
+      </c>
+      <c r="D19" s="326" t="s">
+        <v>49</v>
+      </c>
       <c r="E19" s="322">
         <v>44879</v>
       </c>
-      <c r="F19" s="27"/>
+      <c r="F19" s="27">
+        <v>201608</v>
+      </c>
       <c r="G19" s="323"/>
       <c r="H19" s="324">
         <v>44879</v>
       </c>
-      <c r="I19" s="29"/>
+      <c r="I19" s="29">
+        <v>70</v>
+      </c>
       <c r="J19" s="36"/>
       <c r="K19" s="338"/>
       <c r="L19" s="53"/>
       <c r="M19" s="30">
-        <v>0</v>
+        <f>35000+90000+63508</f>
+        <v>188508</v>
       </c>
       <c r="N19" s="31">
-        <v>0</v>
+        <v>3150</v>
       </c>
       <c r="O19" s="314"/>
       <c r="P19" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>201608</v>
       </c>
       <c r="Q19" s="12">
         <f t="shared" si="0"/>
@@ -34098,17 +34203,17 @@
       <c r="J40" s="71"/>
       <c r="K40" s="360"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="401">
+      <c r="M40" s="390">
         <f>SUM(M5:M39)</f>
-        <v>134634</v>
-      </c>
-      <c r="N40" s="403">
+        <v>1568827</v>
+      </c>
+      <c r="N40" s="392">
         <f>SUM(N5:N39)</f>
-        <v>1615</v>
+        <v>55973</v>
       </c>
       <c r="P40" s="32">
         <f t="shared" si="1"/>
-        <v>136249</v>
+        <v>1624800</v>
       </c>
       <c r="Q40" s="284">
         <f>SUM(Q5:Q39)</f>
@@ -34116,7 +34221,7 @@
       </c>
       <c r="R40" s="316">
         <f>SUM(R5:R39)</f>
-        <v>0</v>
+        <v>55526</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34132,8 +34237,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="363"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="402"/>
-      <c r="N41" s="404"/>
+      <c r="M41" s="391"/>
+      <c r="N41" s="393"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -34306,7 +34411,7 @@
       </c>
       <c r="C51" s="102">
         <f>SUM(C5:C50)</f>
-        <v>0</v>
+        <v>55958</v>
       </c>
       <c r="D51" s="103"/>
       <c r="E51" s="104" t="s">
@@ -34314,7 +34419,7 @@
       </c>
       <c r="F51" s="105">
         <f>SUM(F5:F50)</f>
-        <v>136405</v>
+        <v>1646771</v>
       </c>
       <c r="G51" s="103"/>
       <c r="H51" s="106" t="s">
@@ -34322,7 +34427,7 @@
       </c>
       <c r="I51" s="107">
         <f>SUM(I5:I50)</f>
-        <v>156</v>
+        <v>2386</v>
       </c>
       <c r="J51" s="108"/>
       <c r="K51" s="109" t="s">
@@ -34330,7 +34435,7 @@
       </c>
       <c r="L51" s="110">
         <f>SUM(L5:L50)</f>
-        <v>0</v>
+        <v>19153</v>
       </c>
       <c r="M51" s="111"/>
       <c r="N51" s="111"/>
@@ -34348,32 +34453,32 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="405" t="s">
+      <c r="H53" s="394" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="406"/>
+      <c r="I53" s="395"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="407">
+      <c r="K53" s="396">
         <f>I51+L51</f>
-        <v>156</v>
-      </c>
-      <c r="L53" s="408"/>
-      <c r="M53" s="409">
+        <v>21539</v>
+      </c>
+      <c r="L53" s="397"/>
+      <c r="M53" s="398">
         <f>N40+M40</f>
-        <v>136249</v>
-      </c>
-      <c r="N53" s="410"/>
+        <v>1624800</v>
+      </c>
+      <c r="N53" s="399"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="411" t="s">
+      <c r="D54" s="400" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="411"/>
+      <c r="E54" s="400"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
-        <v>136249</v>
+        <v>1569274</v>
       </c>
       <c r="I54" s="116"/>
       <c r="J54" s="117"/>
@@ -34381,22 +34486,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="412" t="s">
+      <c r="D55" s="401" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="412"/>
+      <c r="E55" s="401"/>
       <c r="F55" s="111">
         <v>0</v>
       </c>
-      <c r="I55" s="413" t="s">
+      <c r="I55" s="402" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="414"/>
-      <c r="K55" s="415">
+      <c r="J55" s="403"/>
+      <c r="K55" s="404">
         <f>F57+F58+F59</f>
-        <v>136249</v>
-      </c>
-      <c r="L55" s="416"/>
+        <v>1569274</v>
+      </c>
+      <c r="L55" s="405"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -34420,18 +34525,18 @@
       </c>
       <c r="F57" s="111">
         <f>SUM(F54:F56)</f>
-        <v>136249</v>
+        <v>1569274</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="124" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="417">
+      <c r="K57" s="406">
         <f>-C4</f>
         <v>-419424.76</v>
       </c>
-      <c r="L57" s="418"/>
+      <c r="L57" s="407"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -34446,10 +34551,10 @@
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C59" s="128"/>
-      <c r="D59" s="394" t="s">
+      <c r="D59" s="383" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="395"/>
+      <c r="E59" s="384"/>
       <c r="F59" s="129">
         <v>0</v>
       </c>
@@ -34459,7 +34564,7 @@
       <c r="J59" s="421"/>
       <c r="K59" s="422">
         <f>K55+K57</f>
-        <v>-283175.76</v>
+        <v>1149849.24</v>
       </c>
       <c r="L59" s="422"/>
     </row>
@@ -34586,20 +34691,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
@@ -34607,6 +34698,20 @@
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
     <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -35729,23 +35834,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="381"/>
-      <c r="C1" s="383" t="s">
+      <c r="B1" s="408"/>
+      <c r="C1" s="410" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
-      <c r="H1" s="384"/>
-      <c r="I1" s="384"/>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="382"/>
+      <c r="B2" s="409"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -35755,21 +35860,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="385" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="386"/>
+      <c r="B3" s="412" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="413"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="387" t="s">
+      <c r="H3" s="414" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="387"/>
+      <c r="I3" s="414"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="392" t="s">
+      <c r="R3" s="381" t="s">
         <v>38</v>
       </c>
     </row>
@@ -35784,14 +35889,14 @@
       <c r="D4" s="16">
         <v>44591</v>
       </c>
-      <c r="E4" s="388" t="s">
+      <c r="E4" s="415" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="389"/>
-      <c r="H4" s="390" t="s">
+      <c r="F4" s="416"/>
+      <c r="H4" s="417" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="391"/>
+      <c r="I4" s="418"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -35801,11 +35906,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="399" t="s">
+      <c r="P4" s="388" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="400"/>
-      <c r="R4" s="393"/>
+      <c r="Q4" s="389"/>
+      <c r="R4" s="382"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -37246,7 +37351,7 @@
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="403">
+      <c r="N40" s="392">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -37271,8 +37376,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="402"/>
-      <c r="N41" s="404"/>
+      <c r="M41" s="391"/>
+      <c r="N41" s="393"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -37479,29 +37584,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="405" t="s">
+      <c r="H53" s="394" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="406"/>
+      <c r="I53" s="395"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="407">
+      <c r="K53" s="396">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="408"/>
-      <c r="M53" s="409">
+      <c r="L53" s="397"/>
+      <c r="M53" s="398">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="410"/>
+      <c r="N53" s="399"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="411" t="s">
+      <c r="D54" s="400" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="411"/>
+      <c r="E54" s="400"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -37512,22 +37617,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="412" t="s">
+      <c r="D55" s="401" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="412"/>
+      <c r="E55" s="401"/>
       <c r="F55" s="111">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="413" t="s">
+      <c r="I55" s="402" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="414"/>
-      <c r="K55" s="415">
+      <c r="J55" s="403"/>
+      <c r="K55" s="404">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="416"/>
+      <c r="L55" s="405"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -37558,11 +37663,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="417">
+      <c r="K57" s="406">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="418"/>
+      <c r="L57" s="407"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -37579,22 +37684,22 @@
       <c r="C59" s="128">
         <v>44619</v>
       </c>
-      <c r="D59" s="394" t="s">
+      <c r="D59" s="383" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="395"/>
+      <c r="E59" s="384"/>
       <c r="F59" s="129">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="396" t="s">
+      <c r="I59" s="385" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="397"/>
-      <c r="K59" s="398">
+      <c r="J59" s="386"/>
+      <c r="K59" s="387">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="398"/>
+      <c r="L59" s="387"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -37719,6 +37824,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -37728,18 +37845,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -39044,23 +39149,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="381"/>
-      <c r="C1" s="383" t="s">
+      <c r="B1" s="408"/>
+      <c r="C1" s="410" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
-      <c r="H1" s="384"/>
-      <c r="I1" s="384"/>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="382"/>
+      <c r="B2" s="409"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -39070,21 +39175,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="385" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="386"/>
+      <c r="B3" s="412" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="413"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="387" t="s">
+      <c r="H3" s="414" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="387"/>
+      <c r="I3" s="414"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="392" t="s">
+      <c r="R3" s="381" t="s">
         <v>38</v>
       </c>
     </row>
@@ -39099,14 +39204,14 @@
       <c r="D4" s="16">
         <v>44619</v>
       </c>
-      <c r="E4" s="388" t="s">
+      <c r="E4" s="415" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="389"/>
-      <c r="H4" s="390" t="s">
+      <c r="F4" s="416"/>
+      <c r="H4" s="417" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="391"/>
+      <c r="I4" s="418"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -39116,11 +39221,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="399" t="s">
+      <c r="P4" s="388" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="400"/>
-      <c r="R4" s="393"/>
+      <c r="Q4" s="389"/>
+      <c r="R4" s="382"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -40571,11 +40676,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="401">
+      <c r="M40" s="390">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="403">
+      <c r="N40" s="392">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -40600,8 +40705,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="402"/>
-      <c r="N41" s="404"/>
+      <c r="M41" s="391"/>
+      <c r="N41" s="393"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -40740,29 +40845,29 @@
       <c r="A49" s="33"/>
       <c r="B49" s="113"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="405" t="s">
+      <c r="H49" s="394" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="406"/>
+      <c r="I49" s="395"/>
       <c r="J49" s="114"/>
-      <c r="K49" s="407">
+      <c r="K49" s="396">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="408"/>
-      <c r="M49" s="409">
+      <c r="L49" s="397"/>
+      <c r="M49" s="398">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="410"/>
+      <c r="N49" s="399"/>
       <c r="P49" s="32"/>
       <c r="Q49" s="8"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="411" t="s">
+      <c r="D50" s="400" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="411"/>
+      <c r="E50" s="400"/>
       <c r="F50" s="115">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -40773,22 +40878,22 @@
       <c r="Q50" s="8"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="412" t="s">
+      <c r="D51" s="401" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="412"/>
+      <c r="E51" s="401"/>
       <c r="F51" s="111">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="413" t="s">
+      <c r="I51" s="402" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="414"/>
-      <c r="K51" s="415">
+      <c r="J51" s="403"/>
+      <c r="K51" s="404">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="416"/>
+      <c r="L51" s="405"/>
       <c r="P51" s="32"/>
       <c r="Q51" s="8"/>
     </row>
@@ -40819,11 +40924,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="125"/>
-      <c r="K53" s="417">
+      <c r="K53" s="406">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="418"/>
+      <c r="L53" s="407"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="126" t="s">
@@ -40840,22 +40945,22 @@
       <c r="C55" s="128">
         <v>44647</v>
       </c>
-      <c r="D55" s="394" t="s">
+      <c r="D55" s="383" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="395"/>
+      <c r="E55" s="384"/>
       <c r="F55" s="129">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="396" t="s">
+      <c r="I55" s="385" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="397"/>
-      <c r="K55" s="398">
+      <c r="J55" s="386"/>
+      <c r="K55" s="387">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="398"/>
+      <c r="L55" s="387"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="130"/>
@@ -40983,18 +41088,6 @@
     <sortCondition ref="J34:J38"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -41004,6 +41097,18 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="M49:N49"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -42478,23 +42583,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="381"/>
-      <c r="C1" s="383" t="s">
+      <c r="B1" s="408"/>
+      <c r="C1" s="410" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
-      <c r="H1" s="384"/>
-      <c r="I1" s="384"/>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="382"/>
+      <c r="B2" s="409"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -42504,21 +42609,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="385" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="386"/>
+      <c r="B3" s="412" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="413"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="387" t="s">
+      <c r="H3" s="414" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="387"/>
+      <c r="I3" s="414"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="392" t="s">
+      <c r="R3" s="381" t="s">
         <v>38</v>
       </c>
     </row>
@@ -42533,14 +42638,14 @@
       <c r="D4" s="16">
         <v>44647</v>
       </c>
-      <c r="E4" s="388" t="s">
+      <c r="E4" s="415" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="389"/>
-      <c r="H4" s="390" t="s">
+      <c r="F4" s="416"/>
+      <c r="H4" s="417" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="391"/>
+      <c r="I4" s="418"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -42550,11 +42655,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="399" t="s">
+      <c r="P4" s="388" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="400"/>
-      <c r="R4" s="393"/>
+      <c r="Q4" s="389"/>
+      <c r="R4" s="382"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -44151,11 +44256,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="401">
+      <c r="M40" s="390">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="403">
+      <c r="N40" s="392">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -44186,8 +44291,8 @@
       <c r="L41" s="73">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="402"/>
-      <c r="N41" s="404"/>
+      <c r="M41" s="391"/>
+      <c r="N41" s="393"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -44418,29 +44523,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="405" t="s">
+      <c r="H53" s="394" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="406"/>
+      <c r="I53" s="395"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="407">
+      <c r="K53" s="396">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="408"/>
-      <c r="M53" s="409">
+      <c r="L53" s="397"/>
+      <c r="M53" s="398">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="410"/>
+      <c r="N53" s="399"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="411" t="s">
+      <c r="D54" s="400" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="411"/>
+      <c r="E54" s="400"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -44451,22 +44556,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="412" t="s">
+      <c r="D55" s="401" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="412"/>
+      <c r="E55" s="401"/>
       <c r="F55" s="111">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="413" t="s">
+      <c r="I55" s="402" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="414"/>
-      <c r="K55" s="415">
+      <c r="J55" s="403"/>
+      <c r="K55" s="404">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="416"/>
+      <c r="L55" s="405"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -44497,11 +44602,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="417">
+      <c r="K57" s="406">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="418"/>
+      <c r="L57" s="407"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -44518,22 +44623,22 @@
       <c r="C59" s="128">
         <v>44682</v>
       </c>
-      <c r="D59" s="394" t="s">
+      <c r="D59" s="383" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="395"/>
+      <c r="E59" s="384"/>
       <c r="F59" s="129">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="396" t="s">
+      <c r="I59" s="385" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="397"/>
-      <c r="K59" s="398">
+      <c r="J59" s="386"/>
+      <c r="K59" s="387">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="398"/>
+      <c r="L59" s="387"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -44661,18 +44766,6 @@
     <sortCondition ref="J40:J44"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -44682,6 +44775,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -46185,23 +46290,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="381"/>
-      <c r="C1" s="383" t="s">
+      <c r="B1" s="408"/>
+      <c r="C1" s="410" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
-      <c r="H1" s="384"/>
-      <c r="I1" s="384"/>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="382"/>
+      <c r="B2" s="409"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -46211,21 +46316,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="385" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="386"/>
+      <c r="B3" s="412" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="413"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="387" t="s">
+      <c r="H3" s="414" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="387"/>
+      <c r="I3" s="414"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="392" t="s">
+      <c r="R3" s="381" t="s">
         <v>38</v>
       </c>
     </row>
@@ -46240,14 +46345,14 @@
       <c r="D4" s="16">
         <v>44682</v>
       </c>
-      <c r="E4" s="388" t="s">
+      <c r="E4" s="415" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="389"/>
-      <c r="H4" s="390" t="s">
+      <c r="F4" s="416"/>
+      <c r="H4" s="417" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="391"/>
+      <c r="I4" s="418"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -46257,11 +46362,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="399" t="s">
+      <c r="P4" s="388" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="400"/>
-      <c r="R4" s="393"/>
+      <c r="Q4" s="389"/>
+      <c r="R4" s="382"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -47778,11 +47883,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="401">
+      <c r="M40" s="390">
         <f>SUM(M5:M39)</f>
         <v>2144215</v>
       </c>
-      <c r="N40" s="403">
+      <c r="N40" s="392">
         <f>SUM(N5:N39)</f>
         <v>62525</v>
       </c>
@@ -47807,8 +47912,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="402"/>
-      <c r="N41" s="404"/>
+      <c r="M41" s="391"/>
+      <c r="N41" s="393"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -48019,29 +48124,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="405" t="s">
+      <c r="H53" s="394" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="406"/>
+      <c r="I53" s="395"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="407">
+      <c r="K53" s="396">
         <f>I51+L51</f>
         <v>51231.42</v>
       </c>
-      <c r="L53" s="408"/>
-      <c r="M53" s="409">
+      <c r="L53" s="397"/>
+      <c r="M53" s="398">
         <f>N40+M40</f>
         <v>2206740</v>
       </c>
-      <c r="N53" s="410"/>
+      <c r="N53" s="399"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="411" t="s">
+      <c r="D54" s="400" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="411"/>
+      <c r="E54" s="400"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2189405.58</v>
@@ -48052,22 +48157,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="412" t="s">
+      <c r="D55" s="401" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="412"/>
+      <c r="E55" s="401"/>
       <c r="F55" s="111">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="413" t="s">
+      <c r="I55" s="402" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="414"/>
-      <c r="K55" s="415">
+      <c r="J55" s="403"/>
+      <c r="K55" s="404">
         <f>F57+F58+F59</f>
         <v>112552.74000000017</v>
       </c>
-      <c r="L55" s="416"/>
+      <c r="L55" s="405"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -48098,11 +48203,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="417">
+      <c r="K57" s="406">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="418"/>
+      <c r="L57" s="407"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -48119,22 +48224,22 @@
       <c r="C59" s="128">
         <v>44710</v>
       </c>
-      <c r="D59" s="394" t="s">
+      <c r="D59" s="383" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="395"/>
+      <c r="E59" s="384"/>
       <c r="F59" s="129">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="396" t="s">
+      <c r="I59" s="385" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="397"/>
-      <c r="K59" s="398">
+      <c r="J59" s="386"/>
+      <c r="K59" s="387">
         <f>K55+K57</f>
         <v>-185321.84999999986</v>
       </c>
-      <c r="L59" s="398"/>
+      <c r="L59" s="387"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -48262,6 +48367,18 @@
     <sortCondition ref="J35:J40"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -48271,18 +48388,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #11 NOVIEMBRE 2022/BALANCE   HERRADURA   NOVIEMRRE      2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #11 NOVIEMBRE 2022/BALANCE   HERRADURA   NOVIEMRRE      2022.xlsx
@@ -692,7 +692,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="555">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2367,6 +2367,9 @@
   </si>
   <si>
     <t>NOMINA # 46</t>
+  </si>
+  <si>
+    <t>NOMINA # 47</t>
   </si>
 </sst>
 </file>
@@ -4427,6 +4430,39 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4506,39 +4542,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9559,23 +9562,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="408"/>
-      <c r="C1" s="410" t="s">
+      <c r="B1" s="381"/>
+      <c r="C1" s="383" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="411"/>
-      <c r="E1" s="411"/>
-      <c r="F1" s="411"/>
-      <c r="G1" s="411"/>
-      <c r="H1" s="411"/>
-      <c r="I1" s="411"/>
-      <c r="J1" s="411"/>
-      <c r="K1" s="411"/>
-      <c r="L1" s="411"/>
-      <c r="M1" s="411"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
+      <c r="H1" s="384"/>
+      <c r="I1" s="384"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="409"/>
+      <c r="B2" s="382"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -9585,21 +9588,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="412" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="413"/>
+      <c r="B3" s="385" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="386"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="414" t="s">
+      <c r="H3" s="387" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="414"/>
+      <c r="I3" s="387"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="381" t="s">
+      <c r="R3" s="392" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9614,14 +9617,14 @@
       <c r="D4" s="16">
         <v>44563</v>
       </c>
-      <c r="E4" s="415" t="s">
+      <c r="E4" s="388" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="416"/>
-      <c r="H4" s="417" t="s">
+      <c r="F4" s="389"/>
+      <c r="H4" s="390" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="418"/>
+      <c r="I4" s="391"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -9631,11 +9634,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="388" t="s">
+      <c r="P4" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="389"/>
-      <c r="R4" s="382"/>
+      <c r="Q4" s="400"/>
+      <c r="R4" s="393"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -11090,11 +11093,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="390">
+      <c r="M40" s="401">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="392">
+      <c r="N40" s="403">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -11119,8 +11122,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="391"/>
-      <c r="N41" s="393"/>
+      <c r="M41" s="402"/>
+      <c r="N41" s="404"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -11327,29 +11330,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="394" t="s">
+      <c r="H53" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="395"/>
+      <c r="I53" s="406"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="396">
+      <c r="K53" s="407">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="397"/>
-      <c r="M53" s="398">
+      <c r="L53" s="408"/>
+      <c r="M53" s="409">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="399"/>
+      <c r="N53" s="410"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="400" t="s">
+      <c r="D54" s="411" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="400"/>
+      <c r="E54" s="411"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -11360,22 +11363,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="401" t="s">
+      <c r="D55" s="412" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="401"/>
+      <c r="E55" s="412"/>
       <c r="F55" s="111">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="402" t="s">
+      <c r="I55" s="413" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="403"/>
-      <c r="K55" s="404">
+      <c r="J55" s="414"/>
+      <c r="K55" s="415">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="405"/>
+      <c r="L55" s="416"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -11406,11 +11409,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="406">
+      <c r="K57" s="417">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="407"/>
+      <c r="L57" s="418"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -11427,22 +11430,22 @@
       <c r="C59" s="128">
         <v>44591</v>
       </c>
-      <c r="D59" s="383" t="s">
+      <c r="D59" s="394" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="384"/>
+      <c r="E59" s="395"/>
       <c r="F59" s="129">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="385" t="s">
+      <c r="I59" s="396" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="386"/>
-      <c r="K59" s="387">
+      <c r="J59" s="397"/>
+      <c r="K59" s="398">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="387"/>
+      <c r="L59" s="398"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -11567,12 +11570,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -11588,6 +11585,12 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13040,23 +13043,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="408"/>
-      <c r="C1" s="410" t="s">
+      <c r="B1" s="381"/>
+      <c r="C1" s="383" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="411"/>
-      <c r="E1" s="411"/>
-      <c r="F1" s="411"/>
-      <c r="G1" s="411"/>
-      <c r="H1" s="411"/>
-      <c r="I1" s="411"/>
-      <c r="J1" s="411"/>
-      <c r="K1" s="411"/>
-      <c r="L1" s="411"/>
-      <c r="M1" s="411"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
+      <c r="H1" s="384"/>
+      <c r="I1" s="384"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="409"/>
+      <c r="B2" s="382"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -13066,21 +13069,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="412" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="413"/>
+      <c r="B3" s="385" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="386"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="414" t="s">
+      <c r="H3" s="387" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="414"/>
+      <c r="I3" s="387"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="381" t="s">
+      <c r="R3" s="392" t="s">
         <v>38</v>
       </c>
     </row>
@@ -13095,14 +13098,14 @@
       <c r="D4" s="16">
         <v>44710</v>
       </c>
-      <c r="E4" s="415" t="s">
+      <c r="E4" s="388" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="416"/>
-      <c r="H4" s="417" t="s">
+      <c r="F4" s="389"/>
+      <c r="H4" s="390" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="418"/>
+      <c r="I4" s="391"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -13112,11 +13115,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="388" t="s">
+      <c r="P4" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="389"/>
-      <c r="R4" s="382"/>
+      <c r="Q4" s="400"/>
+      <c r="R4" s="393"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -14646,11 +14649,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="390">
+      <c r="M40" s="401">
         <f>SUM(M5:M39)</f>
         <v>2772689</v>
       </c>
-      <c r="N40" s="392">
+      <c r="N40" s="403">
         <f>SUM(N5:N39)</f>
         <v>107354</v>
       </c>
@@ -14681,8 +14684,8 @@
       <c r="L41" s="73">
         <v>638.99</v>
       </c>
-      <c r="M41" s="391"/>
-      <c r="N41" s="393"/>
+      <c r="M41" s="402"/>
+      <c r="N41" s="404"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -14928,29 +14931,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="394" t="s">
+      <c r="H53" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="395"/>
+      <c r="I53" s="406"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="396">
+      <c r="K53" s="407">
         <f>I51+L51</f>
         <v>60691.69</v>
       </c>
-      <c r="L53" s="397"/>
-      <c r="M53" s="398">
+      <c r="L53" s="408"/>
+      <c r="M53" s="409">
         <f>N40+M40</f>
         <v>2880043</v>
       </c>
-      <c r="N53" s="399"/>
+      <c r="N53" s="410"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="400" t="s">
+      <c r="D54" s="411" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="400"/>
+      <c r="E54" s="411"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2844548.31</v>
@@ -14961,22 +14964,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="401" t="s">
+      <c r="D55" s="412" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="401"/>
+      <c r="E55" s="412"/>
       <c r="F55" s="111">
         <v>-2875380.48</v>
       </c>
-      <c r="I55" s="402" t="s">
+      <c r="I55" s="413" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="403"/>
-      <c r="K55" s="404">
+      <c r="J55" s="414"/>
+      <c r="K55" s="415">
         <f>F57+F58+F59</f>
         <v>247554.74000000008</v>
       </c>
-      <c r="L55" s="405"/>
+      <c r="L55" s="416"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -15007,11 +15010,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="406">
+      <c r="K57" s="417">
         <f>-C4</f>
         <v>-149938.81</v>
       </c>
-      <c r="L57" s="407"/>
+      <c r="L57" s="418"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -15028,22 +15031,22 @@
       <c r="C59" s="128">
         <v>44745</v>
       </c>
-      <c r="D59" s="383" t="s">
+      <c r="D59" s="394" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="384"/>
+      <c r="E59" s="395"/>
       <c r="F59" s="129">
         <v>232165.91</v>
       </c>
-      <c r="I59" s="385" t="s">
+      <c r="I59" s="396" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="386"/>
-      <c r="K59" s="387">
+      <c r="J59" s="397"/>
+      <c r="K59" s="398">
         <f>K55+K57</f>
         <v>97615.93000000008</v>
       </c>
-      <c r="L59" s="387"/>
+      <c r="L59" s="398"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -15171,6 +15174,18 @@
     <sortCondition ref="B7:B9"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -15180,18 +15195,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.17" top="0.4" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16673,23 +16676,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="408"/>
-      <c r="C1" s="410" t="s">
+      <c r="B1" s="381"/>
+      <c r="C1" s="383" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="411"/>
-      <c r="E1" s="411"/>
-      <c r="F1" s="411"/>
-      <c r="G1" s="411"/>
-      <c r="H1" s="411"/>
-      <c r="I1" s="411"/>
-      <c r="J1" s="411"/>
-      <c r="K1" s="411"/>
-      <c r="L1" s="411"/>
-      <c r="M1" s="411"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
+      <c r="H1" s="384"/>
+      <c r="I1" s="384"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="409"/>
+      <c r="B2" s="382"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -16699,21 +16702,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="412" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="413"/>
+      <c r="B3" s="385" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="386"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="414" t="s">
+      <c r="H3" s="387" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="414"/>
+      <c r="I3" s="387"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="381" t="s">
+      <c r="R3" s="392" t="s">
         <v>38</v>
       </c>
     </row>
@@ -16728,14 +16731,14 @@
       <c r="D4" s="16">
         <v>44745</v>
       </c>
-      <c r="E4" s="415" t="s">
+      <c r="E4" s="388" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="416"/>
-      <c r="H4" s="417" t="s">
+      <c r="F4" s="389"/>
+      <c r="H4" s="390" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="418"/>
+      <c r="I4" s="391"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -16745,11 +16748,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="388" t="s">
+      <c r="P4" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="389"/>
-      <c r="R4" s="382"/>
+      <c r="Q4" s="400"/>
+      <c r="R4" s="393"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -18194,11 +18197,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="390">
+      <c r="M40" s="401">
         <f>SUM(M5:M39)</f>
         <v>2373103</v>
       </c>
-      <c r="N40" s="392">
+      <c r="N40" s="403">
         <f>SUM(N5:N39)</f>
         <v>67308</v>
       </c>
@@ -18227,8 +18230,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="391"/>
-      <c r="N41" s="393"/>
+      <c r="M41" s="402"/>
+      <c r="N41" s="404"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -18443,29 +18446,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="394" t="s">
+      <c r="H53" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="395"/>
+      <c r="I53" s="406"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="396">
+      <c r="K53" s="407">
         <f>I51+L51</f>
         <v>79649.720000000016</v>
       </c>
-      <c r="L53" s="397"/>
-      <c r="M53" s="398">
+      <c r="L53" s="408"/>
+      <c r="M53" s="409">
         <f>N40+M40</f>
         <v>2440411</v>
       </c>
-      <c r="N53" s="399"/>
+      <c r="N53" s="410"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="400" t="s">
+      <c r="D54" s="411" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="400"/>
+      <c r="E54" s="411"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2356249.2799999998</v>
@@ -18476,22 +18479,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="401" t="s">
+      <c r="D55" s="412" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="401"/>
+      <c r="E55" s="412"/>
       <c r="F55" s="111">
         <v>-2471332.31</v>
       </c>
-      <c r="I55" s="402" t="s">
+      <c r="I55" s="413" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="403"/>
-      <c r="K55" s="404">
+      <c r="J55" s="414"/>
+      <c r="K55" s="415">
         <f>F57+F58+F59</f>
         <v>214026.38999999972</v>
       </c>
-      <c r="L55" s="405"/>
+      <c r="L55" s="416"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -18522,11 +18525,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="406">
+      <c r="K57" s="417">
         <f>-C4</f>
         <v>-232165.91</v>
       </c>
-      <c r="L57" s="407"/>
+      <c r="L57" s="418"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -18543,22 +18546,22 @@
       <c r="C59" s="128">
         <v>44773</v>
       </c>
-      <c r="D59" s="383" t="s">
+      <c r="D59" s="394" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="384"/>
+      <c r="E59" s="395"/>
       <c r="F59" s="129">
         <v>273736.42</v>
       </c>
-      <c r="I59" s="385" t="s">
+      <c r="I59" s="396" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="386"/>
-      <c r="K59" s="387">
+      <c r="J59" s="397"/>
+      <c r="K59" s="398">
         <f>K55+K57</f>
         <v>-18139.520000000281</v>
       </c>
-      <c r="L59" s="387"/>
+      <c r="L59" s="398"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -18683,6 +18686,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -18692,18 +18707,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.27559055118110237" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="60" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -20095,23 +20098,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="408"/>
-      <c r="C1" s="410" t="s">
+      <c r="B1" s="381"/>
+      <c r="C1" s="383" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="411"/>
-      <c r="E1" s="411"/>
-      <c r="F1" s="411"/>
-      <c r="G1" s="411"/>
-      <c r="H1" s="411"/>
-      <c r="I1" s="411"/>
-      <c r="J1" s="411"/>
-      <c r="K1" s="411"/>
-      <c r="L1" s="411"/>
-      <c r="M1" s="411"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
+      <c r="H1" s="384"/>
+      <c r="I1" s="384"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="409"/>
+      <c r="B2" s="382"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -20121,21 +20124,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="412" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="413"/>
+      <c r="B3" s="385" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="386"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="414" t="s">
+      <c r="H3" s="387" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="414"/>
+      <c r="I3" s="387"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="381" t="s">
+      <c r="R3" s="392" t="s">
         <v>38</v>
       </c>
     </row>
@@ -20150,14 +20153,14 @@
       <c r="D4" s="16">
         <v>44773</v>
       </c>
-      <c r="E4" s="415" t="s">
+      <c r="E4" s="388" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="416"/>
-      <c r="H4" s="417" t="s">
+      <c r="F4" s="389"/>
+      <c r="H4" s="390" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="418"/>
+      <c r="I4" s="391"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -20167,11 +20170,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="388" t="s">
+      <c r="P4" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="389"/>
-      <c r="R4" s="382"/>
+      <c r="Q4" s="400"/>
+      <c r="R4" s="393"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -21651,11 +21654,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="390">
+      <c r="M40" s="401">
         <f>SUM(M5:M39)</f>
         <v>2375259</v>
       </c>
-      <c r="N40" s="392">
+      <c r="N40" s="403">
         <f>SUM(N5:N39)</f>
         <v>61117</v>
       </c>
@@ -21684,8 +21687,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="391"/>
-      <c r="N41" s="393"/>
+      <c r="M41" s="402"/>
+      <c r="N41" s="404"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -21900,29 +21903,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="394" t="s">
+      <c r="H53" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="395"/>
+      <c r="I53" s="406"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="396">
+      <c r="K53" s="407">
         <f>I51+L51</f>
         <v>52857.25</v>
       </c>
-      <c r="L53" s="397"/>
-      <c r="M53" s="398">
+      <c r="L53" s="408"/>
+      <c r="M53" s="409">
         <f>N40+M40</f>
         <v>2436376</v>
       </c>
-      <c r="N53" s="399"/>
+      <c r="N53" s="410"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="400" t="s">
+      <c r="D54" s="411" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="400"/>
+      <c r="E54" s="411"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2370653.75</v>
@@ -21933,22 +21936,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="401" t="s">
+      <c r="D55" s="412" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="401"/>
+      <c r="E55" s="412"/>
       <c r="F55" s="111">
         <v>-2401197.5699999998</v>
       </c>
-      <c r="I55" s="402" t="s">
+      <c r="I55" s="413" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="403"/>
-      <c r="K55" s="404">
+      <c r="J55" s="414"/>
+      <c r="K55" s="415">
         <f>F57+F58+F59</f>
         <v>259241.77000000016</v>
       </c>
-      <c r="L55" s="405"/>
+      <c r="L55" s="416"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -21979,11 +21982,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="406">
+      <c r="K57" s="417">
         <f>-C4</f>
         <v>-273736.42</v>
       </c>
-      <c r="L57" s="407"/>
+      <c r="L57" s="418"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -22000,10 +22003,10 @@
       <c r="C59" s="128">
         <v>44801</v>
       </c>
-      <c r="D59" s="383" t="s">
+      <c r="D59" s="394" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="384"/>
+      <c r="E59" s="395"/>
       <c r="F59" s="129">
         <v>236400.59</v>
       </c>
@@ -22140,6 +22143,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -22149,18 +22164,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -23567,23 +23570,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="408"/>
-      <c r="C1" s="410" t="s">
+      <c r="B1" s="381"/>
+      <c r="C1" s="383" t="s">
         <v>465</v>
       </c>
-      <c r="D1" s="411"/>
-      <c r="E1" s="411"/>
-      <c r="F1" s="411"/>
-      <c r="G1" s="411"/>
-      <c r="H1" s="411"/>
-      <c r="I1" s="411"/>
-      <c r="J1" s="411"/>
-      <c r="K1" s="411"/>
-      <c r="L1" s="411"/>
-      <c r="M1" s="411"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
+      <c r="H1" s="384"/>
+      <c r="I1" s="384"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="409"/>
+      <c r="B2" s="382"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -23593,21 +23596,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="412" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="413"/>
+      <c r="B3" s="385" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="386"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="414" t="s">
+      <c r="H3" s="387" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="414"/>
+      <c r="I3" s="387"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="381" t="s">
+      <c r="R3" s="392" t="s">
         <v>38</v>
       </c>
     </row>
@@ -23622,14 +23625,14 @@
       <c r="D4" s="16">
         <v>44801</v>
       </c>
-      <c r="E4" s="415" t="s">
+      <c r="E4" s="388" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="416"/>
-      <c r="H4" s="417" t="s">
+      <c r="F4" s="389"/>
+      <c r="H4" s="390" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="418"/>
+      <c r="I4" s="391"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -23639,11 +23642,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="388" t="s">
+      <c r="P4" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="389"/>
-      <c r="R4" s="382"/>
+      <c r="Q4" s="400"/>
+      <c r="R4" s="393"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -25371,11 +25374,11 @@
       <c r="L40" s="73">
         <v>927.48</v>
       </c>
-      <c r="M40" s="390">
+      <c r="M40" s="401">
         <f>SUM(M5:M39)</f>
         <v>3147309.5</v>
       </c>
-      <c r="N40" s="392">
+      <c r="N40" s="403">
         <f>SUM(N5:N39)</f>
         <v>76569</v>
       </c>
@@ -25410,8 +25413,8 @@
       <c r="L41" s="73">
         <v>33312</v>
       </c>
-      <c r="M41" s="391"/>
-      <c r="N41" s="393"/>
+      <c r="M41" s="402"/>
+      <c r="N41" s="404"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -25654,29 +25657,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="394" t="s">
+      <c r="H53" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="395"/>
+      <c r="I53" s="406"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="396">
+      <c r="K53" s="407">
         <f>I51+L51</f>
         <v>102873.87000000001</v>
       </c>
-      <c r="L53" s="397"/>
-      <c r="M53" s="398">
+      <c r="L53" s="408"/>
+      <c r="M53" s="409">
         <f>N40+M40</f>
         <v>3223878.5</v>
       </c>
-      <c r="N53" s="399"/>
+      <c r="N53" s="410"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="400" t="s">
+      <c r="D54" s="411" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="400"/>
+      <c r="E54" s="411"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>3130076.13</v>
@@ -25687,22 +25690,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="401" t="s">
+      <c r="D55" s="412" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="401"/>
+      <c r="E55" s="412"/>
       <c r="F55" s="111">
         <v>-3171951.31</v>
       </c>
-      <c r="I55" s="402" t="s">
+      <c r="I55" s="413" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="403"/>
-      <c r="K55" s="404">
+      <c r="J55" s="414"/>
+      <c r="K55" s="415">
         <f>F57+F58+F59</f>
         <v>265314.0299999998</v>
       </c>
-      <c r="L55" s="405"/>
+      <c r="L55" s="416"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -25733,11 +25736,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="406">
+      <c r="K57" s="417">
         <f>-C4</f>
         <v>-236400.59</v>
       </c>
-      <c r="L57" s="407"/>
+      <c r="L57" s="418"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -25754,10 +25757,10 @@
       <c r="C59" s="128">
         <v>44836</v>
       </c>
-      <c r="D59" s="383" t="s">
+      <c r="D59" s="394" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="384"/>
+      <c r="E59" s="395"/>
       <c r="F59" s="129">
         <v>242354.21</v>
       </c>
@@ -25897,18 +25900,6 @@
     <sortCondition ref="J41:J45"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -25918,6 +25909,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -27262,23 +27265,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="408"/>
-      <c r="C1" s="410" t="s">
+      <c r="B1" s="381"/>
+      <c r="C1" s="383" t="s">
         <v>512</v>
       </c>
-      <c r="D1" s="411"/>
-      <c r="E1" s="411"/>
-      <c r="F1" s="411"/>
-      <c r="G1" s="411"/>
-      <c r="H1" s="411"/>
-      <c r="I1" s="411"/>
-      <c r="J1" s="411"/>
-      <c r="K1" s="411"/>
-      <c r="L1" s="411"/>
-      <c r="M1" s="411"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
+      <c r="H1" s="384"/>
+      <c r="I1" s="384"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="409"/>
+      <c r="B2" s="382"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -27288,21 +27291,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="412" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="413"/>
+      <c r="B3" s="385" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="386"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="414" t="s">
+      <c r="H3" s="387" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="414"/>
+      <c r="I3" s="387"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="381" t="s">
+      <c r="R3" s="392" t="s">
         <v>38</v>
       </c>
     </row>
@@ -27317,14 +27320,14 @@
       <c r="D4" s="16">
         <v>44836</v>
       </c>
-      <c r="E4" s="415" t="s">
+      <c r="E4" s="388" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="416"/>
-      <c r="H4" s="417" t="s">
+      <c r="F4" s="389"/>
+      <c r="H4" s="390" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="418"/>
+      <c r="I4" s="391"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -27334,11 +27337,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="388" t="s">
+      <c r="P4" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="389"/>
-      <c r="R4" s="382"/>
+      <c r="Q4" s="400"/>
+      <c r="R4" s="393"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -29011,11 +29014,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="360"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="390">
+      <c r="M40" s="401">
         <f>SUM(M5:M39)</f>
         <v>2563550</v>
       </c>
-      <c r="N40" s="392">
+      <c r="N40" s="403">
         <f>SUM(N5:N39)</f>
         <v>77235</v>
       </c>
@@ -29045,8 +29048,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="363"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="391"/>
-      <c r="N41" s="393"/>
+      <c r="M41" s="402"/>
+      <c r="N41" s="404"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -29261,29 +29264,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="394" t="s">
+      <c r="H53" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="395"/>
+      <c r="I53" s="406"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="396">
+      <c r="K53" s="407">
         <f>I51+L51</f>
         <v>151758.24</v>
       </c>
-      <c r="L53" s="397"/>
-      <c r="M53" s="398">
+      <c r="L53" s="408"/>
+      <c r="M53" s="409">
         <f>N40+M40</f>
         <v>2640785</v>
       </c>
-      <c r="N53" s="399"/>
+      <c r="N53" s="410"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="400" t="s">
+      <c r="D54" s="411" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="400"/>
+      <c r="E54" s="411"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2467848.5599999996</v>
@@ -29294,22 +29297,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="401" t="s">
+      <c r="D55" s="412" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="401"/>
+      <c r="E55" s="412"/>
       <c r="F55" s="111">
         <v>-2793202.57</v>
       </c>
-      <c r="I55" s="402" t="s">
+      <c r="I55" s="413" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="403"/>
-      <c r="K55" s="404">
+      <c r="J55" s="414"/>
+      <c r="K55" s="415">
         <f>F57+F58+F59</f>
         <v>149596.74999999977</v>
       </c>
-      <c r="L55" s="405"/>
+      <c r="L55" s="416"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -29340,11 +29343,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="406">
+      <c r="K57" s="417">
         <f>-C4</f>
         <v>-242354.21</v>
       </c>
-      <c r="L57" s="407"/>
+      <c r="L57" s="418"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -29361,10 +29364,10 @@
       <c r="C59" s="128">
         <v>44864</v>
       </c>
-      <c r="D59" s="383" t="s">
+      <c r="D59" s="394" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="384"/>
+      <c r="E59" s="395"/>
       <c r="F59" s="129">
         <v>419424.76</v>
       </c>
@@ -29501,6 +29504,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -29510,18 +29525,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -32550,8 +32553,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="E18" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32576,23 +32579,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="408"/>
-      <c r="C1" s="410" t="s">
+      <c r="B1" s="381"/>
+      <c r="C1" s="383" t="s">
         <v>550</v>
       </c>
-      <c r="D1" s="411"/>
-      <c r="E1" s="411"/>
-      <c r="F1" s="411"/>
-      <c r="G1" s="411"/>
-      <c r="H1" s="411"/>
-      <c r="I1" s="411"/>
-      <c r="J1" s="411"/>
-      <c r="K1" s="411"/>
-      <c r="L1" s="411"/>
-      <c r="M1" s="411"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
+      <c r="H1" s="384"/>
+      <c r="I1" s="384"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="409"/>
+      <c r="B2" s="382"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -32602,21 +32605,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="412" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="413"/>
+      <c r="B3" s="385" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="386"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="414" t="s">
+      <c r="H3" s="387" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="414"/>
+      <c r="I3" s="387"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="381" t="s">
+      <c r="R3" s="392" t="s">
         <v>38</v>
       </c>
     </row>
@@ -32631,14 +32634,14 @@
       <c r="D4" s="16">
         <v>44864</v>
       </c>
-      <c r="E4" s="415" t="s">
+      <c r="E4" s="388" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="416"/>
-      <c r="H4" s="417" t="s">
+      <c r="F4" s="389"/>
+      <c r="H4" s="390" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="418"/>
+      <c r="I4" s="391"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -32648,11 +32651,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="388" t="s">
+      <c r="P4" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="389"/>
-      <c r="R4" s="382"/>
+      <c r="Q4" s="400"/>
+      <c r="R4" s="393"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -32791,7 +32794,7 @@
         <v>37429</v>
       </c>
       <c r="Q7" s="12">
-        <f t="shared" ref="Q6:Q39" si="0">P7-F7</f>
+        <f t="shared" ref="Q7:Q39" si="0">P7-F7</f>
         <v>0</v>
       </c>
       <c r="R7" s="12">
@@ -33405,31 +33408,38 @@
         <v>44880</v>
       </c>
       <c r="C20" s="24">
-        <v>0</v>
-      </c>
-      <c r="D20" s="326"/>
+        <v>2850</v>
+      </c>
+      <c r="D20" s="326" t="s">
+        <v>44</v>
+      </c>
       <c r="E20" s="322">
         <v>44880</v>
       </c>
-      <c r="F20" s="27"/>
+      <c r="F20" s="27">
+        <v>97873</v>
+      </c>
       <c r="G20" s="323"/>
       <c r="H20" s="324">
         <v>44880</v>
       </c>
-      <c r="I20" s="29"/>
+      <c r="I20" s="29">
+        <v>133</v>
+      </c>
       <c r="J20" s="36"/>
       <c r="K20" s="339"/>
       <c r="L20" s="46"/>
       <c r="M20" s="30">
-        <v>0</v>
+        <f>15000+76338</f>
+        <v>91338</v>
       </c>
       <c r="N20" s="31">
-        <v>0</v>
+        <v>3552</v>
       </c>
       <c r="O20" s="314"/>
       <c r="P20" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>97873</v>
       </c>
       <c r="Q20" s="12">
         <f t="shared" si="0"/>
@@ -33454,25 +33464,29 @@
       <c r="E21" s="322">
         <v>44881</v>
       </c>
-      <c r="F21" s="27"/>
+      <c r="F21" s="27">
+        <v>50485</v>
+      </c>
       <c r="G21" s="323"/>
       <c r="H21" s="324">
         <v>44881</v>
       </c>
-      <c r="I21" s="29"/>
+      <c r="I21" s="29">
+        <v>174</v>
+      </c>
       <c r="J21" s="36"/>
       <c r="K21" s="340"/>
       <c r="L21" s="46"/>
       <c r="M21" s="30">
-        <v>0</v>
+        <v>49389</v>
       </c>
       <c r="N21" s="31">
-        <v>0</v>
+        <v>922</v>
       </c>
       <c r="O21" s="314"/>
       <c r="P21" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50485</v>
       </c>
       <c r="Q21" s="12">
         <f t="shared" si="0"/>
@@ -33497,17 +33511,22 @@
       <c r="E22" s="322">
         <v>44882</v>
       </c>
-      <c r="F22" s="27"/>
+      <c r="F22" s="27">
+        <v>77102</v>
+      </c>
       <c r="G22" s="323"/>
       <c r="H22" s="324">
         <v>44882</v>
       </c>
-      <c r="I22" s="29"/>
+      <c r="I22" s="29">
+        <v>92</v>
+      </c>
       <c r="J22" s="36"/>
       <c r="K22" s="330"/>
       <c r="L22" s="56"/>
       <c r="M22" s="30">
-        <v>0</v>
+        <f>57010+20000</f>
+        <v>77010</v>
       </c>
       <c r="N22" s="31">
         <v>0</v>
@@ -33515,7 +33534,7 @@
       <c r="O22" s="314"/>
       <c r="P22" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>77102</v>
       </c>
       <c r="Q22" s="12">
         <f t="shared" si="0"/>
@@ -33534,31 +33553,38 @@
         <v>44883</v>
       </c>
       <c r="C23" s="24">
-        <v>0</v>
-      </c>
-      <c r="D23" s="326"/>
+        <v>27810</v>
+      </c>
+      <c r="D23" s="326" t="s">
+        <v>49</v>
+      </c>
       <c r="E23" s="322">
         <v>44883</v>
       </c>
-      <c r="F23" s="27"/>
+      <c r="F23" s="27">
+        <v>169685</v>
+      </c>
       <c r="G23" s="323"/>
       <c r="H23" s="324">
         <v>44883</v>
       </c>
-      <c r="I23" s="29"/>
+      <c r="I23" s="29">
+        <v>155</v>
+      </c>
       <c r="J23" s="57"/>
       <c r="K23" s="341"/>
       <c r="L23" s="46"/>
       <c r="M23" s="30">
-        <v>0</v>
+        <f>85000+56001</f>
+        <v>141001</v>
       </c>
       <c r="N23" s="31">
-        <v>0</v>
+        <v>719</v>
       </c>
       <c r="O23" s="314"/>
       <c r="P23" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>169685</v>
       </c>
       <c r="Q23" s="12">
         <f t="shared" si="0"/>
@@ -33583,25 +33609,36 @@
       <c r="E24" s="322">
         <v>44884</v>
       </c>
-      <c r="F24" s="27"/>
+      <c r="F24" s="27">
+        <v>116524</v>
+      </c>
       <c r="G24" s="323"/>
       <c r="H24" s="324">
         <v>44884</v>
       </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="342"/>
-      <c r="K24" s="343"/>
-      <c r="L24" s="61"/>
+      <c r="I24" s="29">
+        <v>106</v>
+      </c>
+      <c r="J24" s="342">
+        <v>44884</v>
+      </c>
+      <c r="K24" s="343" t="s">
+        <v>554</v>
+      </c>
+      <c r="L24" s="61">
+        <v>10357</v>
+      </c>
       <c r="M24" s="30">
-        <v>0</v>
+        <f>45000+43200</f>
+        <v>88200</v>
       </c>
       <c r="N24" s="31">
-        <v>0</v>
+        <v>17861</v>
       </c>
       <c r="O24" s="314"/>
       <c r="P24" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>116524</v>
       </c>
       <c r="Q24" s="12">
         <f t="shared" si="0"/>
@@ -33626,25 +33663,30 @@
       <c r="E25" s="322">
         <v>44885</v>
       </c>
-      <c r="F25" s="27"/>
+      <c r="F25" s="27">
+        <v>140547</v>
+      </c>
       <c r="G25" s="323"/>
       <c r="H25" s="324">
         <v>44885</v>
       </c>
-      <c r="I25" s="29"/>
+      <c r="I25" s="29">
+        <v>244</v>
+      </c>
       <c r="J25" s="62"/>
       <c r="K25" s="344"/>
       <c r="L25" s="64"/>
       <c r="M25" s="30">
-        <v>0</v>
+        <f>12103+55000+70000</f>
+        <v>137103</v>
       </c>
       <c r="N25" s="31">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="O25" s="314"/>
       <c r="P25" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>140547</v>
       </c>
       <c r="Q25" s="12">
         <f t="shared" si="0"/>
@@ -33663,31 +33705,38 @@
         <v>44886</v>
       </c>
       <c r="C26" s="24">
-        <v>0</v>
-      </c>
-      <c r="D26" s="326"/>
+        <v>4120</v>
+      </c>
+      <c r="D26" s="326" t="s">
+        <v>47</v>
+      </c>
       <c r="E26" s="322">
         <v>44886</v>
       </c>
-      <c r="F26" s="27"/>
+      <c r="F26" s="27">
+        <v>202372</v>
+      </c>
       <c r="G26" s="323"/>
       <c r="H26" s="324">
         <v>44886</v>
       </c>
-      <c r="I26" s="29"/>
+      <c r="I26" s="29">
+        <v>142</v>
+      </c>
       <c r="J26" s="36"/>
       <c r="K26" s="343"/>
       <c r="L26" s="46"/>
       <c r="M26" s="30">
-        <v>0</v>
+        <f>56718+40000+100000</f>
+        <v>196718</v>
       </c>
       <c r="N26" s="31">
-        <v>0</v>
+        <v>1392</v>
       </c>
       <c r="O26" s="314"/>
       <c r="P26" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>202372</v>
       </c>
       <c r="Q26" s="12">
         <f t="shared" si="0"/>
@@ -33712,25 +33761,30 @@
       <c r="E27" s="322">
         <v>44887</v>
       </c>
-      <c r="F27" s="27"/>
+      <c r="F27" s="27">
+        <v>92506</v>
+      </c>
       <c r="G27" s="323"/>
       <c r="H27" s="324">
         <v>44887</v>
       </c>
-      <c r="I27" s="29"/>
+      <c r="I27" s="29">
+        <v>39</v>
+      </c>
       <c r="J27" s="65"/>
       <c r="K27" s="345"/>
       <c r="L27" s="64"/>
       <c r="M27" s="30">
-        <v>0</v>
+        <f>16218+65000+10000</f>
+        <v>91218</v>
       </c>
       <c r="N27" s="31">
-        <v>0</v>
+        <v>1249</v>
       </c>
       <c r="O27" s="314"/>
       <c r="P27" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>92506</v>
       </c>
       <c r="Q27" s="12">
         <f t="shared" si="0"/>
@@ -33755,25 +33809,30 @@
       <c r="E28" s="322">
         <v>44888</v>
       </c>
-      <c r="F28" s="27"/>
+      <c r="F28" s="27">
+        <v>75362</v>
+      </c>
       <c r="G28" s="323"/>
       <c r="H28" s="324">
         <v>44888</v>
       </c>
-      <c r="I28" s="29"/>
+      <c r="I28" s="29">
+        <v>121</v>
+      </c>
       <c r="J28" s="67"/>
       <c r="K28" s="346"/>
       <c r="L28" s="64"/>
       <c r="M28" s="30">
-        <v>0</v>
+        <f>20000+54522</f>
+        <v>74522</v>
       </c>
       <c r="N28" s="31">
-        <v>0</v>
+        <v>719</v>
       </c>
       <c r="O28" s="314"/>
       <c r="P28" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>75362</v>
       </c>
       <c r="Q28" s="12">
         <f t="shared" si="0"/>
@@ -33798,25 +33857,30 @@
       <c r="E29" s="322">
         <v>44889</v>
       </c>
-      <c r="F29" s="27"/>
+      <c r="F29" s="27">
+        <v>98167</v>
+      </c>
       <c r="G29" s="323"/>
       <c r="H29" s="324">
         <v>44889</v>
       </c>
-      <c r="I29" s="29"/>
+      <c r="I29" s="29">
+        <v>53</v>
+      </c>
       <c r="J29" s="65"/>
       <c r="K29" s="348"/>
       <c r="L29" s="64"/>
       <c r="M29" s="30">
-        <v>0</v>
+        <f>25000+70085</f>
+        <v>95085</v>
       </c>
       <c r="N29" s="31">
-        <v>0</v>
+        <v>3029</v>
       </c>
       <c r="O29" s="314"/>
       <c r="P29" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>98167</v>
       </c>
       <c r="Q29" s="12">
         <f t="shared" si="0"/>
@@ -34203,17 +34267,17 @@
       <c r="J40" s="71"/>
       <c r="K40" s="360"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="390">
+      <c r="M40" s="401">
         <f>SUM(M5:M39)</f>
-        <v>1568827</v>
-      </c>
-      <c r="N40" s="392">
+        <v>2610411</v>
+      </c>
+      <c r="N40" s="403">
         <f>SUM(N5:N39)</f>
-        <v>55973</v>
+        <v>88616</v>
       </c>
       <c r="P40" s="32">
         <f t="shared" si="1"/>
-        <v>1624800</v>
+        <v>2699027</v>
       </c>
       <c r="Q40" s="284">
         <f>SUM(Q5:Q39)</f>
@@ -34237,8 +34301,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="363"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="391"/>
-      <c r="N41" s="393"/>
+      <c r="M41" s="402"/>
+      <c r="N41" s="404"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -34411,7 +34475,7 @@
       </c>
       <c r="C51" s="102">
         <f>SUM(C5:C50)</f>
-        <v>55958</v>
+        <v>90738</v>
       </c>
       <c r="D51" s="103"/>
       <c r="E51" s="104" t="s">
@@ -34419,7 +34483,7 @@
       </c>
       <c r="F51" s="105">
         <f>SUM(F5:F50)</f>
-        <v>1646771</v>
+        <v>2767394</v>
       </c>
       <c r="G51" s="103"/>
       <c r="H51" s="106" t="s">
@@ -34427,7 +34491,7 @@
       </c>
       <c r="I51" s="107">
         <f>SUM(I5:I50)</f>
-        <v>2386</v>
+        <v>3645</v>
       </c>
       <c r="J51" s="108"/>
       <c r="K51" s="109" t="s">
@@ -34435,7 +34499,7 @@
       </c>
       <c r="L51" s="110">
         <f>SUM(L5:L50)</f>
-        <v>19153</v>
+        <v>29510</v>
       </c>
       <c r="M51" s="111"/>
       <c r="N51" s="111"/>
@@ -34453,32 +34517,32 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="394" t="s">
+      <c r="H53" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="395"/>
+      <c r="I53" s="406"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="396">
+      <c r="K53" s="407">
         <f>I51+L51</f>
-        <v>21539</v>
-      </c>
-      <c r="L53" s="397"/>
-      <c r="M53" s="398">
+        <v>33155</v>
+      </c>
+      <c r="L53" s="408"/>
+      <c r="M53" s="409">
         <f>N40+M40</f>
-        <v>1624800</v>
-      </c>
-      <c r="N53" s="399"/>
+        <v>2699027</v>
+      </c>
+      <c r="N53" s="410"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="400" t="s">
+      <c r="D54" s="411" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="400"/>
+      <c r="E54" s="411"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
-        <v>1569274</v>
+        <v>2643501</v>
       </c>
       <c r="I54" s="116"/>
       <c r="J54" s="117"/>
@@ -34486,22 +34550,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="401" t="s">
+      <c r="D55" s="412" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="401"/>
+      <c r="E55" s="412"/>
       <c r="F55" s="111">
         <v>0</v>
       </c>
-      <c r="I55" s="402" t="s">
+      <c r="I55" s="413" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="403"/>
-      <c r="K55" s="404">
+      <c r="J55" s="414"/>
+      <c r="K55" s="415">
         <f>F57+F58+F59</f>
-        <v>1569274</v>
-      </c>
-      <c r="L55" s="405"/>
+        <v>2643501</v>
+      </c>
+      <c r="L55" s="416"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -34525,18 +34589,18 @@
       </c>
       <c r="F57" s="111">
         <f>SUM(F54:F56)</f>
-        <v>1569274</v>
+        <v>2643501</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="124" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="406">
+      <c r="K57" s="417">
         <f>-C4</f>
         <v>-419424.76</v>
       </c>
-      <c r="L57" s="407"/>
+      <c r="L57" s="418"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -34551,10 +34615,10 @@
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C59" s="128"/>
-      <c r="D59" s="383" t="s">
+      <c r="D59" s="394" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="384"/>
+      <c r="E59" s="395"/>
       <c r="F59" s="129">
         <v>0</v>
       </c>
@@ -34564,7 +34628,7 @@
       <c r="J59" s="421"/>
       <c r="K59" s="422">
         <f>K55+K57</f>
-        <v>1149849.24</v>
+        <v>2224076.2400000002</v>
       </c>
       <c r="L59" s="422"/>
     </row>
@@ -34691,18 +34755,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -34712,6 +34764,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -35834,23 +35898,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="408"/>
-      <c r="C1" s="410" t="s">
+      <c r="B1" s="381"/>
+      <c r="C1" s="383" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="411"/>
-      <c r="E1" s="411"/>
-      <c r="F1" s="411"/>
-      <c r="G1" s="411"/>
-      <c r="H1" s="411"/>
-      <c r="I1" s="411"/>
-      <c r="J1" s="411"/>
-      <c r="K1" s="411"/>
-      <c r="L1" s="411"/>
-      <c r="M1" s="411"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
+      <c r="H1" s="384"/>
+      <c r="I1" s="384"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="409"/>
+      <c r="B2" s="382"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -35860,21 +35924,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="412" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="413"/>
+      <c r="B3" s="385" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="386"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="414" t="s">
+      <c r="H3" s="387" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="414"/>
+      <c r="I3" s="387"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="381" t="s">
+      <c r="R3" s="392" t="s">
         <v>38</v>
       </c>
     </row>
@@ -35889,14 +35953,14 @@
       <c r="D4" s="16">
         <v>44591</v>
       </c>
-      <c r="E4" s="415" t="s">
+      <c r="E4" s="388" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="416"/>
-      <c r="H4" s="417" t="s">
+      <c r="F4" s="389"/>
+      <c r="H4" s="390" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="418"/>
+      <c r="I4" s="391"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -35906,11 +35970,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="388" t="s">
+      <c r="P4" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="389"/>
-      <c r="R4" s="382"/>
+      <c r="Q4" s="400"/>
+      <c r="R4" s="393"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -37351,7 +37415,7 @@
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="392">
+      <c r="N40" s="403">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -37376,8 +37440,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="391"/>
-      <c r="N41" s="393"/>
+      <c r="M41" s="402"/>
+      <c r="N41" s="404"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -37584,29 +37648,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="394" t="s">
+      <c r="H53" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="395"/>
+      <c r="I53" s="406"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="396">
+      <c r="K53" s="407">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="397"/>
-      <c r="M53" s="398">
+      <c r="L53" s="408"/>
+      <c r="M53" s="409">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="399"/>
+      <c r="N53" s="410"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="400" t="s">
+      <c r="D54" s="411" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="400"/>
+      <c r="E54" s="411"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -37617,22 +37681,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="401" t="s">
+      <c r="D55" s="412" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="401"/>
+      <c r="E55" s="412"/>
       <c r="F55" s="111">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="402" t="s">
+      <c r="I55" s="413" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="403"/>
-      <c r="K55" s="404">
+      <c r="J55" s="414"/>
+      <c r="K55" s="415">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="405"/>
+      <c r="L55" s="416"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -37663,11 +37727,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="406">
+      <c r="K57" s="417">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="407"/>
+      <c r="L57" s="418"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -37684,22 +37748,22 @@
       <c r="C59" s="128">
         <v>44619</v>
       </c>
-      <c r="D59" s="383" t="s">
+      <c r="D59" s="394" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="384"/>
+      <c r="E59" s="395"/>
       <c r="F59" s="129">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="385" t="s">
+      <c r="I59" s="396" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="386"/>
-      <c r="K59" s="387">
+      <c r="J59" s="397"/>
+      <c r="K59" s="398">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="387"/>
+      <c r="L59" s="398"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -37824,18 +37888,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -37845,6 +37897,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -39149,23 +39213,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="408"/>
-      <c r="C1" s="410" t="s">
+      <c r="B1" s="381"/>
+      <c r="C1" s="383" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="411"/>
-      <c r="E1" s="411"/>
-      <c r="F1" s="411"/>
-      <c r="G1" s="411"/>
-      <c r="H1" s="411"/>
-      <c r="I1" s="411"/>
-      <c r="J1" s="411"/>
-      <c r="K1" s="411"/>
-      <c r="L1" s="411"/>
-      <c r="M1" s="411"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
+      <c r="H1" s="384"/>
+      <c r="I1" s="384"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="409"/>
+      <c r="B2" s="382"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -39175,21 +39239,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="412" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="413"/>
+      <c r="B3" s="385" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="386"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="414" t="s">
+      <c r="H3" s="387" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="414"/>
+      <c r="I3" s="387"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="381" t="s">
+      <c r="R3" s="392" t="s">
         <v>38</v>
       </c>
     </row>
@@ -39204,14 +39268,14 @@
       <c r="D4" s="16">
         <v>44619</v>
       </c>
-      <c r="E4" s="415" t="s">
+      <c r="E4" s="388" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="416"/>
-      <c r="H4" s="417" t="s">
+      <c r="F4" s="389"/>
+      <c r="H4" s="390" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="418"/>
+      <c r="I4" s="391"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -39221,11 +39285,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="388" t="s">
+      <c r="P4" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="389"/>
-      <c r="R4" s="382"/>
+      <c r="Q4" s="400"/>
+      <c r="R4" s="393"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -40676,11 +40740,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="390">
+      <c r="M40" s="401">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="392">
+      <c r="N40" s="403">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -40705,8 +40769,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="391"/>
-      <c r="N41" s="393"/>
+      <c r="M41" s="402"/>
+      <c r="N41" s="404"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -40845,29 +40909,29 @@
       <c r="A49" s="33"/>
       <c r="B49" s="113"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="394" t="s">
+      <c r="H49" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="395"/>
+      <c r="I49" s="406"/>
       <c r="J49" s="114"/>
-      <c r="K49" s="396">
+      <c r="K49" s="407">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="397"/>
-      <c r="M49" s="398">
+      <c r="L49" s="408"/>
+      <c r="M49" s="409">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="399"/>
+      <c r="N49" s="410"/>
       <c r="P49" s="32"/>
       <c r="Q49" s="8"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="400" t="s">
+      <c r="D50" s="411" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="400"/>
+      <c r="E50" s="411"/>
       <c r="F50" s="115">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -40878,22 +40942,22 @@
       <c r="Q50" s="8"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="401" t="s">
+      <c r="D51" s="412" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="401"/>
+      <c r="E51" s="412"/>
       <c r="F51" s="111">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="402" t="s">
+      <c r="I51" s="413" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="403"/>
-      <c r="K51" s="404">
+      <c r="J51" s="414"/>
+      <c r="K51" s="415">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="405"/>
+      <c r="L51" s="416"/>
       <c r="P51" s="32"/>
       <c r="Q51" s="8"/>
     </row>
@@ -40924,11 +40988,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="125"/>
-      <c r="K53" s="406">
+      <c r="K53" s="417">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="407"/>
+      <c r="L53" s="418"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="126" t="s">
@@ -40945,22 +41009,22 @@
       <c r="C55" s="128">
         <v>44647</v>
       </c>
-      <c r="D55" s="383" t="s">
+      <c r="D55" s="394" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="384"/>
+      <c r="E55" s="395"/>
       <c r="F55" s="129">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="385" t="s">
+      <c r="I55" s="396" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="386"/>
-      <c r="K55" s="387">
+      <c r="J55" s="397"/>
+      <c r="K55" s="398">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="387"/>
+      <c r="L55" s="398"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="130"/>
@@ -41088,6 +41152,18 @@
     <sortCondition ref="J34:J38"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -41097,18 +41173,6 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="M49:N49"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -42583,23 +42647,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="408"/>
-      <c r="C1" s="410" t="s">
+      <c r="B1" s="381"/>
+      <c r="C1" s="383" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="411"/>
-      <c r="E1" s="411"/>
-      <c r="F1" s="411"/>
-      <c r="G1" s="411"/>
-      <c r="H1" s="411"/>
-      <c r="I1" s="411"/>
-      <c r="J1" s="411"/>
-      <c r="K1" s="411"/>
-      <c r="L1" s="411"/>
-      <c r="M1" s="411"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
+      <c r="H1" s="384"/>
+      <c r="I1" s="384"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="409"/>
+      <c r="B2" s="382"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -42609,21 +42673,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="412" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="413"/>
+      <c r="B3" s="385" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="386"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="414" t="s">
+      <c r="H3" s="387" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="414"/>
+      <c r="I3" s="387"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="381" t="s">
+      <c r="R3" s="392" t="s">
         <v>38</v>
       </c>
     </row>
@@ -42638,14 +42702,14 @@
       <c r="D4" s="16">
         <v>44647</v>
       </c>
-      <c r="E4" s="415" t="s">
+      <c r="E4" s="388" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="416"/>
-      <c r="H4" s="417" t="s">
+      <c r="F4" s="389"/>
+      <c r="H4" s="390" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="418"/>
+      <c r="I4" s="391"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -42655,11 +42719,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="388" t="s">
+      <c r="P4" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="389"/>
-      <c r="R4" s="382"/>
+      <c r="Q4" s="400"/>
+      <c r="R4" s="393"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -44256,11 +44320,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="390">
+      <c r="M40" s="401">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="392">
+      <c r="N40" s="403">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -44291,8 +44355,8 @@
       <c r="L41" s="73">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="391"/>
-      <c r="N41" s="393"/>
+      <c r="M41" s="402"/>
+      <c r="N41" s="404"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -44523,29 +44587,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="394" t="s">
+      <c r="H53" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="395"/>
+      <c r="I53" s="406"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="396">
+      <c r="K53" s="407">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="397"/>
-      <c r="M53" s="398">
+      <c r="L53" s="408"/>
+      <c r="M53" s="409">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="399"/>
+      <c r="N53" s="410"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="400" t="s">
+      <c r="D54" s="411" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="400"/>
+      <c r="E54" s="411"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -44556,22 +44620,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="401" t="s">
+      <c r="D55" s="412" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="401"/>
+      <c r="E55" s="412"/>
       <c r="F55" s="111">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="402" t="s">
+      <c r="I55" s="413" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="403"/>
-      <c r="K55" s="404">
+      <c r="J55" s="414"/>
+      <c r="K55" s="415">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="405"/>
+      <c r="L55" s="416"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -44602,11 +44666,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="406">
+      <c r="K57" s="417">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="407"/>
+      <c r="L57" s="418"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -44623,22 +44687,22 @@
       <c r="C59" s="128">
         <v>44682</v>
       </c>
-      <c r="D59" s="383" t="s">
+      <c r="D59" s="394" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="384"/>
+      <c r="E59" s="395"/>
       <c r="F59" s="129">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="385" t="s">
+      <c r="I59" s="396" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="386"/>
-      <c r="K59" s="387">
+      <c r="J59" s="397"/>
+      <c r="K59" s="398">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="387"/>
+      <c r="L59" s="398"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -44766,6 +44830,18 @@
     <sortCondition ref="J40:J44"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -44775,18 +44851,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -46290,23 +46354,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="408"/>
-      <c r="C1" s="410" t="s">
+      <c r="B1" s="381"/>
+      <c r="C1" s="383" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="411"/>
-      <c r="E1" s="411"/>
-      <c r="F1" s="411"/>
-      <c r="G1" s="411"/>
-      <c r="H1" s="411"/>
-      <c r="I1" s="411"/>
-      <c r="J1" s="411"/>
-      <c r="K1" s="411"/>
-      <c r="L1" s="411"/>
-      <c r="M1" s="411"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
+      <c r="H1" s="384"/>
+      <c r="I1" s="384"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="409"/>
+      <c r="B2" s="382"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -46316,21 +46380,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="412" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="413"/>
+      <c r="B3" s="385" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="386"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="414" t="s">
+      <c r="H3" s="387" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="414"/>
+      <c r="I3" s="387"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="381" t="s">
+      <c r="R3" s="392" t="s">
         <v>38</v>
       </c>
     </row>
@@ -46345,14 +46409,14 @@
       <c r="D4" s="16">
         <v>44682</v>
       </c>
-      <c r="E4" s="415" t="s">
+      <c r="E4" s="388" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="416"/>
-      <c r="H4" s="417" t="s">
+      <c r="F4" s="389"/>
+      <c r="H4" s="390" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="418"/>
+      <c r="I4" s="391"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -46362,11 +46426,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="388" t="s">
+      <c r="P4" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="389"/>
-      <c r="R4" s="382"/>
+      <c r="Q4" s="400"/>
+      <c r="R4" s="393"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -47883,11 +47947,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="390">
+      <c r="M40" s="401">
         <f>SUM(M5:M39)</f>
         <v>2144215</v>
       </c>
-      <c r="N40" s="392">
+      <c r="N40" s="403">
         <f>SUM(N5:N39)</f>
         <v>62525</v>
       </c>
@@ -47912,8 +47976,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="391"/>
-      <c r="N41" s="393"/>
+      <c r="M41" s="402"/>
+      <c r="N41" s="404"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -48124,29 +48188,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="394" t="s">
+      <c r="H53" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="395"/>
+      <c r="I53" s="406"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="396">
+      <c r="K53" s="407">
         <f>I51+L51</f>
         <v>51231.42</v>
       </c>
-      <c r="L53" s="397"/>
-      <c r="M53" s="398">
+      <c r="L53" s="408"/>
+      <c r="M53" s="409">
         <f>N40+M40</f>
         <v>2206740</v>
       </c>
-      <c r="N53" s="399"/>
+      <c r="N53" s="410"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="400" t="s">
+      <c r="D54" s="411" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="400"/>
+      <c r="E54" s="411"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2189405.58</v>
@@ -48157,22 +48221,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="401" t="s">
+      <c r="D55" s="412" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="401"/>
+      <c r="E55" s="412"/>
       <c r="F55" s="111">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="402" t="s">
+      <c r="I55" s="413" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="403"/>
-      <c r="K55" s="404">
+      <c r="J55" s="414"/>
+      <c r="K55" s="415">
         <f>F57+F58+F59</f>
         <v>112552.74000000017</v>
       </c>
-      <c r="L55" s="405"/>
+      <c r="L55" s="416"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -48203,11 +48267,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="406">
+      <c r="K57" s="417">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="407"/>
+      <c r="L57" s="418"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -48224,22 +48288,22 @@
       <c r="C59" s="128">
         <v>44710</v>
       </c>
-      <c r="D59" s="383" t="s">
+      <c r="D59" s="394" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="384"/>
+      <c r="E59" s="395"/>
       <c r="F59" s="129">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="385" t="s">
+      <c r="I59" s="396" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="386"/>
-      <c r="K59" s="387">
+      <c r="J59" s="397"/>
+      <c r="K59" s="398">
         <f>K55+K57</f>
         <v>-185321.84999999986</v>
       </c>
-      <c r="L59" s="387"/>
+      <c r="L59" s="398"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -48367,18 +48431,6 @@
     <sortCondition ref="J35:J40"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -48388,6 +48440,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #11 NOVIEMBRE 2022/BALANCE   HERRADURA   NOVIEMRRE      2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #11 NOVIEMBRE 2022/BALANCE   HERRADURA   NOVIEMRRE      2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="195" yWindow="915" windowWidth="16905" windowHeight="10110" firstSheet="18" activeTab="20"/>
+    <workbookView xWindow="195" yWindow="915" windowWidth="16905" windowHeight="10110" firstSheet="19" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -692,7 +692,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="587">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2371,6 +2371,102 @@
   <si>
     <t>NOMINA # 47</t>
   </si>
+  <si>
+    <t>NOMINA # 48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>15-Sept-22--23-Sept-22</t>
+  </si>
+  <si>
+    <t>15754 D</t>
+  </si>
+  <si>
+    <t>15704 D</t>
+  </si>
+  <si>
+    <t>15833 D</t>
+  </si>
+  <si>
+    <t>15890 D</t>
+  </si>
+  <si>
+    <t>15894 D</t>
+  </si>
+  <si>
+    <t>16051 D</t>
+  </si>
+  <si>
+    <t>16175 D</t>
+  </si>
+  <si>
+    <t>16325 D</t>
+  </si>
+  <si>
+    <t>16641 D</t>
+  </si>
+  <si>
+    <t>16663 D</t>
+  </si>
+  <si>
+    <t>16776 D</t>
+  </si>
+  <si>
+    <t>16781 D</t>
+  </si>
+  <si>
+    <t>16894 D</t>
+  </si>
+  <si>
+    <t>16902 D</t>
+  </si>
+  <si>
+    <t>17061 D</t>
+  </si>
+  <si>
+    <t>17063 D</t>
+  </si>
+  <si>
+    <t>17195 D</t>
+  </si>
+  <si>
+    <t>17413 D</t>
+  </si>
+  <si>
+    <t>17513 D</t>
+  </si>
+  <si>
+    <t>17579 D</t>
+  </si>
+  <si>
+    <t>17666 D</t>
+  </si>
+  <si>
+    <t>17875 D</t>
+  </si>
+  <si>
+    <t>18053 D</t>
+  </si>
+  <si>
+    <t>18091 D</t>
+  </si>
+  <si>
+    <t>18115 D</t>
+  </si>
+  <si>
+    <t>18117 D</t>
+  </si>
+  <si>
+    <t>18206 D</t>
+  </si>
+  <si>
+    <t>19-Nov-22--26-Nov-22</t>
+  </si>
+  <si>
+    <t>18324 d</t>
+  </si>
 </sst>
 </file>
 
@@ -2384,7 +2480,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="57" x14ac:knownFonts="1">
+  <fonts count="58" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2837,8 +2933,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2908,6 +3012,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3722,7 +3832,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="423">
+  <cellXfs count="438">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -4430,39 +4540,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4544,6 +4621,39 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4556,6 +4666,29 @@
     <xf numFmtId="166" fontId="12" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="13" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="57" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="57" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="57" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="56" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -4566,8 +4699,8 @@
   <colors>
     <mruColors>
       <color rgb="FF0000FF"/>
+      <color rgb="FFFF66CC"/>
       <color rgb="FF00FF99"/>
-      <color rgb="FFFF66CC"/>
       <color rgb="FF99FF99"/>
       <color rgb="FF800000"/>
       <color rgb="FFFF99FF"/>
@@ -9562,23 +9695,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="381"/>
-      <c r="C1" s="383" t="s">
+      <c r="B1" s="408"/>
+      <c r="C1" s="410" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
-      <c r="H1" s="384"/>
-      <c r="I1" s="384"/>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="382"/>
+      <c r="B2" s="409"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -9588,21 +9721,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="385" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="386"/>
+      <c r="B3" s="412" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="413"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="387" t="s">
+      <c r="H3" s="414" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="387"/>
+      <c r="I3" s="414"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="392" t="s">
+      <c r="R3" s="381" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9617,14 +9750,14 @@
       <c r="D4" s="16">
         <v>44563</v>
       </c>
-      <c r="E4" s="388" t="s">
+      <c r="E4" s="415" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="389"/>
-      <c r="H4" s="390" t="s">
+      <c r="F4" s="416"/>
+      <c r="H4" s="417" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="391"/>
+      <c r="I4" s="418"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -9634,11 +9767,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="399" t="s">
+      <c r="P4" s="388" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="400"/>
-      <c r="R4" s="393"/>
+      <c r="Q4" s="389"/>
+      <c r="R4" s="382"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -11093,11 +11226,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="401">
+      <c r="M40" s="390">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="403">
+      <c r="N40" s="392">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -11122,8 +11255,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="402"/>
-      <c r="N41" s="404"/>
+      <c r="M41" s="391"/>
+      <c r="N41" s="393"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -11330,29 +11463,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="405" t="s">
+      <c r="H53" s="394" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="406"/>
+      <c r="I53" s="395"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="407">
+      <c r="K53" s="396">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="408"/>
-      <c r="M53" s="409">
+      <c r="L53" s="397"/>
+      <c r="M53" s="398">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="410"/>
+      <c r="N53" s="399"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="411" t="s">
+      <c r="D54" s="400" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="411"/>
+      <c r="E54" s="400"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -11363,22 +11496,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="412" t="s">
+      <c r="D55" s="401" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="412"/>
+      <c r="E55" s="401"/>
       <c r="F55" s="111">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="413" t="s">
+      <c r="I55" s="402" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="414"/>
-      <c r="K55" s="415">
+      <c r="J55" s="403"/>
+      <c r="K55" s="404">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="416"/>
+      <c r="L55" s="405"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -11409,11 +11542,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="417">
+      <c r="K57" s="406">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="418"/>
+      <c r="L57" s="407"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -11430,22 +11563,22 @@
       <c r="C59" s="128">
         <v>44591</v>
       </c>
-      <c r="D59" s="394" t="s">
+      <c r="D59" s="383" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="395"/>
+      <c r="E59" s="384"/>
       <c r="F59" s="129">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="396" t="s">
+      <c r="I59" s="385" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="397"/>
-      <c r="K59" s="398">
+      <c r="J59" s="386"/>
+      <c r="K59" s="387">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="398"/>
+      <c r="L59" s="387"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -11570,6 +11703,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -11585,12 +11724,6 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13043,23 +13176,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="381"/>
-      <c r="C1" s="383" t="s">
+      <c r="B1" s="408"/>
+      <c r="C1" s="410" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
-      <c r="H1" s="384"/>
-      <c r="I1" s="384"/>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="382"/>
+      <c r="B2" s="409"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -13069,21 +13202,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="385" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="386"/>
+      <c r="B3" s="412" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="413"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="387" t="s">
+      <c r="H3" s="414" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="387"/>
+      <c r="I3" s="414"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="392" t="s">
+      <c r="R3" s="381" t="s">
         <v>38</v>
       </c>
     </row>
@@ -13098,14 +13231,14 @@
       <c r="D4" s="16">
         <v>44710</v>
       </c>
-      <c r="E4" s="388" t="s">
+      <c r="E4" s="415" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="389"/>
-      <c r="H4" s="390" t="s">
+      <c r="F4" s="416"/>
+      <c r="H4" s="417" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="391"/>
+      <c r="I4" s="418"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -13115,11 +13248,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="399" t="s">
+      <c r="P4" s="388" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="400"/>
-      <c r="R4" s="393"/>
+      <c r="Q4" s="389"/>
+      <c r="R4" s="382"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -14649,11 +14782,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="401">
+      <c r="M40" s="390">
         <f>SUM(M5:M39)</f>
         <v>2772689</v>
       </c>
-      <c r="N40" s="403">
+      <c r="N40" s="392">
         <f>SUM(N5:N39)</f>
         <v>107354</v>
       </c>
@@ -14684,8 +14817,8 @@
       <c r="L41" s="73">
         <v>638.99</v>
       </c>
-      <c r="M41" s="402"/>
-      <c r="N41" s="404"/>
+      <c r="M41" s="391"/>
+      <c r="N41" s="393"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -14931,29 +15064,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="405" t="s">
+      <c r="H53" s="394" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="406"/>
+      <c r="I53" s="395"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="407">
+      <c r="K53" s="396">
         <f>I51+L51</f>
         <v>60691.69</v>
       </c>
-      <c r="L53" s="408"/>
-      <c r="M53" s="409">
+      <c r="L53" s="397"/>
+      <c r="M53" s="398">
         <f>N40+M40</f>
         <v>2880043</v>
       </c>
-      <c r="N53" s="410"/>
+      <c r="N53" s="399"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="411" t="s">
+      <c r="D54" s="400" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="411"/>
+      <c r="E54" s="400"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2844548.31</v>
@@ -14964,22 +15097,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="412" t="s">
+      <c r="D55" s="401" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="412"/>
+      <c r="E55" s="401"/>
       <c r="F55" s="111">
         <v>-2875380.48</v>
       </c>
-      <c r="I55" s="413" t="s">
+      <c r="I55" s="402" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="414"/>
-      <c r="K55" s="415">
+      <c r="J55" s="403"/>
+      <c r="K55" s="404">
         <f>F57+F58+F59</f>
         <v>247554.74000000008</v>
       </c>
-      <c r="L55" s="416"/>
+      <c r="L55" s="405"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -15010,11 +15143,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="417">
+      <c r="K57" s="406">
         <f>-C4</f>
         <v>-149938.81</v>
       </c>
-      <c r="L57" s="418"/>
+      <c r="L57" s="407"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -15031,22 +15164,22 @@
       <c r="C59" s="128">
         <v>44745</v>
       </c>
-      <c r="D59" s="394" t="s">
+      <c r="D59" s="383" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="395"/>
+      <c r="E59" s="384"/>
       <c r="F59" s="129">
         <v>232165.91</v>
       </c>
-      <c r="I59" s="396" t="s">
+      <c r="I59" s="385" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="397"/>
-      <c r="K59" s="398">
+      <c r="J59" s="386"/>
+      <c r="K59" s="387">
         <f>K55+K57</f>
         <v>97615.93000000008</v>
       </c>
-      <c r="L59" s="398"/>
+      <c r="L59" s="387"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -15174,18 +15307,6 @@
     <sortCondition ref="B7:B9"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -15195,6 +15316,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.17" top="0.4" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16676,23 +16809,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="381"/>
-      <c r="C1" s="383" t="s">
+      <c r="B1" s="408"/>
+      <c r="C1" s="410" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
-      <c r="H1" s="384"/>
-      <c r="I1" s="384"/>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="382"/>
+      <c r="B2" s="409"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -16702,21 +16835,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="385" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="386"/>
+      <c r="B3" s="412" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="413"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="387" t="s">
+      <c r="H3" s="414" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="387"/>
+      <c r="I3" s="414"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="392" t="s">
+      <c r="R3" s="381" t="s">
         <v>38</v>
       </c>
     </row>
@@ -16731,14 +16864,14 @@
       <c r="D4" s="16">
         <v>44745</v>
       </c>
-      <c r="E4" s="388" t="s">
+      <c r="E4" s="415" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="389"/>
-      <c r="H4" s="390" t="s">
+      <c r="F4" s="416"/>
+      <c r="H4" s="417" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="391"/>
+      <c r="I4" s="418"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -16748,11 +16881,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="399" t="s">
+      <c r="P4" s="388" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="400"/>
-      <c r="R4" s="393"/>
+      <c r="Q4" s="389"/>
+      <c r="R4" s="382"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -18197,11 +18330,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="401">
+      <c r="M40" s="390">
         <f>SUM(M5:M39)</f>
         <v>2373103</v>
       </c>
-      <c r="N40" s="403">
+      <c r="N40" s="392">
         <f>SUM(N5:N39)</f>
         <v>67308</v>
       </c>
@@ -18230,8 +18363,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="402"/>
-      <c r="N41" s="404"/>
+      <c r="M41" s="391"/>
+      <c r="N41" s="393"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -18446,29 +18579,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="405" t="s">
+      <c r="H53" s="394" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="406"/>
+      <c r="I53" s="395"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="407">
+      <c r="K53" s="396">
         <f>I51+L51</f>
         <v>79649.720000000016</v>
       </c>
-      <c r="L53" s="408"/>
-      <c r="M53" s="409">
+      <c r="L53" s="397"/>
+      <c r="M53" s="398">
         <f>N40+M40</f>
         <v>2440411</v>
       </c>
-      <c r="N53" s="410"/>
+      <c r="N53" s="399"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="411" t="s">
+      <c r="D54" s="400" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="411"/>
+      <c r="E54" s="400"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2356249.2799999998</v>
@@ -18479,22 +18612,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="412" t="s">
+      <c r="D55" s="401" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="412"/>
+      <c r="E55" s="401"/>
       <c r="F55" s="111">
         <v>-2471332.31</v>
       </c>
-      <c r="I55" s="413" t="s">
+      <c r="I55" s="402" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="414"/>
-      <c r="K55" s="415">
+      <c r="J55" s="403"/>
+      <c r="K55" s="404">
         <f>F57+F58+F59</f>
         <v>214026.38999999972</v>
       </c>
-      <c r="L55" s="416"/>
+      <c r="L55" s="405"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -18525,11 +18658,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="417">
+      <c r="K57" s="406">
         <f>-C4</f>
         <v>-232165.91</v>
       </c>
-      <c r="L57" s="418"/>
+      <c r="L57" s="407"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -18546,22 +18679,22 @@
       <c r="C59" s="128">
         <v>44773</v>
       </c>
-      <c r="D59" s="394" t="s">
+      <c r="D59" s="383" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="395"/>
+      <c r="E59" s="384"/>
       <c r="F59" s="129">
         <v>273736.42</v>
       </c>
-      <c r="I59" s="396" t="s">
+      <c r="I59" s="385" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="397"/>
-      <c r="K59" s="398">
+      <c r="J59" s="386"/>
+      <c r="K59" s="387">
         <f>K55+K57</f>
         <v>-18139.520000000281</v>
       </c>
-      <c r="L59" s="398"/>
+      <c r="L59" s="387"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -18686,18 +18819,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -18707,6 +18828,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.27559055118110237" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="60" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18722,7 +18855,7 @@
   </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -20098,23 +20231,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="381"/>
-      <c r="C1" s="383" t="s">
+      <c r="B1" s="408"/>
+      <c r="C1" s="410" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
-      <c r="H1" s="384"/>
-      <c r="I1" s="384"/>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="382"/>
+      <c r="B2" s="409"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -20124,21 +20257,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="385" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="386"/>
+      <c r="B3" s="412" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="413"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="387" t="s">
+      <c r="H3" s="414" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="387"/>
+      <c r="I3" s="414"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="392" t="s">
+      <c r="R3" s="381" t="s">
         <v>38</v>
       </c>
     </row>
@@ -20153,14 +20286,14 @@
       <c r="D4" s="16">
         <v>44773</v>
       </c>
-      <c r="E4" s="388" t="s">
+      <c r="E4" s="415" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="389"/>
-      <c r="H4" s="390" t="s">
+      <c r="F4" s="416"/>
+      <c r="H4" s="417" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="391"/>
+      <c r="I4" s="418"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -20170,11 +20303,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="399" t="s">
+      <c r="P4" s="388" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="400"/>
-      <c r="R4" s="393"/>
+      <c r="Q4" s="389"/>
+      <c r="R4" s="382"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -21654,11 +21787,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="401">
+      <c r="M40" s="390">
         <f>SUM(M5:M39)</f>
         <v>2375259</v>
       </c>
-      <c r="N40" s="403">
+      <c r="N40" s="392">
         <f>SUM(N5:N39)</f>
         <v>61117</v>
       </c>
@@ -21687,8 +21820,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="402"/>
-      <c r="N41" s="404"/>
+      <c r="M41" s="391"/>
+      <c r="N41" s="393"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -21903,29 +22036,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="405" t="s">
+      <c r="H53" s="394" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="406"/>
+      <c r="I53" s="395"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="407">
+      <c r="K53" s="396">
         <f>I51+L51</f>
         <v>52857.25</v>
       </c>
-      <c r="L53" s="408"/>
-      <c r="M53" s="409">
+      <c r="L53" s="397"/>
+      <c r="M53" s="398">
         <f>N40+M40</f>
         <v>2436376</v>
       </c>
-      <c r="N53" s="410"/>
+      <c r="N53" s="399"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="411" t="s">
+      <c r="D54" s="400" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="411"/>
+      <c r="E54" s="400"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2370653.75</v>
@@ -21936,22 +22069,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="412" t="s">
+      <c r="D55" s="401" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="412"/>
+      <c r="E55" s="401"/>
       <c r="F55" s="111">
         <v>-2401197.5699999998</v>
       </c>
-      <c r="I55" s="413" t="s">
+      <c r="I55" s="402" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="414"/>
-      <c r="K55" s="415">
+      <c r="J55" s="403"/>
+      <c r="K55" s="404">
         <f>F57+F58+F59</f>
         <v>259241.77000000016</v>
       </c>
-      <c r="L55" s="416"/>
+      <c r="L55" s="405"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -21982,11 +22115,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="417">
+      <c r="K57" s="406">
         <f>-C4</f>
         <v>-273736.42</v>
       </c>
-      <c r="L57" s="418"/>
+      <c r="L57" s="407"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -22003,10 +22136,10 @@
       <c r="C59" s="128">
         <v>44801</v>
       </c>
-      <c r="D59" s="394" t="s">
+      <c r="D59" s="383" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="395"/>
+      <c r="E59" s="384"/>
       <c r="F59" s="129">
         <v>236400.59</v>
       </c>
@@ -22143,18 +22276,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -22164,6 +22285,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22179,8 +22312,8 @@
   </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22738,11 +22871,15 @@
       <c r="C26" s="127">
         <v>135851.88</v>
       </c>
-      <c r="D26" s="259"/>
-      <c r="E26" s="127"/>
+      <c r="D26" s="423">
+        <v>44799</v>
+      </c>
+      <c r="E26" s="424">
+        <v>135851.88</v>
+      </c>
       <c r="F26" s="188">
         <f t="shared" si="0"/>
-        <v>135851.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22755,11 +22892,15 @@
       <c r="C27" s="127">
         <v>68026.320000000007</v>
       </c>
-      <c r="D27" s="259"/>
-      <c r="E27" s="127"/>
+      <c r="D27" s="423">
+        <v>44799</v>
+      </c>
+      <c r="E27" s="424">
+        <v>68026.320000000007</v>
+      </c>
       <c r="F27" s="188">
         <f t="shared" si="0"/>
-        <v>203878.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22772,11 +22913,15 @@
       <c r="C28" s="127">
         <v>1920</v>
       </c>
-      <c r="D28" s="259"/>
-      <c r="E28" s="127"/>
+      <c r="D28" s="423">
+        <v>44799</v>
+      </c>
+      <c r="E28" s="424">
+        <v>1920</v>
+      </c>
       <c r="F28" s="188">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22789,11 +22934,15 @@
       <c r="C29" s="127">
         <v>11649</v>
       </c>
-      <c r="D29" s="259"/>
-      <c r="E29" s="127"/>
+      <c r="D29" s="423">
+        <v>44799</v>
+      </c>
+      <c r="E29" s="424">
+        <v>11649</v>
+      </c>
       <c r="F29" s="188">
         <f t="shared" si="0"/>
-        <v>217447.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22806,11 +22955,15 @@
       <c r="C30" s="127">
         <v>13548.8</v>
       </c>
-      <c r="D30" s="257"/>
-      <c r="E30" s="127"/>
+      <c r="D30" s="423">
+        <v>44799</v>
+      </c>
+      <c r="E30" s="424">
+        <v>13548.8</v>
+      </c>
       <c r="F30" s="188">
         <f t="shared" si="0"/>
-        <v>230996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22823,11 +22976,15 @@
       <c r="C31" s="127">
         <v>131246.78</v>
       </c>
-      <c r="D31" s="259"/>
-      <c r="E31" s="127"/>
+      <c r="D31" s="423">
+        <v>44799</v>
+      </c>
+      <c r="E31" s="424">
+        <v>131246.78</v>
+      </c>
       <c r="F31" s="188">
         <f t="shared" si="0"/>
-        <v>362242.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22840,11 +22997,15 @@
       <c r="C32" s="127">
         <v>137590.51999999999</v>
       </c>
-      <c r="D32" s="259"/>
-      <c r="E32" s="127"/>
+      <c r="D32" s="423">
+        <v>44799</v>
+      </c>
+      <c r="E32" s="424">
+        <v>137590.51999999999</v>
+      </c>
       <c r="F32" s="188">
         <f t="shared" si="0"/>
-        <v>499833.30000000005</v>
+        <v>0</v>
       </c>
       <c r="G32" s="156"/>
     </row>
@@ -22858,11 +23019,15 @@
       <c r="C33" s="127">
         <v>42523.44</v>
       </c>
-      <c r="D33" s="259"/>
-      <c r="E33" s="127"/>
+      <c r="D33" s="300">
+        <v>44806</v>
+      </c>
+      <c r="E33" s="301">
+        <v>42523.44</v>
+      </c>
       <c r="F33" s="188">
         <f t="shared" si="0"/>
-        <v>542356.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22875,11 +23040,15 @@
       <c r="C34" s="127">
         <v>175893.52</v>
       </c>
-      <c r="D34" s="259"/>
-      <c r="E34" s="127"/>
+      <c r="D34" s="300">
+        <v>44806</v>
+      </c>
+      <c r="E34" s="301">
+        <v>175893.52</v>
+      </c>
       <c r="F34" s="188">
         <f t="shared" si="0"/>
-        <v>718250.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22892,11 +23061,15 @@
       <c r="C35" s="127">
         <v>507.4</v>
       </c>
-      <c r="D35" s="259"/>
-      <c r="E35" s="127"/>
+      <c r="D35" s="300">
+        <v>44806</v>
+      </c>
+      <c r="E35" s="301">
+        <v>507.4</v>
+      </c>
       <c r="F35" s="188">
         <f t="shared" si="0"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22907,7 +23080,7 @@
       <c r="E36" s="127"/>
       <c r="F36" s="188">
         <f t="shared" si="0"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22918,7 +23091,7 @@
       <c r="E37" s="127"/>
       <c r="F37" s="188">
         <f t="shared" si="0"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22929,7 +23102,7 @@
       <c r="E38" s="127"/>
       <c r="F38" s="188">
         <f t="shared" si="0"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22940,7 +23113,7 @@
       <c r="E39" s="127"/>
       <c r="F39" s="188">
         <f t="shared" si="0"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22951,7 +23124,7 @@
       <c r="E40" s="84"/>
       <c r="F40" s="188">
         <f t="shared" si="0"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22962,7 +23135,7 @@
       <c r="E41" s="84"/>
       <c r="F41" s="188">
         <f t="shared" si="0"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22973,7 +23146,7 @@
       <c r="E42" s="84"/>
       <c r="F42" s="188">
         <f t="shared" si="0"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -22984,7 +23157,7 @@
       <c r="E43" s="84"/>
       <c r="F43" s="188">
         <f t="shared" si="0"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -22995,7 +23168,7 @@
       <c r="E44" s="84"/>
       <c r="F44" s="188">
         <f t="shared" si="0"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23006,7 +23179,7 @@
       <c r="E45" s="84"/>
       <c r="F45" s="188">
         <f t="shared" si="0"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23017,7 +23190,7 @@
       <c r="E46" s="84"/>
       <c r="F46" s="188">
         <f t="shared" si="0"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23028,7 +23201,7 @@
       <c r="E47" s="84"/>
       <c r="F47" s="188">
         <f t="shared" si="0"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23039,7 +23212,7 @@
       <c r="E48" s="84"/>
       <c r="F48" s="188">
         <f t="shared" si="0"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23050,7 +23223,7 @@
       <c r="E49" s="84"/>
       <c r="F49" s="188">
         <f t="shared" si="0"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23061,7 +23234,7 @@
       <c r="E50" s="84"/>
       <c r="F50" s="188">
         <f t="shared" si="0"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23072,7 +23245,7 @@
       <c r="E51" s="84"/>
       <c r="F51" s="188">
         <f t="shared" si="0"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23083,7 +23256,7 @@
       <c r="E52" s="84"/>
       <c r="F52" s="188">
         <f t="shared" si="0"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23094,7 +23267,7 @@
       <c r="E53" s="84"/>
       <c r="F53" s="188">
         <f t="shared" si="0"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23105,7 +23278,7 @@
       <c r="E54" s="84"/>
       <c r="F54" s="188">
         <f t="shared" si="0"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23116,7 +23289,7 @@
       <c r="E55" s="84"/>
       <c r="F55" s="188">
         <f t="shared" si="0"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23127,7 +23300,7 @@
       <c r="E56" s="84"/>
       <c r="F56" s="188">
         <f t="shared" si="0"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23138,7 +23311,7 @@
       <c r="E57" s="84"/>
       <c r="F57" s="188">
         <f t="shared" si="0"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23149,7 +23322,7 @@
       <c r="E58" s="84"/>
       <c r="F58" s="188">
         <f t="shared" si="0"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23160,7 +23333,7 @@
       <c r="E59" s="84"/>
       <c r="F59" s="188">
         <f t="shared" si="0"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23171,7 +23344,7 @@
       <c r="E60" s="84"/>
       <c r="F60" s="188">
         <f t="shared" si="0"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23182,7 +23355,7 @@
       <c r="E61" s="84"/>
       <c r="F61" s="188">
         <f t="shared" si="0"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23193,7 +23366,7 @@
       <c r="E62" s="32"/>
       <c r="F62" s="188">
         <f t="shared" si="0"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23204,7 +23377,7 @@
       <c r="E63" s="32"/>
       <c r="F63" s="188">
         <f t="shared" si="0"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23215,7 +23388,7 @@
       <c r="E64" s="32"/>
       <c r="F64" s="188">
         <f t="shared" si="0"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23226,7 +23399,7 @@
       <c r="E65" s="32"/>
       <c r="F65" s="188">
         <f t="shared" si="0"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23237,7 +23410,7 @@
       <c r="E66" s="32"/>
       <c r="F66" s="188">
         <f t="shared" si="0"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23248,7 +23421,7 @@
       <c r="E67" s="32"/>
       <c r="F67" s="188">
         <f t="shared" si="0"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23259,7 +23432,7 @@
       <c r="E68" s="84"/>
       <c r="F68" s="188">
         <f t="shared" si="0"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23270,7 +23443,7 @@
       <c r="E69" s="84"/>
       <c r="F69" s="188">
         <f t="shared" ref="F69:F78" si="1">C69-E69+F68</f>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23281,7 +23454,7 @@
       <c r="E70" s="84"/>
       <c r="F70" s="188">
         <f t="shared" si="1"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23292,7 +23465,7 @@
       <c r="E71" s="84"/>
       <c r="F71" s="188">
         <f t="shared" si="1"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23303,7 +23476,7 @@
       <c r="E72" s="84"/>
       <c r="F72" s="188">
         <f t="shared" si="1"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23314,7 +23487,7 @@
       <c r="E73" s="84"/>
       <c r="F73" s="188">
         <f t="shared" si="1"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23325,7 +23498,7 @@
       <c r="E74" s="84"/>
       <c r="F74" s="188">
         <f t="shared" si="1"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23336,7 +23509,7 @@
       <c r="E75" s="84"/>
       <c r="F75" s="188">
         <f t="shared" si="1"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23347,7 +23520,7 @@
       <c r="E76" s="84"/>
       <c r="F76" s="188">
         <f t="shared" si="1"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23358,7 +23531,7 @@
       <c r="E77" s="84"/>
       <c r="F77" s="188">
         <f t="shared" si="1"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23371,7 +23544,7 @@
       <c r="E78" s="32"/>
       <c r="F78" s="188">
         <f t="shared" si="1"/>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -23384,11 +23557,11 @@
       <c r="D79" s="181"/>
       <c r="E79" s="170">
         <f>SUM(E3:E78)</f>
-        <v>1682439.91</v>
+        <v>2401197.5699999998</v>
       </c>
       <c r="F79" s="171">
         <f>F78</f>
-        <v>718757.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -23570,23 +23743,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="381"/>
-      <c r="C1" s="383" t="s">
+      <c r="B1" s="408"/>
+      <c r="C1" s="410" t="s">
         <v>465</v>
       </c>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
-      <c r="H1" s="384"/>
-      <c r="I1" s="384"/>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="382"/>
+      <c r="B2" s="409"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -23596,21 +23769,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="385" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="386"/>
+      <c r="B3" s="412" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="413"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="387" t="s">
+      <c r="H3" s="414" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="387"/>
+      <c r="I3" s="414"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="392" t="s">
+      <c r="R3" s="381" t="s">
         <v>38</v>
       </c>
     </row>
@@ -23625,14 +23798,14 @@
       <c r="D4" s="16">
         <v>44801</v>
       </c>
-      <c r="E4" s="388" t="s">
+      <c r="E4" s="415" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="389"/>
-      <c r="H4" s="390" t="s">
+      <c r="F4" s="416"/>
+      <c r="H4" s="417" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="391"/>
+      <c r="I4" s="418"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -23642,11 +23815,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="399" t="s">
+      <c r="P4" s="388" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="400"/>
-      <c r="R4" s="393"/>
+      <c r="Q4" s="389"/>
+      <c r="R4" s="382"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -25374,11 +25547,11 @@
       <c r="L40" s="73">
         <v>927.48</v>
       </c>
-      <c r="M40" s="401">
+      <c r="M40" s="390">
         <f>SUM(M5:M39)</f>
         <v>3147309.5</v>
       </c>
-      <c r="N40" s="403">
+      <c r="N40" s="392">
         <f>SUM(N5:N39)</f>
         <v>76569</v>
       </c>
@@ -25413,8 +25586,8 @@
       <c r="L41" s="73">
         <v>33312</v>
       </c>
-      <c r="M41" s="402"/>
-      <c r="N41" s="404"/>
+      <c r="M41" s="391"/>
+      <c r="N41" s="393"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -25657,29 +25830,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="405" t="s">
+      <c r="H53" s="394" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="406"/>
+      <c r="I53" s="395"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="407">
+      <c r="K53" s="396">
         <f>I51+L51</f>
         <v>102873.87000000001</v>
       </c>
-      <c r="L53" s="408"/>
-      <c r="M53" s="409">
+      <c r="L53" s="397"/>
+      <c r="M53" s="398">
         <f>N40+M40</f>
         <v>3223878.5</v>
       </c>
-      <c r="N53" s="410"/>
+      <c r="N53" s="399"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="411" t="s">
+      <c r="D54" s="400" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="411"/>
+      <c r="E54" s="400"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>3130076.13</v>
@@ -25690,22 +25863,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="412" t="s">
+      <c r="D55" s="401" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="412"/>
+      <c r="E55" s="401"/>
       <c r="F55" s="111">
         <v>-3171951.31</v>
       </c>
-      <c r="I55" s="413" t="s">
+      <c r="I55" s="402" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="414"/>
-      <c r="K55" s="415">
+      <c r="J55" s="403"/>
+      <c r="K55" s="404">
         <f>F57+F58+F59</f>
         <v>265314.0299999998</v>
       </c>
-      <c r="L55" s="416"/>
+      <c r="L55" s="405"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -25736,11 +25909,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="417">
+      <c r="K57" s="406">
         <f>-C4</f>
         <v>-236400.59</v>
       </c>
-      <c r="L57" s="418"/>
+      <c r="L57" s="407"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -25757,10 +25930,10 @@
       <c r="C59" s="128">
         <v>44836</v>
       </c>
-      <c r="D59" s="394" t="s">
+      <c r="D59" s="383" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="395"/>
+      <c r="E59" s="384"/>
       <c r="F59" s="129">
         <v>242354.21</v>
       </c>
@@ -25900,6 +26073,18 @@
     <sortCondition ref="J41:J45"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -25909,18 +26094,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -25936,16 +26109,16 @@
   </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="193" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="224" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="193" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="238" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="11.42578125" style="33"/>
@@ -25959,7 +26132,7 @@
       </c>
       <c r="B1" s="222"/>
       <c r="C1" s="180"/>
-      <c r="D1" s="190"/>
+      <c r="D1" s="428"/>
       <c r="E1" s="180"/>
       <c r="F1" s="147" t="s">
         <v>21</v>
@@ -25995,15 +26168,19 @@
       <c r="C3" s="256">
         <v>121359.44</v>
       </c>
-      <c r="D3" s="302"/>
-      <c r="E3" s="303"/>
+      <c r="D3" s="427">
+        <v>44806</v>
+      </c>
+      <c r="E3" s="425">
+        <v>121359.44</v>
+      </c>
       <c r="F3" s="152">
         <f>C3-E3</f>
-        <v>121359.44</v>
+        <v>0</v>
       </c>
       <c r="J3" s="127"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="257">
         <v>44804</v>
       </c>
@@ -26013,15 +26190,19 @@
       <c r="C4" s="127">
         <v>70490.48</v>
       </c>
-      <c r="D4" s="302"/>
-      <c r="E4" s="294"/>
+      <c r="D4" s="427">
+        <v>44806</v>
+      </c>
+      <c r="E4" s="426">
+        <v>70490.48</v>
+      </c>
       <c r="F4" s="188">
         <f>C4-E4+F3</f>
-        <v>191849.91999999998</v>
+        <v>0</v>
       </c>
       <c r="J4" s="256"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="257">
         <v>44805</v>
       </c>
@@ -26031,11 +26212,15 @@
       <c r="C5" s="127">
         <v>9687.1</v>
       </c>
-      <c r="D5" s="302"/>
-      <c r="E5" s="294"/>
+      <c r="D5" s="427">
+        <v>44806</v>
+      </c>
+      <c r="E5" s="426">
+        <v>9687.1</v>
+      </c>
       <c r="F5" s="188">
         <f t="shared" ref="F5:F68" si="0">C5-E5+F4</f>
-        <v>201537.02</v>
+        <v>0</v>
       </c>
       <c r="J5" s="127"/>
     </row>
@@ -26049,16 +26234,20 @@
       <c r="C6" s="127">
         <v>1392.3</v>
       </c>
-      <c r="D6" s="302"/>
-      <c r="E6" s="294"/>
+      <c r="D6" s="427">
+        <v>44806</v>
+      </c>
+      <c r="E6" s="426">
+        <v>1392.3</v>
+      </c>
       <c r="F6" s="188">
         <f t="shared" si="0"/>
-        <v>202929.31999999998</v>
+        <v>0</v>
       </c>
       <c r="G6" s="156"/>
       <c r="J6" s="127"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="257">
         <v>44805</v>
       </c>
@@ -26068,15 +26257,19 @@
       <c r="C7" s="127">
         <v>63143.99</v>
       </c>
-      <c r="D7" s="302"/>
-      <c r="E7" s="294"/>
+      <c r="D7" s="427">
+        <v>44806</v>
+      </c>
+      <c r="E7" s="426">
+        <v>63143.99</v>
+      </c>
       <c r="F7" s="188">
         <f t="shared" si="0"/>
-        <v>266073.31</v>
+        <v>0</v>
       </c>
       <c r="J7" s="127"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="257">
         <v>44806</v>
       </c>
@@ -26086,15 +26279,19 @@
       <c r="C8" s="127">
         <v>110657.18</v>
       </c>
-      <c r="D8" s="302"/>
-      <c r="E8" s="294"/>
+      <c r="D8" s="427">
+        <v>44806</v>
+      </c>
+      <c r="E8" s="426">
+        <v>110657.18</v>
+      </c>
       <c r="F8" s="188">
         <f t="shared" si="0"/>
-        <v>376730.49</v>
+        <v>0</v>
       </c>
       <c r="J8" s="127"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="257">
         <v>44806</v>
       </c>
@@ -26104,15 +26301,19 @@
       <c r="C9" s="127">
         <v>20028.400000000001</v>
       </c>
-      <c r="D9" s="276"/>
-      <c r="E9" s="277"/>
+      <c r="D9" s="429">
+        <v>44814</v>
+      </c>
+      <c r="E9" s="277">
+        <v>20028.400000000001</v>
+      </c>
       <c r="F9" s="188">
         <f t="shared" si="0"/>
-        <v>396758.89</v>
+        <v>0</v>
       </c>
       <c r="J9" s="127"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="257">
         <v>44807</v>
       </c>
@@ -26122,17 +26323,21 @@
       <c r="C10" s="127">
         <v>99866.84</v>
       </c>
-      <c r="D10" s="276"/>
-      <c r="E10" s="277"/>
+      <c r="D10" s="429">
+        <v>44814</v>
+      </c>
+      <c r="E10" s="277">
+        <v>99866.84</v>
+      </c>
       <c r="F10" s="188">
         <f t="shared" si="0"/>
-        <v>496625.73</v>
+        <v>0</v>
       </c>
       <c r="J10" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="257">
         <v>44808</v>
       </c>
@@ -26142,11 +26347,15 @@
       <c r="C11" s="127">
         <v>4343</v>
       </c>
-      <c r="D11" s="276"/>
-      <c r="E11" s="277"/>
+      <c r="D11" s="429">
+        <v>44814</v>
+      </c>
+      <c r="E11" s="277">
+        <v>4343</v>
+      </c>
       <c r="F11" s="188">
         <f t="shared" si="0"/>
-        <v>500968.73</v>
+        <v>0</v>
       </c>
       <c r="J11" s="267">
         <f>SUM(J3:J10)</f>
@@ -26163,15 +26372,19 @@
       <c r="C12" s="127">
         <v>162404.20000000001</v>
       </c>
-      <c r="D12" s="276"/>
-      <c r="E12" s="277"/>
+      <c r="D12" s="429">
+        <v>44814</v>
+      </c>
+      <c r="E12" s="277">
+        <v>162404.20000000001</v>
+      </c>
       <c r="F12" s="188">
         <f t="shared" si="0"/>
-        <v>663372.92999999993</v>
+        <v>0</v>
       </c>
       <c r="G12" s="156"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="257">
         <v>44810</v>
       </c>
@@ -26181,14 +26394,18 @@
       <c r="C13" s="127">
         <v>100681.72</v>
       </c>
-      <c r="D13" s="276"/>
-      <c r="E13" s="277"/>
+      <c r="D13" s="429">
+        <v>44814</v>
+      </c>
+      <c r="E13" s="277">
+        <v>100681.72</v>
+      </c>
       <c r="F13" s="188">
         <f t="shared" si="0"/>
-        <v>764054.64999999991</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="257">
         <v>44810</v>
       </c>
@@ -26198,14 +26415,18 @@
       <c r="C14" s="127">
         <v>4737.7</v>
       </c>
-      <c r="D14" s="276"/>
-      <c r="E14" s="277"/>
+      <c r="D14" s="429">
+        <v>44814</v>
+      </c>
+      <c r="E14" s="277">
+        <v>4737.7</v>
+      </c>
       <c r="F14" s="188">
         <f t="shared" si="0"/>
-        <v>768792.34999999986</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="257">
         <v>44812</v>
       </c>
@@ -26215,14 +26436,18 @@
       <c r="C15" s="127">
         <v>126371.9</v>
       </c>
-      <c r="D15" s="276"/>
-      <c r="E15" s="277"/>
+      <c r="D15" s="429">
+        <v>44814</v>
+      </c>
+      <c r="E15" s="277">
+        <v>126371.9</v>
+      </c>
       <c r="F15" s="188">
         <f t="shared" si="0"/>
-        <v>895164.24999999988</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="257">
         <v>44814</v>
       </c>
@@ -26232,14 +26457,18 @@
       <c r="C16" s="127">
         <v>151423.09</v>
       </c>
-      <c r="D16" s="276"/>
-      <c r="E16" s="277"/>
+      <c r="D16" s="300">
+        <v>44819</v>
+      </c>
+      <c r="E16" s="301">
+        <v>151423.09</v>
+      </c>
       <c r="F16" s="188">
         <f t="shared" si="0"/>
-        <v>1046587.3399999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="257">
         <v>44814</v>
       </c>
@@ -26249,14 +26478,18 @@
       <c r="C17" s="127">
         <v>2880</v>
       </c>
-      <c r="D17" s="276"/>
-      <c r="E17" s="277"/>
+      <c r="D17" s="300">
+        <v>44819</v>
+      </c>
+      <c r="E17" s="301">
+        <v>2880</v>
+      </c>
       <c r="F17" s="188">
         <f t="shared" si="0"/>
-        <v>1049467.3399999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="257">
         <v>44815</v>
       </c>
@@ -26266,14 +26499,18 @@
       <c r="C18" s="127">
         <v>43875.1</v>
       </c>
-      <c r="D18" s="304"/>
-      <c r="E18" s="274"/>
+      <c r="D18" s="300">
+        <v>44819</v>
+      </c>
+      <c r="E18" s="301">
+        <v>43875.1</v>
+      </c>
       <c r="F18" s="188">
         <f t="shared" si="0"/>
-        <v>1093342.44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="257">
         <v>44816</v>
       </c>
@@ -26283,14 +26520,18 @@
       <c r="C19" s="127">
         <v>130202.7</v>
       </c>
-      <c r="D19" s="304"/>
-      <c r="E19" s="274"/>
+      <c r="D19" s="300">
+        <v>44819</v>
+      </c>
+      <c r="E19" s="301">
+        <v>130202.7</v>
+      </c>
       <c r="F19" s="188">
         <f t="shared" si="0"/>
-        <v>1223545.1399999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="257">
         <v>44817</v>
       </c>
@@ -26300,14 +26541,18 @@
       <c r="C20" s="127">
         <v>143921.60000000001</v>
       </c>
-      <c r="D20" s="304"/>
-      <c r="E20" s="274"/>
+      <c r="D20" s="300">
+        <v>44819</v>
+      </c>
+      <c r="E20" s="301">
+        <v>143921.60000000001</v>
+      </c>
       <c r="F20" s="188">
         <f t="shared" si="0"/>
-        <v>1367466.74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="257">
         <v>44818</v>
       </c>
@@ -26317,14 +26562,18 @@
       <c r="C21" s="127">
         <v>134490</v>
       </c>
-      <c r="D21" s="304"/>
-      <c r="E21" s="274"/>
+      <c r="D21" s="300">
+        <v>44819</v>
+      </c>
+      <c r="E21" s="301">
+        <v>134490</v>
+      </c>
       <c r="F21" s="188">
         <f t="shared" si="0"/>
-        <v>1501956.74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="257">
         <v>44819</v>
       </c>
@@ -26334,14 +26583,18 @@
       <c r="C22" s="127">
         <v>15710.72</v>
       </c>
-      <c r="D22" s="304"/>
-      <c r="E22" s="274"/>
+      <c r="D22" s="300">
+        <v>44819</v>
+      </c>
+      <c r="E22" s="301">
+        <v>15710.72</v>
+      </c>
       <c r="F22" s="188">
         <f t="shared" si="0"/>
-        <v>1517667.46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="257">
         <v>44820</v>
       </c>
@@ -26351,11 +26604,15 @@
       <c r="C23" s="127">
         <v>145559.48000000001</v>
       </c>
-      <c r="D23" s="304"/>
-      <c r="E23" s="274"/>
+      <c r="D23" s="300">
+        <v>44819</v>
+      </c>
+      <c r="E23" s="301">
+        <v>145559.48000000001</v>
+      </c>
       <c r="F23" s="188">
         <f t="shared" si="0"/>
-        <v>1663226.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -26368,15 +26625,19 @@
       <c r="C24" s="127">
         <v>43231.199999999997</v>
       </c>
-      <c r="D24" s="304"/>
-      <c r="E24" s="274"/>
+      <c r="D24" s="300">
+        <v>44819</v>
+      </c>
+      <c r="E24" s="301">
+        <v>43231.199999999997</v>
+      </c>
       <c r="F24" s="188">
         <f t="shared" si="0"/>
-        <v>1706458.14</v>
+        <v>0</v>
       </c>
       <c r="G24" s="156"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="257">
         <v>44821</v>
       </c>
@@ -26386,14 +26647,19 @@
       <c r="C25" s="127">
         <v>74093.38</v>
       </c>
-      <c r="D25" s="304"/>
-      <c r="E25" s="274"/>
+      <c r="D25" s="432" t="s">
+        <v>557</v>
+      </c>
+      <c r="E25" s="274">
+        <f>35520.66+38572.72</f>
+        <v>74093.38</v>
+      </c>
       <c r="F25" s="188">
         <f t="shared" si="0"/>
-        <v>1780551.52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="257">
         <v>44821</v>
       </c>
@@ -26403,11 +26669,15 @@
       <c r="C26" s="127">
         <v>1852.32</v>
       </c>
-      <c r="D26" s="259"/>
-      <c r="E26" s="127"/>
+      <c r="D26" s="304">
+        <v>44827</v>
+      </c>
+      <c r="E26" s="274">
+        <v>1852.32</v>
+      </c>
       <c r="F26" s="188">
         <f t="shared" si="0"/>
-        <v>1782403.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26420,11 +26690,15 @@
       <c r="C27" s="127">
         <v>15179.4</v>
       </c>
-      <c r="D27" s="259"/>
-      <c r="E27" s="127"/>
+      <c r="D27" s="304">
+        <v>44827</v>
+      </c>
+      <c r="E27" s="274">
+        <v>15179.4</v>
+      </c>
       <c r="F27" s="188">
         <f t="shared" si="0"/>
-        <v>1797583.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26437,11 +26711,15 @@
       <c r="C28" s="127">
         <v>78457.2</v>
       </c>
-      <c r="D28" s="259"/>
-      <c r="E28" s="127"/>
+      <c r="D28" s="304">
+        <v>44827</v>
+      </c>
+      <c r="E28" s="274">
+        <v>78457.2</v>
+      </c>
       <c r="F28" s="188">
         <f t="shared" si="0"/>
-        <v>1876040.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26454,11 +26732,15 @@
       <c r="C29" s="127">
         <v>72034.820000000007</v>
       </c>
-      <c r="D29" s="259"/>
-      <c r="E29" s="127"/>
+      <c r="D29" s="304">
+        <v>44827</v>
+      </c>
+      <c r="E29" s="274">
+        <v>72034.820000000007</v>
+      </c>
       <c r="F29" s="188">
         <f t="shared" si="0"/>
-        <v>1948075.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26471,11 +26753,15 @@
       <c r="C30" s="127">
         <v>150680.32000000001</v>
       </c>
-      <c r="D30" s="257"/>
-      <c r="E30" s="127"/>
+      <c r="D30" s="304">
+        <v>44827</v>
+      </c>
+      <c r="E30" s="274">
+        <v>150680.32000000001</v>
+      </c>
       <c r="F30" s="188">
         <f t="shared" si="0"/>
-        <v>2098755.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26488,11 +26774,15 @@
       <c r="C31" s="127">
         <v>168795.67</v>
       </c>
-      <c r="D31" s="259"/>
-      <c r="E31" s="127"/>
+      <c r="D31" s="304">
+        <v>44827</v>
+      </c>
+      <c r="E31" s="274">
+        <v>168795.67</v>
+      </c>
       <c r="F31" s="188">
         <f t="shared" si="0"/>
-        <v>2267551.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26505,11 +26795,15 @@
       <c r="C32" s="127">
         <v>167099.1</v>
       </c>
-      <c r="D32" s="259"/>
-      <c r="E32" s="127"/>
+      <c r="D32" s="304">
+        <v>44827</v>
+      </c>
+      <c r="E32" s="274">
+        <v>167099.1</v>
+      </c>
       <c r="F32" s="188">
         <f t="shared" si="0"/>
-        <v>2434650.35</v>
+        <v>0</v>
       </c>
       <c r="G32" s="156"/>
     </row>
@@ -26523,11 +26817,15 @@
       <c r="C33" s="127">
         <v>10374.799999999999</v>
       </c>
-      <c r="D33" s="259"/>
-      <c r="E33" s="127"/>
+      <c r="D33" s="297">
+        <v>44834</v>
+      </c>
+      <c r="E33" s="296">
+        <v>10374.799999999999</v>
+      </c>
       <c r="F33" s="188">
         <f t="shared" si="0"/>
-        <v>2445025.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26540,11 +26838,15 @@
       <c r="C34" s="127">
         <v>99260.84</v>
       </c>
-      <c r="D34" s="259"/>
-      <c r="E34" s="127"/>
+      <c r="D34" s="297">
+        <v>44834</v>
+      </c>
+      <c r="E34" s="296">
+        <v>99260.84</v>
+      </c>
       <c r="F34" s="188">
         <f t="shared" si="0"/>
-        <v>2544285.9899999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26557,11 +26859,15 @@
       <c r="C35" s="127">
         <v>104477.42</v>
       </c>
-      <c r="D35" s="259"/>
-      <c r="E35" s="127"/>
+      <c r="D35" s="297">
+        <v>44834</v>
+      </c>
+      <c r="E35" s="296">
+        <v>104477.42</v>
+      </c>
       <c r="F35" s="188">
         <f t="shared" si="0"/>
-        <v>2648763.4099999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26574,11 +26880,15 @@
       <c r="C36" s="127">
         <v>74115.039999999994</v>
       </c>
-      <c r="D36" s="259"/>
-      <c r="E36" s="127"/>
+      <c r="D36" s="297">
+        <v>44834</v>
+      </c>
+      <c r="E36" s="296">
+        <v>74115.039999999994</v>
+      </c>
       <c r="F36" s="188">
         <f t="shared" si="0"/>
-        <v>2722878.4499999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26591,11 +26901,15 @@
       <c r="C37" s="127">
         <v>120675.35</v>
       </c>
-      <c r="D37" s="259"/>
-      <c r="E37" s="127"/>
+      <c r="D37" s="297">
+        <v>44834</v>
+      </c>
+      <c r="E37" s="296">
+        <v>120675.35</v>
+      </c>
       <c r="F37" s="188">
         <f t="shared" si="0"/>
-        <v>2843553.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26608,11 +26922,15 @@
       <c r="C38" s="127">
         <v>36344.76</v>
       </c>
-      <c r="D38" s="259"/>
-      <c r="E38" s="127"/>
+      <c r="D38" s="297">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="296">
+        <v>36344.76</v>
+      </c>
       <c r="F38" s="188">
         <f t="shared" si="0"/>
-        <v>2879898.5599999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26625,11 +26943,15 @@
       <c r="C39" s="127">
         <v>171098.38</v>
       </c>
-      <c r="D39" s="259"/>
-      <c r="E39" s="127"/>
+      <c r="D39" s="297">
+        <v>44834</v>
+      </c>
+      <c r="E39" s="296">
+        <v>171098.38</v>
+      </c>
       <c r="F39" s="188">
         <f t="shared" si="0"/>
-        <v>3050996.9399999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26642,418 +26964,422 @@
       <c r="C40" s="127">
         <v>120954.27</v>
       </c>
-      <c r="D40" s="259"/>
-      <c r="E40" s="84"/>
+      <c r="D40" s="257">
+        <v>44841</v>
+      </c>
+      <c r="E40" s="84">
+        <v>120954.27</v>
+      </c>
       <c r="F40" s="188">
         <f t="shared" si="0"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="257"/>
       <c r="B41" s="258"/>
       <c r="C41" s="127"/>
-      <c r="D41" s="259"/>
+      <c r="D41" s="257"/>
       <c r="E41" s="84"/>
       <c r="F41" s="188">
         <f t="shared" si="0"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="259"/>
       <c r="B42" s="260"/>
       <c r="C42" s="84"/>
-      <c r="D42" s="259"/>
+      <c r="D42" s="257"/>
       <c r="E42" s="84"/>
       <c r="F42" s="188">
         <f t="shared" si="0"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="157"/>
       <c r="B43" s="154"/>
       <c r="C43" s="84"/>
-      <c r="D43" s="153"/>
+      <c r="D43" s="430"/>
       <c r="E43" s="84"/>
       <c r="F43" s="188">
         <f t="shared" si="0"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="158"/>
       <c r="B44" s="159"/>
       <c r="C44" s="160"/>
-      <c r="D44" s="153"/>
+      <c r="D44" s="430"/>
       <c r="E44" s="84"/>
       <c r="F44" s="188">
         <f t="shared" si="0"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="158"/>
       <c r="B45" s="159"/>
       <c r="C45" s="160"/>
-      <c r="D45" s="153"/>
+      <c r="D45" s="430"/>
       <c r="E45" s="84"/>
       <c r="F45" s="188">
         <f t="shared" si="0"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="158"/>
       <c r="B46" s="159"/>
       <c r="C46" s="160"/>
-      <c r="D46" s="153"/>
+      <c r="D46" s="430"/>
       <c r="E46" s="84"/>
       <c r="F46" s="188">
         <f t="shared" si="0"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="158"/>
       <c r="B47" s="159"/>
       <c r="C47" s="160"/>
-      <c r="D47" s="153"/>
+      <c r="D47" s="430"/>
       <c r="E47" s="84"/>
       <c r="F47" s="188">
         <f t="shared" si="0"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="158"/>
       <c r="B48" s="159"/>
       <c r="C48" s="160"/>
-      <c r="D48" s="153"/>
+      <c r="D48" s="430"/>
       <c r="E48" s="84"/>
       <c r="F48" s="188">
         <f t="shared" si="0"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="158"/>
       <c r="B49" s="159"/>
       <c r="C49" s="160"/>
-      <c r="D49" s="153"/>
+      <c r="D49" s="430"/>
       <c r="E49" s="84"/>
       <c r="F49" s="188">
         <f t="shared" si="0"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="158"/>
       <c r="B50" s="159"/>
       <c r="C50" s="160"/>
-      <c r="D50" s="153"/>
+      <c r="D50" s="430"/>
       <c r="E50" s="84"/>
       <c r="F50" s="188">
         <f t="shared" si="0"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="158"/>
       <c r="B51" s="159"/>
       <c r="C51" s="160"/>
-      <c r="D51" s="153"/>
+      <c r="D51" s="430"/>
       <c r="E51" s="84"/>
       <c r="F51" s="188">
         <f t="shared" si="0"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="158"/>
       <c r="B52" s="159"/>
       <c r="C52" s="160"/>
-      <c r="D52" s="153"/>
+      <c r="D52" s="430"/>
       <c r="E52" s="84"/>
       <c r="F52" s="188">
         <f t="shared" si="0"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="158"/>
       <c r="B53" s="159"/>
       <c r="C53" s="160"/>
-      <c r="D53" s="153"/>
+      <c r="D53" s="430"/>
       <c r="E53" s="84"/>
       <c r="F53" s="188">
         <f t="shared" si="0"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="158"/>
       <c r="B54" s="159"/>
       <c r="C54" s="160"/>
-      <c r="D54" s="153"/>
+      <c r="D54" s="430"/>
       <c r="E54" s="84"/>
       <c r="F54" s="188">
         <f t="shared" si="0"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="158"/>
       <c r="B55" s="159"/>
       <c r="C55" s="160"/>
-      <c r="D55" s="153"/>
+      <c r="D55" s="430"/>
       <c r="E55" s="84"/>
       <c r="F55" s="188">
         <f t="shared" si="0"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="158"/>
       <c r="B56" s="159"/>
       <c r="C56" s="160"/>
-      <c r="D56" s="153"/>
+      <c r="D56" s="430"/>
       <c r="E56" s="84"/>
       <c r="F56" s="188">
         <f t="shared" si="0"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="158"/>
       <c r="B57" s="159"/>
       <c r="C57" s="160"/>
-      <c r="D57" s="153"/>
+      <c r="D57" s="430"/>
       <c r="E57" s="84"/>
       <c r="F57" s="188">
         <f t="shared" si="0"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="158"/>
       <c r="B58" s="159"/>
       <c r="C58" s="160"/>
-      <c r="D58" s="153"/>
+      <c r="D58" s="430"/>
       <c r="E58" s="84"/>
       <c r="F58" s="188">
         <f t="shared" si="0"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="158"/>
       <c r="B59" s="159"/>
       <c r="C59" s="160"/>
-      <c r="D59" s="153"/>
+      <c r="D59" s="430"/>
       <c r="E59" s="84"/>
       <c r="F59" s="188">
         <f t="shared" si="0"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="158"/>
       <c r="B60" s="159"/>
       <c r="C60" s="160"/>
-      <c r="D60" s="153"/>
+      <c r="D60" s="430"/>
       <c r="E60" s="84"/>
       <c r="F60" s="188">
         <f t="shared" si="0"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="158"/>
       <c r="B61" s="159"/>
       <c r="C61" s="160"/>
-      <c r="D61" s="153"/>
+      <c r="D61" s="430"/>
       <c r="E61" s="84"/>
       <c r="F61" s="188">
         <f t="shared" si="0"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="161"/>
       <c r="B62" s="162"/>
       <c r="C62" s="163"/>
-      <c r="D62" s="164"/>
+      <c r="D62" s="431"/>
       <c r="E62" s="32"/>
       <c r="F62" s="188">
         <f t="shared" si="0"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="161"/>
       <c r="B63" s="162"/>
       <c r="C63" s="163"/>
-      <c r="D63" s="164"/>
+      <c r="D63" s="431"/>
       <c r="E63" s="32"/>
       <c r="F63" s="188">
         <f t="shared" si="0"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="161"/>
       <c r="B64" s="162"/>
       <c r="C64" s="163"/>
-      <c r="D64" s="164"/>
+      <c r="D64" s="431"/>
       <c r="E64" s="32"/>
       <c r="F64" s="188">
         <f t="shared" si="0"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="161"/>
       <c r="B65" s="162"/>
       <c r="C65" s="163"/>
-      <c r="D65" s="164"/>
+      <c r="D65" s="431"/>
       <c r="E65" s="32"/>
       <c r="F65" s="188">
         <f t="shared" si="0"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="161"/>
       <c r="B66" s="162"/>
       <c r="C66" s="163"/>
-      <c r="D66" s="164"/>
+      <c r="D66" s="431"/>
       <c r="E66" s="32"/>
       <c r="F66" s="188">
         <f t="shared" si="0"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="161"/>
       <c r="B67" s="162"/>
       <c r="C67" s="163"/>
-      <c r="D67" s="164"/>
+      <c r="D67" s="431"/>
       <c r="E67" s="32"/>
       <c r="F67" s="188">
         <f t="shared" si="0"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="158"/>
       <c r="B68" s="159"/>
       <c r="C68" s="160"/>
-      <c r="D68" s="153"/>
+      <c r="D68" s="430"/>
       <c r="E68" s="84"/>
       <c r="F68" s="188">
         <f t="shared" si="0"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="158"/>
       <c r="B69" s="159"/>
       <c r="C69" s="160"/>
-      <c r="D69" s="153"/>
+      <c r="D69" s="430"/>
       <c r="E69" s="84"/>
       <c r="F69" s="188">
         <f t="shared" ref="F69:F78" si="1">C69-E69+F68</f>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="158"/>
       <c r="B70" s="159"/>
       <c r="C70" s="160"/>
-      <c r="D70" s="153"/>
+      <c r="D70" s="430"/>
       <c r="E70" s="84"/>
       <c r="F70" s="188">
         <f t="shared" si="1"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="158"/>
       <c r="B71" s="159"/>
       <c r="C71" s="160"/>
-      <c r="D71" s="153"/>
+      <c r="D71" s="430"/>
       <c r="E71" s="84"/>
       <c r="F71" s="188">
         <f t="shared" si="1"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="158"/>
       <c r="B72" s="159"/>
       <c r="C72" s="160"/>
-      <c r="D72" s="153"/>
+      <c r="D72" s="430"/>
       <c r="E72" s="84"/>
       <c r="F72" s="188">
         <f t="shared" si="1"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="158"/>
       <c r="B73" s="159"/>
       <c r="C73" s="160"/>
-      <c r="D73" s="153"/>
+      <c r="D73" s="430"/>
       <c r="E73" s="84"/>
       <c r="F73" s="188">
         <f t="shared" si="1"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="158"/>
       <c r="B74" s="159"/>
       <c r="C74" s="160"/>
-      <c r="D74" s="153"/>
+      <c r="D74" s="430"/>
       <c r="E74" s="84"/>
       <c r="F74" s="188">
         <f t="shared" si="1"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="158"/>
       <c r="B75" s="159"/>
       <c r="C75" s="160"/>
-      <c r="D75" s="153"/>
+      <c r="D75" s="430"/>
       <c r="E75" s="84"/>
       <c r="F75" s="188">
         <f t="shared" si="1"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="158"/>
       <c r="B76" s="159"/>
       <c r="C76" s="160"/>
-      <c r="D76" s="153"/>
+      <c r="D76" s="430"/>
       <c r="E76" s="84"/>
       <c r="F76" s="188">
         <f t="shared" si="1"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="158"/>
       <c r="B77" s="159"/>
       <c r="C77" s="160"/>
-      <c r="D77" s="153"/>
+      <c r="D77" s="430"/>
       <c r="E77" s="84"/>
       <c r="F77" s="188">
         <f t="shared" si="1"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -27062,11 +27388,11 @@
       <c r="C78" s="32">
         <v>0</v>
       </c>
-      <c r="D78" s="164"/>
+      <c r="D78" s="431"/>
       <c r="E78" s="32"/>
       <c r="F78" s="188">
         <f t="shared" si="1"/>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -27076,21 +27402,21 @@
         <f>SUM(C3:C78)</f>
         <v>3171951.2099999995</v>
       </c>
-      <c r="D79" s="181"/>
+      <c r="D79" s="191"/>
       <c r="E79" s="170">
         <f>SUM(E3:E78)</f>
-        <v>0</v>
+        <v>3171951.2099999995</v>
       </c>
       <c r="F79" s="171">
         <f>F78</f>
-        <v>3171951.2099999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D80" s="164"/>
+      <c r="D80" s="431"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D81" s="164"/>
+      <c r="D81" s="431"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="225"/>
@@ -27265,23 +27591,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="381"/>
-      <c r="C1" s="383" t="s">
+      <c r="B1" s="408"/>
+      <c r="C1" s="410" t="s">
         <v>512</v>
       </c>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
-      <c r="H1" s="384"/>
-      <c r="I1" s="384"/>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="382"/>
+      <c r="B2" s="409"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -27291,21 +27617,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="385" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="386"/>
+      <c r="B3" s="412" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="413"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="387" t="s">
+      <c r="H3" s="414" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="387"/>
+      <c r="I3" s="414"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="392" t="s">
+      <c r="R3" s="381" t="s">
         <v>38</v>
       </c>
     </row>
@@ -27320,14 +27646,14 @@
       <c r="D4" s="16">
         <v>44836</v>
       </c>
-      <c r="E4" s="388" t="s">
+      <c r="E4" s="415" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="389"/>
-      <c r="H4" s="390" t="s">
+      <c r="F4" s="416"/>
+      <c r="H4" s="417" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="391"/>
+      <c r="I4" s="418"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -27337,11 +27663,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="399" t="s">
+      <c r="P4" s="388" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="400"/>
-      <c r="R4" s="393"/>
+      <c r="Q4" s="389"/>
+      <c r="R4" s="382"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -29014,11 +29340,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="360"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="401">
+      <c r="M40" s="390">
         <f>SUM(M5:M39)</f>
         <v>2563550</v>
       </c>
-      <c r="N40" s="403">
+      <c r="N40" s="392">
         <f>SUM(N5:N39)</f>
         <v>77235</v>
       </c>
@@ -29048,8 +29374,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="363"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="402"/>
-      <c r="N41" s="404"/>
+      <c r="M41" s="391"/>
+      <c r="N41" s="393"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -29264,29 +29590,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="405" t="s">
+      <c r="H53" s="394" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="406"/>
+      <c r="I53" s="395"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="407">
+      <c r="K53" s="396">
         <f>I51+L51</f>
         <v>151758.24</v>
       </c>
-      <c r="L53" s="408"/>
-      <c r="M53" s="409">
+      <c r="L53" s="397"/>
+      <c r="M53" s="398">
         <f>N40+M40</f>
         <v>2640785</v>
       </c>
-      <c r="N53" s="410"/>
+      <c r="N53" s="399"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="411" t="s">
+      <c r="D54" s="400" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="411"/>
+      <c r="E54" s="400"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2467848.5599999996</v>
@@ -29297,22 +29623,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="412" t="s">
+      <c r="D55" s="401" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="412"/>
+      <c r="E55" s="401"/>
       <c r="F55" s="111">
         <v>-2793202.57</v>
       </c>
-      <c r="I55" s="413" t="s">
+      <c r="I55" s="402" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="414"/>
-      <c r="K55" s="415">
+      <c r="J55" s="403"/>
+      <c r="K55" s="404">
         <f>F57+F58+F59</f>
         <v>149596.74999999977</v>
       </c>
-      <c r="L55" s="416"/>
+      <c r="L55" s="405"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -29343,11 +29669,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="417">
+      <c r="K57" s="406">
         <f>-C4</f>
         <v>-242354.21</v>
       </c>
-      <c r="L57" s="418"/>
+      <c r="L57" s="407"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -29364,10 +29690,10 @@
       <c r="C59" s="128">
         <v>44864</v>
       </c>
-      <c r="D59" s="394" t="s">
+      <c r="D59" s="383" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="395"/>
+      <c r="E59" s="384"/>
       <c r="F59" s="129">
         <v>419424.76</v>
       </c>
@@ -29504,18 +29830,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -29525,6 +29839,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -31319,16 +31645,16 @@
   <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="193" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="224" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="193" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="238" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="11.42578125" style="33"/>
@@ -31342,7 +31668,7 @@
       </c>
       <c r="B1" s="222"/>
       <c r="C1" s="180"/>
-      <c r="D1" s="190"/>
+      <c r="D1" s="428"/>
       <c r="E1" s="180"/>
       <c r="F1" s="147" t="s">
         <v>21</v>
@@ -31378,11 +31704,15 @@
       <c r="C3" s="256">
         <v>151687.98000000001</v>
       </c>
-      <c r="D3" s="302"/>
-      <c r="E3" s="303"/>
+      <c r="D3" s="433">
+        <v>44841</v>
+      </c>
+      <c r="E3" s="256">
+        <v>151687.98000000001</v>
+      </c>
       <c r="F3" s="152">
         <f>C3-E3</f>
-        <v>151687.98000000001</v>
+        <v>0</v>
       </c>
       <c r="J3" s="127"/>
     </row>
@@ -31396,11 +31726,15 @@
       <c r="C4" s="127">
         <v>49293.599999999999</v>
       </c>
-      <c r="D4" s="302"/>
-      <c r="E4" s="294"/>
+      <c r="D4" s="433">
+        <v>44841</v>
+      </c>
+      <c r="E4" s="127">
+        <v>49293.599999999999</v>
+      </c>
       <c r="F4" s="188">
         <f>C4-E4+F3</f>
-        <v>200981.58000000002</v>
+        <v>0</v>
       </c>
       <c r="J4" s="256"/>
     </row>
@@ -31414,11 +31748,15 @@
       <c r="C5" s="127">
         <v>13143.34</v>
       </c>
-      <c r="D5" s="302"/>
-      <c r="E5" s="294"/>
+      <c r="D5" s="433">
+        <v>44841</v>
+      </c>
+      <c r="E5" s="127">
+        <v>13143.34</v>
+      </c>
       <c r="F5" s="188">
         <f t="shared" ref="F5:F68" si="0">C5-E5+F4</f>
-        <v>214124.92</v>
+        <v>0</v>
       </c>
       <c r="J5" s="127"/>
     </row>
@@ -31432,11 +31770,15 @@
       <c r="C6" s="127">
         <v>166585.60000000001</v>
       </c>
-      <c r="D6" s="302"/>
-      <c r="E6" s="294"/>
+      <c r="D6" s="433">
+        <v>44841</v>
+      </c>
+      <c r="E6" s="127">
+        <v>166585.60000000001</v>
+      </c>
       <c r="F6" s="188">
         <f t="shared" si="0"/>
-        <v>380710.52</v>
+        <v>0</v>
       </c>
       <c r="G6" s="156"/>
       <c r="J6" s="127"/>
@@ -31451,11 +31793,15 @@
       <c r="C7" s="127">
         <v>76166.539999999994</v>
       </c>
-      <c r="D7" s="302"/>
-      <c r="E7" s="294"/>
+      <c r="D7" s="433">
+        <v>44841</v>
+      </c>
+      <c r="E7" s="127">
+        <v>76166.539999999994</v>
+      </c>
       <c r="F7" s="188">
         <f t="shared" si="0"/>
-        <v>456877.06</v>
+        <v>0</v>
       </c>
       <c r="J7" s="127"/>
     </row>
@@ -31469,11 +31815,15 @@
       <c r="C8" s="127">
         <v>132125.56</v>
       </c>
-      <c r="D8" s="302"/>
-      <c r="E8" s="294"/>
+      <c r="D8" s="434">
+        <v>44848</v>
+      </c>
+      <c r="E8" s="270">
+        <v>132125.56</v>
+      </c>
       <c r="F8" s="188">
         <f t="shared" si="0"/>
-        <v>589002.62</v>
+        <v>0</v>
       </c>
       <c r="J8" s="127"/>
     </row>
@@ -31487,11 +31837,15 @@
       <c r="C9" s="127">
         <v>74545.56</v>
       </c>
-      <c r="D9" s="276"/>
-      <c r="E9" s="277"/>
+      <c r="D9" s="434">
+        <v>44848</v>
+      </c>
+      <c r="E9" s="270">
+        <v>74545.56</v>
+      </c>
       <c r="F9" s="188">
         <f t="shared" si="0"/>
-        <v>663548.17999999993</v>
+        <v>0</v>
       </c>
       <c r="J9" s="127"/>
     </row>
@@ -31505,11 +31859,15 @@
       <c r="C10" s="127">
         <v>49280</v>
       </c>
-      <c r="D10" s="276"/>
-      <c r="E10" s="277"/>
+      <c r="D10" s="434">
+        <v>44848</v>
+      </c>
+      <c r="E10" s="270">
+        <v>49280</v>
+      </c>
       <c r="F10" s="188">
         <f t="shared" si="0"/>
-        <v>712828.17999999993</v>
+        <v>0</v>
       </c>
       <c r="J10" s="33">
         <v>0</v>
@@ -31525,11 +31883,15 @@
       <c r="C11" s="127">
         <v>2773.4</v>
       </c>
-      <c r="D11" s="276"/>
-      <c r="E11" s="277"/>
+      <c r="D11" s="434">
+        <v>44848</v>
+      </c>
+      <c r="E11" s="270">
+        <v>2773.4</v>
+      </c>
       <c r="F11" s="188">
         <f t="shared" si="0"/>
-        <v>715601.58</v>
+        <v>0</v>
       </c>
       <c r="J11" s="267">
         <f>SUM(J3:J10)</f>
@@ -31546,11 +31908,15 @@
       <c r="C12" s="127">
         <v>134724.47</v>
       </c>
-      <c r="D12" s="276"/>
-      <c r="E12" s="277"/>
+      <c r="D12" s="434">
+        <v>44848</v>
+      </c>
+      <c r="E12" s="270">
+        <v>134724.47</v>
+      </c>
       <c r="F12" s="188">
         <f t="shared" si="0"/>
-        <v>850326.04999999993</v>
+        <v>0</v>
       </c>
       <c r="G12" s="156"/>
     </row>
@@ -31564,11 +31930,15 @@
       <c r="C13" s="127">
         <v>17827.759999999998</v>
       </c>
-      <c r="D13" s="276"/>
-      <c r="E13" s="277"/>
+      <c r="D13" s="434">
+        <v>44848</v>
+      </c>
+      <c r="E13" s="270">
+        <v>17827.759999999998</v>
+      </c>
       <c r="F13" s="188">
         <f t="shared" si="0"/>
-        <v>868153.80999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -31581,11 +31951,15 @@
       <c r="C14" s="127">
         <v>187517.07</v>
       </c>
-      <c r="D14" s="276"/>
-      <c r="E14" s="277"/>
+      <c r="D14" s="434">
+        <v>44848</v>
+      </c>
+      <c r="E14" s="270">
+        <v>187517.07</v>
+      </c>
       <c r="F14" s="188">
         <f t="shared" si="0"/>
-        <v>1055670.8799999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -31598,11 +31972,15 @@
       <c r="C15" s="127">
         <v>136073.34</v>
       </c>
-      <c r="D15" s="276"/>
-      <c r="E15" s="277"/>
+      <c r="D15" s="434">
+        <v>44848</v>
+      </c>
+      <c r="E15" s="270">
+        <v>136073.34</v>
+      </c>
       <c r="F15" s="188">
         <f t="shared" si="0"/>
-        <v>1191744.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -31615,11 +31993,15 @@
       <c r="C16" s="127">
         <v>190601.06</v>
       </c>
-      <c r="D16" s="276"/>
-      <c r="E16" s="277"/>
+      <c r="D16" s="300">
+        <v>44855</v>
+      </c>
+      <c r="E16" s="301">
+        <v>190601.06</v>
+      </c>
       <c r="F16" s="188">
         <f t="shared" si="0"/>
-        <v>1382345.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -31632,11 +32014,15 @@
       <c r="C17" s="127">
         <v>9590.4</v>
       </c>
-      <c r="D17" s="276"/>
-      <c r="E17" s="277"/>
+      <c r="D17" s="300">
+        <v>44855</v>
+      </c>
+      <c r="E17" s="301">
+        <v>9590.4</v>
+      </c>
       <c r="F17" s="188">
         <f t="shared" si="0"/>
-        <v>1391935.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -31649,11 +32035,15 @@
       <c r="C18" s="127">
         <v>63549.9</v>
       </c>
-      <c r="D18" s="304"/>
-      <c r="E18" s="274"/>
+      <c r="D18" s="300">
+        <v>44855</v>
+      </c>
+      <c r="E18" s="301">
+        <v>63549.9</v>
+      </c>
       <c r="F18" s="188">
         <f t="shared" si="0"/>
-        <v>1455485.5799999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -31666,11 +32056,15 @@
       <c r="C19" s="127">
         <v>14731.2</v>
       </c>
-      <c r="D19" s="304"/>
-      <c r="E19" s="274"/>
+      <c r="D19" s="300">
+        <v>44855</v>
+      </c>
+      <c r="E19" s="301">
+        <v>14731.2</v>
+      </c>
       <c r="F19" s="188">
         <f t="shared" si="0"/>
-        <v>1470216.7799999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -31683,11 +32077,15 @@
       <c r="C20" s="127">
         <v>207613.18</v>
       </c>
-      <c r="D20" s="304"/>
-      <c r="E20" s="274"/>
+      <c r="D20" s="300">
+        <v>44855</v>
+      </c>
+      <c r="E20" s="301">
+        <v>207613.18</v>
+      </c>
       <c r="F20" s="188">
         <f t="shared" si="0"/>
-        <v>1677829.9599999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -31700,11 +32098,15 @@
       <c r="C21" s="127">
         <v>129760.71</v>
       </c>
-      <c r="D21" s="304"/>
-      <c r="E21" s="274"/>
+      <c r="D21" s="300">
+        <v>44855</v>
+      </c>
+      <c r="E21" s="301">
+        <v>129760.71</v>
+      </c>
       <c r="F21" s="188">
         <f t="shared" si="0"/>
-        <v>1807590.6699999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -31717,11 +32119,15 @@
       <c r="C22" s="127">
         <v>7815.5</v>
       </c>
-      <c r="D22" s="304"/>
-      <c r="E22" s="274"/>
+      <c r="D22" s="300">
+        <v>44855</v>
+      </c>
+      <c r="E22" s="301">
+        <v>7815.5</v>
+      </c>
       <c r="F22" s="188">
         <f t="shared" si="0"/>
-        <v>1815406.1699999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -31734,11 +32140,15 @@
       <c r="C23" s="127">
         <v>66286.039999999994</v>
       </c>
-      <c r="D23" s="304"/>
-      <c r="E23" s="274"/>
+      <c r="D23" s="300">
+        <v>44855</v>
+      </c>
+      <c r="E23" s="301">
+        <v>66286.039999999994</v>
+      </c>
       <c r="F23" s="188">
         <f t="shared" si="0"/>
-        <v>1881692.2099999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -31751,11 +32161,15 @@
       <c r="C24" s="127">
         <v>159753.01999999999</v>
       </c>
-      <c r="D24" s="304"/>
-      <c r="E24" s="274"/>
+      <c r="D24" s="304">
+        <v>44862</v>
+      </c>
+      <c r="E24" s="274">
+        <v>159753.01999999999</v>
+      </c>
       <c r="F24" s="188">
         <f t="shared" si="0"/>
-        <v>2041445.2299999997</v>
+        <v>0</v>
       </c>
       <c r="G24" s="156"/>
     </row>
@@ -31769,11 +32183,15 @@
       <c r="C25" s="127">
         <v>136759.18</v>
       </c>
-      <c r="D25" s="304"/>
-      <c r="E25" s="274"/>
+      <c r="D25" s="304">
+        <v>44862</v>
+      </c>
+      <c r="E25" s="274">
+        <v>136759.18</v>
+      </c>
       <c r="F25" s="188">
         <f t="shared" si="0"/>
-        <v>2178204.4099999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -31786,11 +32204,15 @@
       <c r="C26" s="127">
         <v>123939.98</v>
       </c>
-      <c r="D26" s="259"/>
-      <c r="E26" s="127"/>
+      <c r="D26" s="304">
+        <v>44862</v>
+      </c>
+      <c r="E26" s="274">
+        <v>123939.98</v>
+      </c>
       <c r="F26" s="188">
         <f t="shared" si="0"/>
-        <v>2302144.3899999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -31803,11 +32225,15 @@
       <c r="C27" s="127">
         <v>162878.20000000001</v>
       </c>
-      <c r="D27" s="259"/>
-      <c r="E27" s="127"/>
+      <c r="D27" s="304">
+        <v>44862</v>
+      </c>
+      <c r="E27" s="274">
+        <v>162878.20000000001</v>
+      </c>
       <c r="F27" s="188">
         <f t="shared" si="0"/>
-        <v>2465022.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -31820,11 +32246,15 @@
       <c r="C28" s="374">
         <v>174485.08</v>
       </c>
-      <c r="D28" s="259"/>
-      <c r="E28" s="127"/>
+      <c r="D28" s="429">
+        <v>44870</v>
+      </c>
+      <c r="E28" s="277">
+        <v>174485.08</v>
+      </c>
       <c r="F28" s="188">
         <f t="shared" si="0"/>
-        <v>2639507.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -31837,11 +32267,15 @@
       <c r="C29" s="374">
         <v>153694.9</v>
       </c>
-      <c r="D29" s="259"/>
-      <c r="E29" s="127"/>
+      <c r="D29" s="429">
+        <v>44870</v>
+      </c>
+      <c r="E29" s="277">
+        <v>153694.9</v>
+      </c>
       <c r="F29" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -31852,525 +32286,527 @@
       <c r="E30" s="127"/>
       <c r="F30" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="257"/>
       <c r="B31" s="258"/>
       <c r="C31" s="127"/>
-      <c r="D31" s="259"/>
+      <c r="D31" s="257"/>
       <c r="E31" s="127"/>
       <c r="F31" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="257"/>
       <c r="B32" s="258"/>
       <c r="C32" s="127"/>
-      <c r="D32" s="259"/>
+      <c r="D32" s="257"/>
       <c r="E32" s="127"/>
       <c r="F32" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
       <c r="G32" s="156"/>
     </row>
     <row r="33" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="257"/>
-      <c r="B33" s="258"/>
+      <c r="B33" s="258" t="s">
+        <v>8</v>
+      </c>
       <c r="C33" s="127"/>
-      <c r="D33" s="259"/>
+      <c r="D33" s="257"/>
       <c r="E33" s="127"/>
       <c r="F33" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="257"/>
       <c r="B34" s="258"/>
       <c r="C34" s="127"/>
-      <c r="D34" s="259"/>
+      <c r="D34" s="257"/>
       <c r="E34" s="127"/>
       <c r="F34" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="257"/>
       <c r="B35" s="258"/>
       <c r="C35" s="127"/>
-      <c r="D35" s="259"/>
+      <c r="D35" s="257"/>
       <c r="E35" s="127"/>
       <c r="F35" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="257"/>
       <c r="B36" s="258"/>
       <c r="C36" s="127"/>
-      <c r="D36" s="259"/>
+      <c r="D36" s="257"/>
       <c r="E36" s="127"/>
       <c r="F36" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="257"/>
       <c r="B37" s="258"/>
       <c r="C37" s="127"/>
-      <c r="D37" s="259"/>
+      <c r="D37" s="257"/>
       <c r="E37" s="127"/>
       <c r="F37" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="257"/>
       <c r="B38" s="258"/>
       <c r="C38" s="127"/>
-      <c r="D38" s="259"/>
+      <c r="D38" s="257"/>
       <c r="E38" s="127"/>
       <c r="F38" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="257"/>
       <c r="B39" s="258"/>
       <c r="C39" s="127"/>
-      <c r="D39" s="259"/>
+      <c r="D39" s="257"/>
       <c r="E39" s="127"/>
       <c r="F39" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="257"/>
       <c r="B40" s="258"/>
       <c r="C40" s="127"/>
-      <c r="D40" s="259"/>
+      <c r="D40" s="257"/>
       <c r="E40" s="84"/>
       <c r="F40" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="257"/>
       <c r="B41" s="258"/>
       <c r="C41" s="127"/>
-      <c r="D41" s="259"/>
+      <c r="D41" s="257"/>
       <c r="E41" s="84"/>
       <c r="F41" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="259"/>
       <c r="B42" s="260"/>
       <c r="C42" s="84"/>
-      <c r="D42" s="259"/>
+      <c r="D42" s="257"/>
       <c r="E42" s="84"/>
       <c r="F42" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="157"/>
       <c r="B43" s="154"/>
       <c r="C43" s="84"/>
-      <c r="D43" s="153"/>
+      <c r="D43" s="430"/>
       <c r="E43" s="84"/>
       <c r="F43" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="158"/>
       <c r="B44" s="159"/>
       <c r="C44" s="160"/>
-      <c r="D44" s="153"/>
+      <c r="D44" s="430"/>
       <c r="E44" s="84"/>
       <c r="F44" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="158"/>
       <c r="B45" s="159"/>
       <c r="C45" s="160"/>
-      <c r="D45" s="153"/>
+      <c r="D45" s="430"/>
       <c r="E45" s="84"/>
       <c r="F45" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="158"/>
       <c r="B46" s="159"/>
       <c r="C46" s="160"/>
-      <c r="D46" s="153"/>
+      <c r="D46" s="430"/>
       <c r="E46" s="84"/>
       <c r="F46" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="158"/>
       <c r="B47" s="159"/>
       <c r="C47" s="160"/>
-      <c r="D47" s="153"/>
+      <c r="D47" s="430"/>
       <c r="E47" s="84"/>
       <c r="F47" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="158"/>
       <c r="B48" s="159"/>
       <c r="C48" s="160"/>
-      <c r="D48" s="153"/>
+      <c r="D48" s="430"/>
       <c r="E48" s="84"/>
       <c r="F48" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="158"/>
       <c r="B49" s="159"/>
       <c r="C49" s="160"/>
-      <c r="D49" s="153"/>
+      <c r="D49" s="430"/>
       <c r="E49" s="84"/>
       <c r="F49" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="158"/>
       <c r="B50" s="159"/>
       <c r="C50" s="160"/>
-      <c r="D50" s="153"/>
+      <c r="D50" s="430"/>
       <c r="E50" s="84"/>
       <c r="F50" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="158"/>
       <c r="B51" s="159"/>
       <c r="C51" s="160"/>
-      <c r="D51" s="153"/>
+      <c r="D51" s="430"/>
       <c r="E51" s="84"/>
       <c r="F51" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="158"/>
       <c r="B52" s="159"/>
       <c r="C52" s="160"/>
-      <c r="D52" s="153"/>
+      <c r="D52" s="430"/>
       <c r="E52" s="84"/>
       <c r="F52" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="158"/>
       <c r="B53" s="159"/>
       <c r="C53" s="160"/>
-      <c r="D53" s="153"/>
+      <c r="D53" s="430"/>
       <c r="E53" s="84"/>
       <c r="F53" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="158"/>
       <c r="B54" s="159"/>
       <c r="C54" s="160"/>
-      <c r="D54" s="153"/>
+      <c r="D54" s="430"/>
       <c r="E54" s="84"/>
       <c r="F54" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="158"/>
       <c r="B55" s="159"/>
       <c r="C55" s="160"/>
-      <c r="D55" s="153"/>
+      <c r="D55" s="430"/>
       <c r="E55" s="84"/>
       <c r="F55" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="158"/>
       <c r="B56" s="159"/>
       <c r="C56" s="160"/>
-      <c r="D56" s="153"/>
+      <c r="D56" s="430"/>
       <c r="E56" s="84"/>
       <c r="F56" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="158"/>
       <c r="B57" s="159"/>
       <c r="C57" s="160"/>
-      <c r="D57" s="153"/>
+      <c r="D57" s="430"/>
       <c r="E57" s="84"/>
       <c r="F57" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="158"/>
       <c r="B58" s="159"/>
       <c r="C58" s="160"/>
-      <c r="D58" s="153"/>
+      <c r="D58" s="430"/>
       <c r="E58" s="84"/>
       <c r="F58" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="158"/>
       <c r="B59" s="159"/>
       <c r="C59" s="160"/>
-      <c r="D59" s="153"/>
+      <c r="D59" s="430"/>
       <c r="E59" s="84"/>
       <c r="F59" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="158"/>
       <c r="B60" s="159"/>
       <c r="C60" s="160"/>
-      <c r="D60" s="153"/>
+      <c r="D60" s="430"/>
       <c r="E60" s="84"/>
       <c r="F60" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="158"/>
       <c r="B61" s="159"/>
       <c r="C61" s="160"/>
-      <c r="D61" s="153"/>
+      <c r="D61" s="430"/>
       <c r="E61" s="84"/>
       <c r="F61" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="161"/>
       <c r="B62" s="162"/>
       <c r="C62" s="163"/>
-      <c r="D62" s="164"/>
+      <c r="D62" s="431"/>
       <c r="E62" s="32"/>
       <c r="F62" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="161"/>
       <c r="B63" s="162"/>
       <c r="C63" s="163"/>
-      <c r="D63" s="164"/>
+      <c r="D63" s="431"/>
       <c r="E63" s="32"/>
       <c r="F63" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="161"/>
       <c r="B64" s="162"/>
       <c r="C64" s="163"/>
-      <c r="D64" s="164"/>
+      <c r="D64" s="431"/>
       <c r="E64" s="32"/>
       <c r="F64" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="161"/>
       <c r="B65" s="162"/>
       <c r="C65" s="163"/>
-      <c r="D65" s="164"/>
+      <c r="D65" s="431"/>
       <c r="E65" s="32"/>
       <c r="F65" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="161"/>
       <c r="B66" s="162"/>
       <c r="C66" s="163"/>
-      <c r="D66" s="164"/>
+      <c r="D66" s="431"/>
       <c r="E66" s="32"/>
       <c r="F66" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="161"/>
       <c r="B67" s="162"/>
       <c r="C67" s="163"/>
-      <c r="D67" s="164"/>
+      <c r="D67" s="431"/>
       <c r="E67" s="32"/>
       <c r="F67" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="158"/>
       <c r="B68" s="159"/>
       <c r="C68" s="160"/>
-      <c r="D68" s="153"/>
+      <c r="D68" s="430"/>
       <c r="E68" s="84"/>
       <c r="F68" s="188">
         <f t="shared" si="0"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="158"/>
       <c r="B69" s="159"/>
       <c r="C69" s="160"/>
-      <c r="D69" s="153"/>
+      <c r="D69" s="430"/>
       <c r="E69" s="84"/>
       <c r="F69" s="188">
         <f t="shared" ref="F69:F78" si="1">C69-E69+F68</f>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="158"/>
       <c r="B70" s="159"/>
       <c r="C70" s="160"/>
-      <c r="D70" s="153"/>
+      <c r="D70" s="430"/>
       <c r="E70" s="84"/>
       <c r="F70" s="188">
         <f t="shared" si="1"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="158"/>
       <c r="B71" s="159"/>
       <c r="C71" s="160"/>
-      <c r="D71" s="153"/>
+      <c r="D71" s="430"/>
       <c r="E71" s="84"/>
       <c r="F71" s="188">
         <f t="shared" si="1"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="158"/>
       <c r="B72" s="159"/>
       <c r="C72" s="160"/>
-      <c r="D72" s="153"/>
+      <c r="D72" s="430"/>
       <c r="E72" s="84"/>
       <c r="F72" s="188">
         <f t="shared" si="1"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="158"/>
       <c r="B73" s="159"/>
       <c r="C73" s="160"/>
-      <c r="D73" s="153"/>
+      <c r="D73" s="430"/>
       <c r="E73" s="84"/>
       <c r="F73" s="188">
         <f t="shared" si="1"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="158"/>
       <c r="B74" s="159"/>
       <c r="C74" s="160"/>
-      <c r="D74" s="153"/>
+      <c r="D74" s="430"/>
       <c r="E74" s="84"/>
       <c r="F74" s="188">
         <f t="shared" si="1"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="158"/>
       <c r="B75" s="159"/>
       <c r="C75" s="160"/>
-      <c r="D75" s="153"/>
+      <c r="D75" s="430"/>
       <c r="E75" s="84"/>
       <c r="F75" s="188">
         <f t="shared" si="1"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="158"/>
       <c r="B76" s="159"/>
       <c r="C76" s="160"/>
-      <c r="D76" s="153"/>
+      <c r="D76" s="430"/>
       <c r="E76" s="84"/>
       <c r="F76" s="188">
         <f t="shared" si="1"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="158"/>
       <c r="B77" s="159"/>
       <c r="C77" s="160"/>
-      <c r="D77" s="153"/>
+      <c r="D77" s="430"/>
       <c r="E77" s="84"/>
       <c r="F77" s="188">
         <f t="shared" si="1"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -32379,11 +32815,11 @@
       <c r="C78" s="32">
         <v>0</v>
       </c>
-      <c r="D78" s="164"/>
+      <c r="D78" s="431"/>
       <c r="E78" s="32"/>
       <c r="F78" s="188">
         <f t="shared" si="1"/>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -32393,21 +32829,21 @@
         <f>SUM(C3:C78)</f>
         <v>2793202.57</v>
       </c>
-      <c r="D79" s="181"/>
+      <c r="D79" s="191"/>
       <c r="E79" s="170">
         <f>SUM(E3:E78)</f>
-        <v>0</v>
+        <v>2793202.57</v>
       </c>
       <c r="F79" s="171">
         <f>F78</f>
-        <v>2793202.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D80" s="164"/>
+      <c r="D80" s="431"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D81" s="164"/>
+      <c r="D81" s="431"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="225"/>
@@ -32553,8 +32989,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E18" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView tabSelected="1" topLeftCell="B30" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59:J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32579,23 +33015,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="381"/>
-      <c r="C1" s="383" t="s">
+      <c r="B1" s="408"/>
+      <c r="C1" s="410" t="s">
         <v>550</v>
       </c>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
-      <c r="H1" s="384"/>
-      <c r="I1" s="384"/>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="382"/>
+      <c r="B2" s="409"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -32605,21 +33041,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="385" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="386"/>
+      <c r="B3" s="412" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="413"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="387" t="s">
+      <c r="H3" s="414" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="387"/>
+      <c r="I3" s="414"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="392" t="s">
+      <c r="R3" s="381" t="s">
         <v>38</v>
       </c>
     </row>
@@ -32634,14 +33070,14 @@
       <c r="D4" s="16">
         <v>44864</v>
       </c>
-      <c r="E4" s="388" t="s">
+      <c r="E4" s="415" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="389"/>
-      <c r="H4" s="390" t="s">
+      <c r="F4" s="416"/>
+      <c r="H4" s="417" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="391"/>
+      <c r="I4" s="418"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -32651,11 +33087,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="399" t="s">
+      <c r="P4" s="388" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="400"/>
-      <c r="R4" s="393"/>
+      <c r="Q4" s="389"/>
+      <c r="R4" s="382"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -33900,31 +34336,38 @@
         <v>44890</v>
       </c>
       <c r="C30" s="24">
-        <v>0</v>
-      </c>
-      <c r="D30" s="347"/>
+        <v>15259</v>
+      </c>
+      <c r="D30" s="347" t="s">
+        <v>49</v>
+      </c>
       <c r="E30" s="322">
         <v>44890</v>
       </c>
-      <c r="F30" s="27"/>
+      <c r="F30" s="27">
+        <v>123489</v>
+      </c>
       <c r="G30" s="323"/>
       <c r="H30" s="324">
         <v>44890</v>
       </c>
-      <c r="I30" s="29"/>
+      <c r="I30" s="29">
+        <v>85</v>
+      </c>
       <c r="J30" s="71"/>
       <c r="K30" s="349"/>
       <c r="L30" s="73"/>
       <c r="M30" s="30">
-        <v>0</v>
+        <f>25000+50000+30025</f>
+        <v>105025</v>
       </c>
       <c r="N30" s="31">
-        <v>0</v>
+        <v>3120</v>
       </c>
       <c r="O30" s="314"/>
       <c r="P30" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>123489</v>
       </c>
       <c r="Q30" s="12">
         <f t="shared" si="0"/>
@@ -33949,25 +34392,36 @@
       <c r="E31" s="322">
         <v>44891</v>
       </c>
-      <c r="F31" s="27"/>
+      <c r="F31" s="27">
+        <v>123323</v>
+      </c>
       <c r="G31" s="323"/>
       <c r="H31" s="324">
         <v>44891</v>
       </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="351"/>
-      <c r="L31" s="75"/>
+      <c r="I31" s="29">
+        <v>96</v>
+      </c>
+      <c r="J31" s="71">
+        <v>44891</v>
+      </c>
+      <c r="K31" s="351" t="s">
+        <v>555</v>
+      </c>
+      <c r="L31" s="75">
+        <v>12000</v>
+      </c>
       <c r="M31" s="30">
-        <v>0</v>
+        <f>50000+47627</f>
+        <v>97627</v>
       </c>
       <c r="N31" s="31">
-        <v>0</v>
+        <v>13600</v>
       </c>
       <c r="O31" s="314"/>
       <c r="P31" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>123323</v>
       </c>
       <c r="Q31" s="12">
         <f t="shared" si="0"/>
@@ -33992,32 +34446,37 @@
       <c r="E32" s="322">
         <v>44892</v>
       </c>
-      <c r="F32" s="27"/>
+      <c r="F32" s="27">
+        <v>163298</v>
+      </c>
       <c r="G32" s="323"/>
       <c r="H32" s="324">
         <v>44892</v>
       </c>
-      <c r="I32" s="29"/>
+      <c r="I32" s="29">
+        <v>207</v>
+      </c>
       <c r="J32" s="71"/>
       <c r="K32" s="349"/>
       <c r="L32" s="73"/>
       <c r="M32" s="30">
-        <v>0</v>
+        <f>19492+40000+100000</f>
+        <v>159492</v>
       </c>
       <c r="N32" s="31">
-        <v>0</v>
+        <v>3599</v>
       </c>
       <c r="O32" s="314"/>
       <c r="P32" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>163298</v>
       </c>
       <c r="Q32" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R32" s="8">
-        <v>0</v>
+      <c r="R32" s="8" t="s">
+        <v>556</v>
       </c>
       <c r="S32" s="369">
         <v>44864</v>
@@ -34267,17 +34726,17 @@
       <c r="J40" s="71"/>
       <c r="K40" s="360"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="401">
+      <c r="M40" s="390">
         <f>SUM(M5:M39)</f>
-        <v>2610411</v>
-      </c>
-      <c r="N40" s="403">
+        <v>2972555</v>
+      </c>
+      <c r="N40" s="392">
         <f>SUM(N5:N39)</f>
-        <v>88616</v>
+        <v>108935</v>
       </c>
       <c r="P40" s="32">
         <f t="shared" si="1"/>
-        <v>2699027</v>
+        <v>3081490</v>
       </c>
       <c r="Q40" s="284">
         <f>SUM(Q5:Q39)</f>
@@ -34301,8 +34760,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="363"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="402"/>
-      <c r="N41" s="404"/>
+      <c r="M41" s="391"/>
+      <c r="N41" s="393"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -34475,7 +34934,7 @@
       </c>
       <c r="C51" s="102">
         <f>SUM(C5:C50)</f>
-        <v>90738</v>
+        <v>105997</v>
       </c>
       <c r="D51" s="103"/>
       <c r="E51" s="104" t="s">
@@ -34483,7 +34942,7 @@
       </c>
       <c r="F51" s="105">
         <f>SUM(F5:F50)</f>
-        <v>2767394</v>
+        <v>3177504</v>
       </c>
       <c r="G51" s="103"/>
       <c r="H51" s="106" t="s">
@@ -34491,7 +34950,7 @@
       </c>
       <c r="I51" s="107">
         <f>SUM(I5:I50)</f>
-        <v>3645</v>
+        <v>4033</v>
       </c>
       <c r="J51" s="108"/>
       <c r="K51" s="109" t="s">
@@ -34499,7 +34958,7 @@
       </c>
       <c r="L51" s="110">
         <f>SUM(L5:L50)</f>
-        <v>29510</v>
+        <v>41510</v>
       </c>
       <c r="M51" s="111"/>
       <c r="N51" s="111"/>
@@ -34517,32 +34976,32 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="405" t="s">
+      <c r="H53" s="394" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="406"/>
+      <c r="I53" s="395"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="407">
+      <c r="K53" s="396">
         <f>I51+L51</f>
-        <v>33155</v>
-      </c>
-      <c r="L53" s="408"/>
-      <c r="M53" s="409">
+        <v>45543</v>
+      </c>
+      <c r="L53" s="397"/>
+      <c r="M53" s="398">
         <f>N40+M40</f>
-        <v>2699027</v>
-      </c>
-      <c r="N53" s="410"/>
+        <v>3081490</v>
+      </c>
+      <c r="N53" s="399"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="411" t="s">
+      <c r="D54" s="400" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="411"/>
+      <c r="E54" s="400"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
-        <v>2643501</v>
+        <v>3025964</v>
       </c>
       <c r="I54" s="116"/>
       <c r="J54" s="117"/>
@@ -34550,22 +35009,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="412" t="s">
+      <c r="D55" s="401" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="412"/>
+      <c r="E55" s="401"/>
       <c r="F55" s="111">
-        <v>0</v>
-      </c>
-      <c r="I55" s="413" t="s">
+        <v>-2936244.87</v>
+      </c>
+      <c r="I55" s="402" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="414"/>
-      <c r="K55" s="415">
+      <c r="J55" s="403"/>
+      <c r="K55" s="404">
         <f>F57+F58+F59</f>
-        <v>2643501</v>
-      </c>
-      <c r="L55" s="416"/>
+        <v>476443.67999999988</v>
+      </c>
+      <c r="L55" s="405"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -34589,18 +35048,18 @@
       </c>
       <c r="F57" s="111">
         <f>SUM(F54:F56)</f>
-        <v>2643501</v>
+        <v>89719.129999999888</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="124" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="417">
+      <c r="K57" s="406">
         <f>-C4</f>
         <v>-419424.76</v>
       </c>
-      <c r="L57" s="418"/>
+      <c r="L57" s="407"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -34610,25 +35069,25 @@
         <v>19</v>
       </c>
       <c r="F58" s="127">
-        <v>0</v>
+        <v>71026</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C59" s="128"/>
-      <c r="D59" s="394" t="s">
+      <c r="C59" s="128">
+        <v>44892</v>
+      </c>
+      <c r="D59" s="383" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="395"/>
+      <c r="E59" s="384"/>
       <c r="F59" s="129">
-        <v>0</v>
-      </c>
-      <c r="I59" s="420" t="s">
-        <v>325</v>
-      </c>
+        <v>315698.55</v>
+      </c>
+      <c r="I59" s="420"/>
       <c r="J59" s="421"/>
       <c r="K59" s="422">
         <f>K55+K57</f>
-        <v>2224076.2400000002</v>
+        <v>57018.919999999867</v>
       </c>
       <c r="L59" s="422"/>
     </row>
@@ -34755,6 +35214,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -34764,18 +35235,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -34790,16 +35249,16 @@
   </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="193" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="224" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="193" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="238" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="11.42578125" style="33"/>
@@ -34813,7 +35272,7 @@
       </c>
       <c r="B1" s="222"/>
       <c r="C1" s="180"/>
-      <c r="D1" s="190"/>
+      <c r="D1" s="428"/>
       <c r="E1" s="180"/>
       <c r="F1" s="147" t="s">
         <v>21</v>
@@ -34839,12 +35298,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="377"/>
-      <c r="B3" s="378"/>
-      <c r="C3" s="256"/>
-      <c r="D3" s="302"/>
-      <c r="E3" s="303"/>
+    <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="377">
+        <v>44866</v>
+      </c>
+      <c r="B3" s="378" t="s">
+        <v>559</v>
+      </c>
+      <c r="C3" s="256">
+        <v>44181.2</v>
+      </c>
+      <c r="D3" s="435">
+        <v>44870</v>
+      </c>
+      <c r="E3" s="299">
+        <v>44181.2</v>
+      </c>
       <c r="F3" s="152">
         <f>C3-E3</f>
         <v>0</v>
@@ -34852,11 +35321,21 @@
       <c r="J3" s="127"/>
     </row>
     <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="379"/>
-      <c r="B4" s="380"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="302"/>
-      <c r="E4" s="294"/>
+      <c r="A4" s="379">
+        <v>44866</v>
+      </c>
+      <c r="B4" s="380" t="s">
+        <v>558</v>
+      </c>
+      <c r="C4" s="127">
+        <v>52074.400000000001</v>
+      </c>
+      <c r="D4" s="435">
+        <v>44870</v>
+      </c>
+      <c r="E4" s="277">
+        <v>52074.400000000001</v>
+      </c>
       <c r="F4" s="188">
         <f>C4-E4+F3</f>
         <v>0</v>
@@ -34864,11 +35343,21 @@
       <c r="J4" s="256"/>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="379"/>
-      <c r="B5" s="380"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="302"/>
-      <c r="E5" s="294"/>
+      <c r="A5" s="379">
+        <v>44867</v>
+      </c>
+      <c r="B5" s="380" t="s">
+        <v>560</v>
+      </c>
+      <c r="C5" s="127">
+        <v>5254</v>
+      </c>
+      <c r="D5" s="435">
+        <v>44870</v>
+      </c>
+      <c r="E5" s="277">
+        <v>5254</v>
+      </c>
       <c r="F5" s="188">
         <f t="shared" ref="F5:F68" si="0">C5-E5+F4</f>
         <v>0</v>
@@ -34876,11 +35365,21 @@
       <c r="J5" s="127"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="379"/>
-      <c r="B6" s="380"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="302"/>
-      <c r="E6" s="294"/>
+      <c r="A6" s="379">
+        <v>44868</v>
+      </c>
+      <c r="B6" s="380" t="s">
+        <v>561</v>
+      </c>
+      <c r="C6" s="127">
+        <v>103458.88</v>
+      </c>
+      <c r="D6" s="435">
+        <v>44870</v>
+      </c>
+      <c r="E6" s="277">
+        <v>103458.88</v>
+      </c>
       <c r="F6" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -34889,11 +35388,21 @@
       <c r="J6" s="127"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="379"/>
-      <c r="B7" s="380"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="302"/>
-      <c r="E7" s="294"/>
+      <c r="A7" s="379">
+        <v>44868</v>
+      </c>
+      <c r="B7" s="380" t="s">
+        <v>562</v>
+      </c>
+      <c r="C7" s="127">
+        <v>76672.5</v>
+      </c>
+      <c r="D7" s="435">
+        <v>44870</v>
+      </c>
+      <c r="E7" s="277">
+        <v>76672.5</v>
+      </c>
       <c r="F7" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -34901,11 +35410,21 @@
       <c r="J7" s="127"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="379"/>
-      <c r="B8" s="380"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="302"/>
-      <c r="E8" s="294"/>
+      <c r="A8" s="379">
+        <v>44869</v>
+      </c>
+      <c r="B8" s="380" t="s">
+        <v>563</v>
+      </c>
+      <c r="C8" s="127">
+        <v>113523.28</v>
+      </c>
+      <c r="D8" s="435">
+        <v>44870</v>
+      </c>
+      <c r="E8" s="277">
+        <v>113523.28</v>
+      </c>
       <c r="F8" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -34913,11 +35432,21 @@
       <c r="J8" s="127"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="379"/>
-      <c r="B9" s="380"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="276"/>
-      <c r="E9" s="277"/>
+      <c r="A9" s="379">
+        <v>44870</v>
+      </c>
+      <c r="B9" s="380" t="s">
+        <v>564</v>
+      </c>
+      <c r="C9" s="127">
+        <v>182125.94</v>
+      </c>
+      <c r="D9" s="304">
+        <v>44877</v>
+      </c>
+      <c r="E9" s="274">
+        <v>182125.94</v>
+      </c>
       <c r="F9" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -34925,11 +35454,21 @@
       <c r="J9" s="127"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="379"/>
-      <c r="B10" s="380"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="276"/>
-      <c r="E10" s="277"/>
+      <c r="A10" s="379">
+        <v>44872</v>
+      </c>
+      <c r="B10" s="380" t="s">
+        <v>565</v>
+      </c>
+      <c r="C10" s="127">
+        <v>155861.72</v>
+      </c>
+      <c r="D10" s="304">
+        <v>44877</v>
+      </c>
+      <c r="E10" s="274">
+        <v>155861.72</v>
+      </c>
       <c r="F10" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -34939,11 +35478,21 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="379"/>
-      <c r="B11" s="380"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="276"/>
-      <c r="E11" s="277"/>
+      <c r="A11" s="379">
+        <v>44875</v>
+      </c>
+      <c r="B11" s="380" t="s">
+        <v>566</v>
+      </c>
+      <c r="C11" s="127">
+        <v>172319.6</v>
+      </c>
+      <c r="D11" s="304">
+        <v>44877</v>
+      </c>
+      <c r="E11" s="274">
+        <v>172319.6</v>
+      </c>
       <c r="F11" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -34954,11 +35503,21 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="379"/>
-      <c r="B12" s="380"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="276"/>
-      <c r="E12" s="277"/>
+      <c r="A12" s="379">
+        <v>44875</v>
+      </c>
+      <c r="B12" s="380" t="s">
+        <v>567</v>
+      </c>
+      <c r="C12" s="127">
+        <v>25739.54</v>
+      </c>
+      <c r="D12" s="304">
+        <v>44877</v>
+      </c>
+      <c r="E12" s="274">
+        <v>25739.54</v>
+      </c>
       <c r="F12" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -34966,224 +35525,401 @@
       <c r="G12" s="156"/>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="379"/>
-      <c r="B13" s="380"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="276"/>
-      <c r="E13" s="277"/>
+      <c r="A13" s="379">
+        <v>44876</v>
+      </c>
+      <c r="B13" s="380" t="s">
+        <v>568</v>
+      </c>
+      <c r="C13" s="127">
+        <v>161041.70000000001</v>
+      </c>
+      <c r="D13" s="304">
+        <v>44877</v>
+      </c>
+      <c r="E13" s="274">
+        <v>161041.70000000001</v>
+      </c>
       <c r="F13" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="379"/>
-      <c r="B14" s="380"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="276"/>
-      <c r="E14" s="277"/>
+      <c r="A14" s="379">
+        <v>44876</v>
+      </c>
+      <c r="B14" s="380" t="s">
+        <v>569</v>
+      </c>
+      <c r="C14" s="127">
+        <v>5213.6400000000003</v>
+      </c>
+      <c r="D14" s="304">
+        <v>44877</v>
+      </c>
+      <c r="E14" s="274">
+        <v>5213.6400000000003</v>
+      </c>
       <c r="F14" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="379"/>
-      <c r="B15" s="380"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="276"/>
-      <c r="E15" s="277"/>
+      <c r="A15" s="379">
+        <v>44877</v>
+      </c>
+      <c r="B15" s="380" t="s">
+        <v>570</v>
+      </c>
+      <c r="C15" s="127">
+        <v>184631.6</v>
+      </c>
+      <c r="D15" s="257">
+        <v>44884</v>
+      </c>
+      <c r="E15" s="127">
+        <v>184631.6</v>
+      </c>
       <c r="F15" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="379"/>
-      <c r="B16" s="380"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="276"/>
-      <c r="E16" s="277"/>
+      <c r="A16" s="379">
+        <v>44877</v>
+      </c>
+      <c r="B16" s="380" t="s">
+        <v>571</v>
+      </c>
+      <c r="C16" s="127">
+        <v>10281.76</v>
+      </c>
+      <c r="D16" s="257">
+        <v>44884</v>
+      </c>
+      <c r="E16" s="127">
+        <v>10281.76</v>
+      </c>
       <c r="F16" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="379"/>
-      <c r="B17" s="380"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="276"/>
-      <c r="E17" s="277"/>
+      <c r="A17" s="379">
+        <v>44879</v>
+      </c>
+      <c r="B17" s="380" t="s">
+        <v>572</v>
+      </c>
+      <c r="C17" s="127">
+        <v>159496.46</v>
+      </c>
+      <c r="D17" s="257">
+        <v>44884</v>
+      </c>
+      <c r="E17" s="127">
+        <v>159496.46</v>
+      </c>
       <c r="F17" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="379"/>
-      <c r="B18" s="380"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="304"/>
-      <c r="E18" s="274"/>
+      <c r="A18" s="379">
+        <v>44879</v>
+      </c>
+      <c r="B18" s="380" t="s">
+        <v>573</v>
+      </c>
+      <c r="C18" s="127">
+        <v>1076.4000000000001</v>
+      </c>
+      <c r="D18" s="257">
+        <v>44884</v>
+      </c>
+      <c r="E18" s="127">
+        <v>1076.4000000000001</v>
+      </c>
       <c r="F18" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="379"/>
-      <c r="B19" s="380"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="304"/>
-      <c r="E19" s="274"/>
+      <c r="A19" s="379">
+        <v>44880</v>
+      </c>
+      <c r="B19" s="380" t="s">
+        <v>574</v>
+      </c>
+      <c r="C19" s="127">
+        <v>164517.22</v>
+      </c>
+      <c r="D19" s="257">
+        <v>44884</v>
+      </c>
+      <c r="E19" s="127">
+        <v>164517.22</v>
+      </c>
       <c r="F19" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="379"/>
-      <c r="B20" s="380"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="304"/>
-      <c r="E20" s="274"/>
+      <c r="A20" s="379">
+        <v>44882</v>
+      </c>
+      <c r="B20" s="380" t="s">
+        <v>575</v>
+      </c>
+      <c r="C20" s="127">
+        <v>189776.71</v>
+      </c>
+      <c r="D20" s="257">
+        <v>44884</v>
+      </c>
+      <c r="E20" s="127">
+        <v>189776.71</v>
+      </c>
       <c r="F20" s="188">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="379"/>
-      <c r="B21" s="380"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="304"/>
-      <c r="E21" s="274"/>
+    <row r="21" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="379">
+        <v>44883</v>
+      </c>
+      <c r="B21" s="380" t="s">
+        <v>576</v>
+      </c>
+      <c r="C21" s="127">
+        <v>167573.96</v>
+      </c>
+      <c r="D21" s="436" t="s">
+        <v>585</v>
+      </c>
+      <c r="E21" s="296">
+        <f>100000+67573.96</f>
+        <v>167573.96000000002</v>
+      </c>
       <c r="F21" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="379"/>
-      <c r="B22" s="380"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="304"/>
-      <c r="E22" s="274"/>
+      <c r="A22" s="379">
+        <v>44883</v>
+      </c>
+      <c r="B22" s="380" t="s">
+        <v>577</v>
+      </c>
+      <c r="C22" s="127">
+        <v>6583.4</v>
+      </c>
+      <c r="D22" s="297">
+        <v>44891</v>
+      </c>
+      <c r="E22" s="296">
+        <v>6583.4</v>
+      </c>
       <c r="F22" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="379"/>
-      <c r="B23" s="380"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="304"/>
-      <c r="E23" s="274"/>
+      <c r="A23" s="379">
+        <v>44884</v>
+      </c>
+      <c r="B23" s="380" t="s">
+        <v>578</v>
+      </c>
+      <c r="C23" s="127">
+        <v>203511.5</v>
+      </c>
+      <c r="D23" s="297">
+        <v>44891</v>
+      </c>
+      <c r="E23" s="296">
+        <v>203511.5</v>
+      </c>
       <c r="F23" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="379"/>
-      <c r="B24" s="380"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="304"/>
-      <c r="E24" s="274"/>
+      <c r="A24" s="379">
+        <v>44887</v>
+      </c>
+      <c r="B24" s="380" t="s">
+        <v>579</v>
+      </c>
+      <c r="C24" s="127">
+        <v>165026.14000000001</v>
+      </c>
+      <c r="D24" s="297">
+        <v>44891</v>
+      </c>
+      <c r="E24" s="296">
+        <v>165026.14000000001</v>
+      </c>
       <c r="F24" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
       <c r="G24" s="156"/>
     </row>
     <row r="25" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="379"/>
-      <c r="B25" s="380"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="304"/>
-      <c r="E25" s="274"/>
+      <c r="A25" s="379">
+        <v>44888</v>
+      </c>
+      <c r="B25" s="380" t="s">
+        <v>580</v>
+      </c>
+      <c r="C25" s="127">
+        <v>18120.78</v>
+      </c>
+      <c r="D25" s="297">
+        <v>44891</v>
+      </c>
+      <c r="E25" s="296">
+        <v>18120.78</v>
+      </c>
       <c r="F25" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="379"/>
-      <c r="B26" s="380"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="259"/>
-      <c r="E26" s="127"/>
+      <c r="A26" s="379">
+        <v>44889</v>
+      </c>
+      <c r="B26" s="380" t="s">
+        <v>581</v>
+      </c>
+      <c r="C26" s="127">
+        <v>212875.58</v>
+      </c>
+      <c r="D26" s="297">
+        <v>44891</v>
+      </c>
+      <c r="E26" s="296">
+        <v>212875.58</v>
+      </c>
       <c r="F26" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="379"/>
-      <c r="B27" s="380"/>
-      <c r="C27" s="127"/>
-      <c r="D27" s="259"/>
-      <c r="E27" s="127"/>
+      <c r="A27" s="379">
+        <v>44889</v>
+      </c>
+      <c r="B27" s="380" t="s">
+        <v>582</v>
+      </c>
+      <c r="C27" s="127">
+        <v>20383</v>
+      </c>
+      <c r="D27" s="297">
+        <v>44891</v>
+      </c>
+      <c r="E27" s="296">
+        <v>20383</v>
+      </c>
       <c r="F27" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="379"/>
-      <c r="B28" s="380"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="259"/>
-      <c r="E28" s="127"/>
+      <c r="A28" s="379">
+        <v>44889</v>
+      </c>
+      <c r="B28" s="380" t="s">
+        <v>583</v>
+      </c>
+      <c r="C28" s="127">
+        <v>5998.5</v>
+      </c>
+      <c r="D28" s="297">
+        <v>44891</v>
+      </c>
+      <c r="E28" s="296">
+        <v>5998.5</v>
+      </c>
       <c r="F28" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="379"/>
-      <c r="B29" s="380"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="259"/>
-      <c r="E29" s="127"/>
+      <c r="A29" s="379">
+        <v>44890</v>
+      </c>
+      <c r="B29" s="380" t="s">
+        <v>584</v>
+      </c>
+      <c r="C29" s="127">
+        <v>168840.48</v>
+      </c>
+      <c r="D29" s="297">
+        <v>44891</v>
+      </c>
+      <c r="E29" s="296">
+        <v>168840.48</v>
+      </c>
       <c r="F29" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="257"/>
-      <c r="B30" s="258"/>
-      <c r="C30" s="127"/>
+      <c r="A30" s="257">
+        <v>44891</v>
+      </c>
+      <c r="B30" s="258" t="s">
+        <v>586</v>
+      </c>
+      <c r="C30" s="127">
+        <v>160084.98000000001</v>
+      </c>
       <c r="D30" s="257"/>
       <c r="E30" s="127"/>
       <c r="F30" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="257"/>
       <c r="B31" s="258"/>
       <c r="C31" s="127"/>
-      <c r="D31" s="259"/>
+      <c r="D31" s="257"/>
       <c r="E31" s="127"/>
       <c r="F31" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="257"/>
       <c r="B32" s="258"/>
       <c r="C32" s="127"/>
-      <c r="D32" s="259"/>
+      <c r="D32" s="257"/>
       <c r="E32" s="127"/>
       <c r="F32" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
       <c r="G32" s="156"/>
     </row>
@@ -35191,495 +35927,495 @@
       <c r="A33" s="257"/>
       <c r="B33" s="258"/>
       <c r="C33" s="127"/>
-      <c r="D33" s="259"/>
+      <c r="D33" s="257"/>
       <c r="E33" s="127"/>
       <c r="F33" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="257"/>
       <c r="B34" s="258"/>
       <c r="C34" s="127"/>
-      <c r="D34" s="259"/>
+      <c r="D34" s="257"/>
       <c r="E34" s="127"/>
       <c r="F34" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="257"/>
       <c r="B35" s="258"/>
       <c r="C35" s="127"/>
-      <c r="D35" s="259"/>
+      <c r="D35" s="257"/>
       <c r="E35" s="127"/>
       <c r="F35" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="257"/>
       <c r="B36" s="258"/>
       <c r="C36" s="127"/>
-      <c r="D36" s="259"/>
+      <c r="D36" s="257"/>
       <c r="E36" s="127"/>
       <c r="F36" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="257"/>
       <c r="B37" s="258"/>
       <c r="C37" s="127"/>
-      <c r="D37" s="259"/>
+      <c r="D37" s="257"/>
       <c r="E37" s="127"/>
       <c r="F37" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="257"/>
       <c r="B38" s="258"/>
       <c r="C38" s="127"/>
-      <c r="D38" s="259"/>
+      <c r="D38" s="257"/>
       <c r="E38" s="127"/>
       <c r="F38" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="257"/>
       <c r="B39" s="258"/>
       <c r="C39" s="127"/>
-      <c r="D39" s="259"/>
+      <c r="D39" s="257"/>
       <c r="E39" s="127"/>
       <c r="F39" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="257"/>
       <c r="B40" s="258"/>
       <c r="C40" s="127"/>
-      <c r="D40" s="259"/>
+      <c r="D40" s="257"/>
       <c r="E40" s="84"/>
       <c r="F40" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="257"/>
       <c r="B41" s="258"/>
       <c r="C41" s="127"/>
-      <c r="D41" s="259"/>
+      <c r="D41" s="257"/>
       <c r="E41" s="84"/>
       <c r="F41" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="259"/>
       <c r="B42" s="260"/>
       <c r="C42" s="84"/>
-      <c r="D42" s="259"/>
+      <c r="D42" s="257"/>
       <c r="E42" s="84"/>
       <c r="F42" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="157"/>
       <c r="B43" s="154"/>
       <c r="C43" s="84"/>
-      <c r="D43" s="153"/>
+      <c r="D43" s="430"/>
       <c r="E43" s="84"/>
       <c r="F43" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="158"/>
       <c r="B44" s="159"/>
       <c r="C44" s="160"/>
-      <c r="D44" s="153"/>
+      <c r="D44" s="430"/>
       <c r="E44" s="84"/>
       <c r="F44" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="158"/>
       <c r="B45" s="159"/>
       <c r="C45" s="160"/>
-      <c r="D45" s="153"/>
+      <c r="D45" s="430"/>
       <c r="E45" s="84"/>
       <c r="F45" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="158"/>
       <c r="B46" s="159"/>
       <c r="C46" s="160"/>
-      <c r="D46" s="153"/>
+      <c r="D46" s="430"/>
       <c r="E46" s="84"/>
       <c r="F46" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="158"/>
       <c r="B47" s="159"/>
       <c r="C47" s="160"/>
-      <c r="D47" s="153"/>
+      <c r="D47" s="430"/>
       <c r="E47" s="84"/>
       <c r="F47" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="158"/>
       <c r="B48" s="159"/>
       <c r="C48" s="160"/>
-      <c r="D48" s="153"/>
+      <c r="D48" s="430"/>
       <c r="E48" s="84"/>
       <c r="F48" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="158"/>
       <c r="B49" s="159"/>
       <c r="C49" s="160"/>
-      <c r="D49" s="153"/>
+      <c r="D49" s="430"/>
       <c r="E49" s="84"/>
       <c r="F49" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="158"/>
       <c r="B50" s="159"/>
       <c r="C50" s="160"/>
-      <c r="D50" s="153"/>
+      <c r="D50" s="430"/>
       <c r="E50" s="84"/>
       <c r="F50" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="158"/>
       <c r="B51" s="159"/>
       <c r="C51" s="160"/>
-      <c r="D51" s="153"/>
+      <c r="D51" s="430"/>
       <c r="E51" s="84"/>
       <c r="F51" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="158"/>
       <c r="B52" s="159"/>
       <c r="C52" s="160"/>
-      <c r="D52" s="153"/>
+      <c r="D52" s="430"/>
       <c r="E52" s="84"/>
       <c r="F52" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="158"/>
       <c r="B53" s="159"/>
       <c r="C53" s="160"/>
-      <c r="D53" s="153"/>
+      <c r="D53" s="430"/>
       <c r="E53" s="84"/>
       <c r="F53" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="158"/>
       <c r="B54" s="159"/>
       <c r="C54" s="160"/>
-      <c r="D54" s="153"/>
+      <c r="D54" s="430"/>
       <c r="E54" s="84"/>
       <c r="F54" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="158"/>
       <c r="B55" s="159"/>
       <c r="C55" s="160"/>
-      <c r="D55" s="153"/>
+      <c r="D55" s="430"/>
       <c r="E55" s="84"/>
       <c r="F55" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="158"/>
       <c r="B56" s="159"/>
       <c r="C56" s="160"/>
-      <c r="D56" s="153"/>
+      <c r="D56" s="430"/>
       <c r="E56" s="84"/>
       <c r="F56" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="158"/>
       <c r="B57" s="159"/>
       <c r="C57" s="160"/>
-      <c r="D57" s="153"/>
+      <c r="D57" s="430"/>
       <c r="E57" s="84"/>
       <c r="F57" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="158"/>
       <c r="B58" s="159"/>
       <c r="C58" s="160"/>
-      <c r="D58" s="153"/>
+      <c r="D58" s="430"/>
       <c r="E58" s="84"/>
       <c r="F58" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="158"/>
       <c r="B59" s="159"/>
       <c r="C59" s="160"/>
-      <c r="D59" s="153"/>
+      <c r="D59" s="430"/>
       <c r="E59" s="84"/>
       <c r="F59" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="158"/>
       <c r="B60" s="159"/>
       <c r="C60" s="160"/>
-      <c r="D60" s="153"/>
+      <c r="D60" s="430"/>
       <c r="E60" s="84"/>
       <c r="F60" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="158"/>
       <c r="B61" s="159"/>
       <c r="C61" s="160"/>
-      <c r="D61" s="153"/>
+      <c r="D61" s="430"/>
       <c r="E61" s="84"/>
       <c r="F61" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="161"/>
       <c r="B62" s="162"/>
       <c r="C62" s="163"/>
-      <c r="D62" s="164"/>
+      <c r="D62" s="431"/>
       <c r="E62" s="32"/>
       <c r="F62" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="161"/>
       <c r="B63" s="162"/>
       <c r="C63" s="163"/>
-      <c r="D63" s="164"/>
+      <c r="D63" s="431"/>
       <c r="E63" s="32"/>
       <c r="F63" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="161"/>
       <c r="B64" s="162"/>
       <c r="C64" s="163"/>
-      <c r="D64" s="164"/>
+      <c r="D64" s="431"/>
       <c r="E64" s="32"/>
       <c r="F64" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="161"/>
       <c r="B65" s="162"/>
       <c r="C65" s="163"/>
-      <c r="D65" s="164"/>
+      <c r="D65" s="431"/>
       <c r="E65" s="32"/>
       <c r="F65" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="161"/>
       <c r="B66" s="162"/>
       <c r="C66" s="163"/>
-      <c r="D66" s="164"/>
+      <c r="D66" s="431"/>
       <c r="E66" s="32"/>
       <c r="F66" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="161"/>
       <c r="B67" s="162"/>
       <c r="C67" s="163"/>
-      <c r="D67" s="164"/>
+      <c r="D67" s="431"/>
       <c r="E67" s="32"/>
       <c r="F67" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="158"/>
       <c r="B68" s="159"/>
       <c r="C68" s="160"/>
-      <c r="D68" s="153"/>
+      <c r="D68" s="430"/>
       <c r="E68" s="84"/>
       <c r="F68" s="188">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="158"/>
       <c r="B69" s="159"/>
       <c r="C69" s="160"/>
-      <c r="D69" s="153"/>
+      <c r="D69" s="430"/>
       <c r="E69" s="84"/>
       <c r="F69" s="188">
         <f t="shared" ref="F69:F78" si="1">C69-E69+F68</f>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="158"/>
       <c r="B70" s="159"/>
       <c r="C70" s="160"/>
-      <c r="D70" s="153"/>
+      <c r="D70" s="430"/>
       <c r="E70" s="84"/>
       <c r="F70" s="188">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="158"/>
       <c r="B71" s="159"/>
       <c r="C71" s="160"/>
-      <c r="D71" s="153"/>
+      <c r="D71" s="430"/>
       <c r="E71" s="84"/>
       <c r="F71" s="188">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="158"/>
       <c r="B72" s="159"/>
       <c r="C72" s="160"/>
-      <c r="D72" s="153"/>
+      <c r="D72" s="430"/>
       <c r="E72" s="84"/>
       <c r="F72" s="188">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="158"/>
       <c r="B73" s="159"/>
       <c r="C73" s="160"/>
-      <c r="D73" s="153"/>
+      <c r="D73" s="430"/>
       <c r="E73" s="84"/>
       <c r="F73" s="188">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="158"/>
       <c r="B74" s="159"/>
       <c r="C74" s="160"/>
-      <c r="D74" s="153"/>
+      <c r="D74" s="430"/>
       <c r="E74" s="84"/>
       <c r="F74" s="188">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="158"/>
       <c r="B75" s="159"/>
       <c r="C75" s="160"/>
-      <c r="D75" s="153"/>
+      <c r="D75" s="430"/>
       <c r="E75" s="84"/>
       <c r="F75" s="188">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="158"/>
       <c r="B76" s="159"/>
       <c r="C76" s="160"/>
-      <c r="D76" s="153"/>
+      <c r="D76" s="430"/>
       <c r="E76" s="84"/>
       <c r="F76" s="188">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="158"/>
       <c r="B77" s="159"/>
       <c r="C77" s="160"/>
-      <c r="D77" s="153"/>
+      <c r="D77" s="430"/>
       <c r="E77" s="84"/>
       <c r="F77" s="188">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -35688,35 +36424,35 @@
       <c r="C78" s="32">
         <v>0</v>
       </c>
-      <c r="D78" s="164"/>
+      <c r="D78" s="431"/>
       <c r="E78" s="32"/>
       <c r="F78" s="188">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="204"/>
       <c r="B79" s="223"/>
-      <c r="C79" s="240">
+      <c r="C79" s="437">
         <f>SUM(C3:C78)</f>
-        <v>0</v>
-      </c>
-      <c r="D79" s="181"/>
+        <v>2936244.8699999996</v>
+      </c>
+      <c r="D79" s="191"/>
       <c r="E79" s="170">
         <f>SUM(E3:E78)</f>
-        <v>0</v>
+        <v>2776159.8899999997</v>
       </c>
       <c r="F79" s="171">
         <f>F78</f>
-        <v>0</v>
+        <v>160084.97999999998</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D80" s="164"/>
+      <c r="D80" s="431"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D81" s="164"/>
+      <c r="D81" s="431"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="225"/>
@@ -35898,23 +36634,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="381"/>
-      <c r="C1" s="383" t="s">
+      <c r="B1" s="408"/>
+      <c r="C1" s="410" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
-      <c r="H1" s="384"/>
-      <c r="I1" s="384"/>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="382"/>
+      <c r="B2" s="409"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -35924,21 +36660,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="385" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="386"/>
+      <c r="B3" s="412" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="413"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="387" t="s">
+      <c r="H3" s="414" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="387"/>
+      <c r="I3" s="414"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="392" t="s">
+      <c r="R3" s="381" t="s">
         <v>38</v>
       </c>
     </row>
@@ -35953,14 +36689,14 @@
       <c r="D4" s="16">
         <v>44591</v>
       </c>
-      <c r="E4" s="388" t="s">
+      <c r="E4" s="415" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="389"/>
-      <c r="H4" s="390" t="s">
+      <c r="F4" s="416"/>
+      <c r="H4" s="417" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="391"/>
+      <c r="I4" s="418"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -35970,11 +36706,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="399" t="s">
+      <c r="P4" s="388" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="400"/>
-      <c r="R4" s="393"/>
+      <c r="Q4" s="389"/>
+      <c r="R4" s="382"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -37415,7 +38151,7 @@
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="403">
+      <c r="N40" s="392">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -37440,8 +38176,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="402"/>
-      <c r="N41" s="404"/>
+      <c r="M41" s="391"/>
+      <c r="N41" s="393"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -37648,29 +38384,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="405" t="s">
+      <c r="H53" s="394" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="406"/>
+      <c r="I53" s="395"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="407">
+      <c r="K53" s="396">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="408"/>
-      <c r="M53" s="409">
+      <c r="L53" s="397"/>
+      <c r="M53" s="398">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="410"/>
+      <c r="N53" s="399"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="411" t="s">
+      <c r="D54" s="400" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="411"/>
+      <c r="E54" s="400"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -37681,22 +38417,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="412" t="s">
+      <c r="D55" s="401" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="412"/>
+      <c r="E55" s="401"/>
       <c r="F55" s="111">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="413" t="s">
+      <c r="I55" s="402" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="414"/>
-      <c r="K55" s="415">
+      <c r="J55" s="403"/>
+      <c r="K55" s="404">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="416"/>
+      <c r="L55" s="405"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -37727,11 +38463,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="417">
+      <c r="K57" s="406">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="418"/>
+      <c r="L57" s="407"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -37748,22 +38484,22 @@
       <c r="C59" s="128">
         <v>44619</v>
       </c>
-      <c r="D59" s="394" t="s">
+      <c r="D59" s="383" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="395"/>
+      <c r="E59" s="384"/>
       <c r="F59" s="129">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="396" t="s">
+      <c r="I59" s="385" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="397"/>
-      <c r="K59" s="398">
+      <c r="J59" s="386"/>
+      <c r="K59" s="387">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="398"/>
+      <c r="L59" s="387"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -37888,6 +38624,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -37897,18 +38645,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -39213,23 +39949,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="381"/>
-      <c r="C1" s="383" t="s">
+      <c r="B1" s="408"/>
+      <c r="C1" s="410" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
-      <c r="H1" s="384"/>
-      <c r="I1" s="384"/>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="382"/>
+      <c r="B2" s="409"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -39239,21 +39975,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="385" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="386"/>
+      <c r="B3" s="412" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="413"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="387" t="s">
+      <c r="H3" s="414" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="387"/>
+      <c r="I3" s="414"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="392" t="s">
+      <c r="R3" s="381" t="s">
         <v>38</v>
       </c>
     </row>
@@ -39268,14 +40004,14 @@
       <c r="D4" s="16">
         <v>44619</v>
       </c>
-      <c r="E4" s="388" t="s">
+      <c r="E4" s="415" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="389"/>
-      <c r="H4" s="390" t="s">
+      <c r="F4" s="416"/>
+      <c r="H4" s="417" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="391"/>
+      <c r="I4" s="418"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -39285,11 +40021,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="399" t="s">
+      <c r="P4" s="388" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="400"/>
-      <c r="R4" s="393"/>
+      <c r="Q4" s="389"/>
+      <c r="R4" s="382"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -40740,11 +41476,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="401">
+      <c r="M40" s="390">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="403">
+      <c r="N40" s="392">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -40769,8 +41505,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="402"/>
-      <c r="N41" s="404"/>
+      <c r="M41" s="391"/>
+      <c r="N41" s="393"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -40909,29 +41645,29 @@
       <c r="A49" s="33"/>
       <c r="B49" s="113"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="405" t="s">
+      <c r="H49" s="394" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="406"/>
+      <c r="I49" s="395"/>
       <c r="J49" s="114"/>
-      <c r="K49" s="407">
+      <c r="K49" s="396">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="408"/>
-      <c r="M49" s="409">
+      <c r="L49" s="397"/>
+      <c r="M49" s="398">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="410"/>
+      <c r="N49" s="399"/>
       <c r="P49" s="32"/>
       <c r="Q49" s="8"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="411" t="s">
+      <c r="D50" s="400" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="411"/>
+      <c r="E50" s="400"/>
       <c r="F50" s="115">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -40942,22 +41678,22 @@
       <c r="Q50" s="8"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="412" t="s">
+      <c r="D51" s="401" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="412"/>
+      <c r="E51" s="401"/>
       <c r="F51" s="111">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="413" t="s">
+      <c r="I51" s="402" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="414"/>
-      <c r="K51" s="415">
+      <c r="J51" s="403"/>
+      <c r="K51" s="404">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="416"/>
+      <c r="L51" s="405"/>
       <c r="P51" s="32"/>
       <c r="Q51" s="8"/>
     </row>
@@ -40988,11 +41724,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="125"/>
-      <c r="K53" s="417">
+      <c r="K53" s="406">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="418"/>
+      <c r="L53" s="407"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="126" t="s">
@@ -41009,22 +41745,22 @@
       <c r="C55" s="128">
         <v>44647</v>
       </c>
-      <c r="D55" s="394" t="s">
+      <c r="D55" s="383" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="395"/>
+      <c r="E55" s="384"/>
       <c r="F55" s="129">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="396" t="s">
+      <c r="I55" s="385" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="397"/>
-      <c r="K55" s="398">
+      <c r="J55" s="386"/>
+      <c r="K55" s="387">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="398"/>
+      <c r="L55" s="387"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="130"/>
@@ -41152,18 +41888,6 @@
     <sortCondition ref="J34:J38"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -41173,6 +41897,18 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="M49:N49"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -42647,23 +43383,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="381"/>
-      <c r="C1" s="383" t="s">
+      <c r="B1" s="408"/>
+      <c r="C1" s="410" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
-      <c r="H1" s="384"/>
-      <c r="I1" s="384"/>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="382"/>
+      <c r="B2" s="409"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -42673,21 +43409,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="385" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="386"/>
+      <c r="B3" s="412" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="413"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="387" t="s">
+      <c r="H3" s="414" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="387"/>
+      <c r="I3" s="414"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="392" t="s">
+      <c r="R3" s="381" t="s">
         <v>38</v>
       </c>
     </row>
@@ -42702,14 +43438,14 @@
       <c r="D4" s="16">
         <v>44647</v>
       </c>
-      <c r="E4" s="388" t="s">
+      <c r="E4" s="415" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="389"/>
-      <c r="H4" s="390" t="s">
+      <c r="F4" s="416"/>
+      <c r="H4" s="417" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="391"/>
+      <c r="I4" s="418"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -42719,11 +43455,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="399" t="s">
+      <c r="P4" s="388" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="400"/>
-      <c r="R4" s="393"/>
+      <c r="Q4" s="389"/>
+      <c r="R4" s="382"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -44320,11 +45056,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="401">
+      <c r="M40" s="390">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="403">
+      <c r="N40" s="392">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -44355,8 +45091,8 @@
       <c r="L41" s="73">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="402"/>
-      <c r="N41" s="404"/>
+      <c r="M41" s="391"/>
+      <c r="N41" s="393"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -44587,29 +45323,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="405" t="s">
+      <c r="H53" s="394" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="406"/>
+      <c r="I53" s="395"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="407">
+      <c r="K53" s="396">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="408"/>
-      <c r="M53" s="409">
+      <c r="L53" s="397"/>
+      <c r="M53" s="398">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="410"/>
+      <c r="N53" s="399"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="411" t="s">
+      <c r="D54" s="400" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="411"/>
+      <c r="E54" s="400"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -44620,22 +45356,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="412" t="s">
+      <c r="D55" s="401" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="412"/>
+      <c r="E55" s="401"/>
       <c r="F55" s="111">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="413" t="s">
+      <c r="I55" s="402" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="414"/>
-      <c r="K55" s="415">
+      <c r="J55" s="403"/>
+      <c r="K55" s="404">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="416"/>
+      <c r="L55" s="405"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -44666,11 +45402,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="417">
+      <c r="K57" s="406">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="418"/>
+      <c r="L57" s="407"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -44687,22 +45423,22 @@
       <c r="C59" s="128">
         <v>44682</v>
       </c>
-      <c r="D59" s="394" t="s">
+      <c r="D59" s="383" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="395"/>
+      <c r="E59" s="384"/>
       <c r="F59" s="129">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="396" t="s">
+      <c r="I59" s="385" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="397"/>
-      <c r="K59" s="398">
+      <c r="J59" s="386"/>
+      <c r="K59" s="387">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="398"/>
+      <c r="L59" s="387"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -44830,18 +45566,6 @@
     <sortCondition ref="J40:J44"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -44851,6 +45575,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -46354,23 +47090,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="381"/>
-      <c r="C1" s="383" t="s">
+      <c r="B1" s="408"/>
+      <c r="C1" s="410" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
-      <c r="H1" s="384"/>
-      <c r="I1" s="384"/>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="384"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="382"/>
+      <c r="B2" s="409"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -46380,21 +47116,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="385" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="386"/>
+      <c r="B3" s="412" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="413"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="387" t="s">
+      <c r="H3" s="414" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="387"/>
+      <c r="I3" s="414"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="392" t="s">
+      <c r="R3" s="381" t="s">
         <v>38</v>
       </c>
     </row>
@@ -46409,14 +47145,14 @@
       <c r="D4" s="16">
         <v>44682</v>
       </c>
-      <c r="E4" s="388" t="s">
+      <c r="E4" s="415" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="389"/>
-      <c r="H4" s="390" t="s">
+      <c r="F4" s="416"/>
+      <c r="H4" s="417" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="391"/>
+      <c r="I4" s="418"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -46426,11 +47162,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="399" t="s">
+      <c r="P4" s="388" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="400"/>
-      <c r="R4" s="393"/>
+      <c r="Q4" s="389"/>
+      <c r="R4" s="382"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -47947,11 +48683,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="401">
+      <c r="M40" s="390">
         <f>SUM(M5:M39)</f>
         <v>2144215</v>
       </c>
-      <c r="N40" s="403">
+      <c r="N40" s="392">
         <f>SUM(N5:N39)</f>
         <v>62525</v>
       </c>
@@ -47976,8 +48712,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="402"/>
-      <c r="N41" s="404"/>
+      <c r="M41" s="391"/>
+      <c r="N41" s="393"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -48188,29 +48924,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="405" t="s">
+      <c r="H53" s="394" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="406"/>
+      <c r="I53" s="395"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="407">
+      <c r="K53" s="396">
         <f>I51+L51</f>
         <v>51231.42</v>
       </c>
-      <c r="L53" s="408"/>
-      <c r="M53" s="409">
+      <c r="L53" s="397"/>
+      <c r="M53" s="398">
         <f>N40+M40</f>
         <v>2206740</v>
       </c>
-      <c r="N53" s="410"/>
+      <c r="N53" s="399"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="411" t="s">
+      <c r="D54" s="400" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="411"/>
+      <c r="E54" s="400"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2189405.58</v>
@@ -48221,22 +48957,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="412" t="s">
+      <c r="D55" s="401" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="412"/>
+      <c r="E55" s="401"/>
       <c r="F55" s="111">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="413" t="s">
+      <c r="I55" s="402" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="414"/>
-      <c r="K55" s="415">
+      <c r="J55" s="403"/>
+      <c r="K55" s="404">
         <f>F57+F58+F59</f>
         <v>112552.74000000017</v>
       </c>
-      <c r="L55" s="416"/>
+      <c r="L55" s="405"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -48267,11 +49003,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="417">
+      <c r="K57" s="406">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="418"/>
+      <c r="L57" s="407"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -48288,22 +49024,22 @@
       <c r="C59" s="128">
         <v>44710</v>
       </c>
-      <c r="D59" s="394" t="s">
+      <c r="D59" s="383" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="395"/>
+      <c r="E59" s="384"/>
       <c r="F59" s="129">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="396" t="s">
+      <c r="I59" s="385" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="397"/>
-      <c r="K59" s="398">
+      <c r="J59" s="386"/>
+      <c r="K59" s="387">
         <f>K55+K57</f>
         <v>-185321.84999999986</v>
       </c>
-      <c r="L59" s="398"/>
+      <c r="L59" s="387"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -48431,6 +49167,18 @@
     <sortCondition ref="J35:J40"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -48440,18 +49188,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
